--- a/Diagramme de Gantt.xlsx
+++ b/Diagramme de Gantt.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="56">
   <si>
     <t xml:space="preserve">MODÈLE DE DIAGRAMME DE GANTT</t>
   </si>
@@ -132,7 +132,7 @@
     <t xml:space="preserve">Initialisation du projet</t>
   </si>
   <si>
-    <t xml:space="preserve">Analyse et Réalisation du cahier des charges</t>
+    <t xml:space="preserve">Analyse et répartition des tâches</t>
   </si>
   <si>
     <t xml:space="preserve">Tous</t>
@@ -150,16 +150,40 @@
     <t xml:space="preserve">Prise en main de github</t>
   </si>
   <si>
+    <t xml:space="preserve">Analyse &amp; Conception</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Réalisation du cahier des charges</t>
+  </si>
+  <si>
     <t xml:space="preserve">Réalisation d’un Makefile générique</t>
   </si>
   <si>
     <t xml:space="preserve">Xavier</t>
   </si>
   <si>
-    <t xml:space="preserve">Nom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2.1</t>
+    <t xml:space="preserve">Codage &amp; Test </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Récupération d’un projet existant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">’3.1.1 ‘</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test du code Existant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soumia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'3.1.2’</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Initiation à la SDL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Raphaël, Xavier</t>
   </si>
   <si>
     <t xml:space="preserve">3.2.2</t>
@@ -172,7 +196,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="9">
+  <numFmts count="10">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="dd\/mm\/yy"/>
     <numFmt numFmtId="166" formatCode="\$#,##0.00"/>
@@ -182,8 +206,9 @@
     <numFmt numFmtId="170" formatCode="0,%"/>
     <numFmt numFmtId="171" formatCode="0\ %"/>
     <numFmt numFmtId="172" formatCode="@"/>
+    <numFmt numFmtId="173" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="32">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -395,6 +420,12 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF434343"/>
+      <name val="Roboto"/>
+      <family val="0"/>
+    </font>
+    <font>
       <sz val="11"/>
       <name val="Arial"/>
       <family val="0"/>
@@ -453,7 +484,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA2C4C9"/>
-        <bgColor rgb="FFB7B7B7"/>
+        <bgColor rgb="FFCCCCCC"/>
       </patternFill>
     </fill>
     <fill>
@@ -477,7 +508,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFD0E0E3"/>
-        <bgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FFDDEBF7"/>
       </patternFill>
     </fill>
     <fill>
@@ -495,19 +526,13 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFCCCCCC"/>
-        <bgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FFBDD7EE"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF5B9BD5"/>
         <bgColor rgb="FF3D85C6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDDEBF7"/>
-        <bgColor rgb="FFEDEDED"/>
       </patternFill>
     </fill>
     <fill>
@@ -530,12 +555,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFDDEBF7"/>
+        <bgColor rgb="FFEDEDED"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF73C79E"/>
         <bgColor rgb="FFA2C4C9"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="14">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -548,65 +579,8 @@
       <right/>
       <top/>
       <bottom style="thick">
-        <color rgb="FF0B5394"/>
+        <color rgb="FFCCCCCC"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FFD9D9D9"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin">
-        <color rgb="FFB7B7B7"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin">
-        <color rgb="FFB7B7B7"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin">
-        <color rgb="FFB7B7B7"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB7B7B7"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB7B7B7"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB7B7B7"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin">
-        <color rgb="FFB7B7B7"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB7B7B7"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB7B7B7"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -619,147 +593,147 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left/>
+      <left style="thin">
+        <color rgb="FFCCCCCC"/>
+      </left>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFCCCCCC"/>
+      </top>
       <bottom style="thin">
-        <color rgb="FFB7B7B7"/>
+        <color rgb="FFCCCCCC"/>
       </bottom>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left style="thin">
-        <color rgb="FFB7B7B7"/>
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin">
+        <color rgb="FFCCCCCC"/>
       </left>
       <right style="hair">
-        <color rgb="FFB7B7B7"/>
+        <color rgb="FFCCCCCC"/>
       </right>
       <top/>
       <bottom style="hair">
-        <color rgb="FFB7B7B7"/>
+        <color rgb="FFCCCCCC"/>
       </bottom>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left style="hair">
-        <color rgb="FFB7B7B7"/>
+        <color rgb="FFCCCCCC"/>
       </left>
       <right style="hair">
-        <color rgb="FFB7B7B7"/>
+        <color rgb="FFCCCCCC"/>
       </right>
       <top/>
       <bottom style="hair">
-        <color rgb="FFB7B7B7"/>
+        <color rgb="FFCCCCCC"/>
       </bottom>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left style="hair">
-        <color rgb="FFB7B7B7"/>
+        <color rgb="FFCCCCCC"/>
       </left>
       <right style="thin">
-        <color rgb="FFB7B7B7"/>
+        <color rgb="FFCCCCCC"/>
       </right>
       <top/>
       <bottom style="hair">
-        <color rgb="FFB7B7B7"/>
+        <color rgb="FFCCCCCC"/>
       </bottom>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left style="thin">
-        <color rgb="FFB7B7B7"/>
+        <color rgb="FFCCCCCC"/>
       </left>
       <right style="hair">
-        <color rgb="FFB7B7B7"/>
+        <color rgb="FFCCCCCC"/>
       </right>
       <top style="hair">
-        <color rgb="FFB7B7B7"/>
+        <color rgb="FFCCCCCC"/>
       </top>
       <bottom style="hair">
-        <color rgb="FFB7B7B7"/>
+        <color rgb="FFCCCCCC"/>
       </bottom>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left style="hair">
-        <color rgb="FFB7B7B7"/>
+        <color rgb="FFCCCCCC"/>
       </left>
       <right style="hair">
-        <color rgb="FFB7B7B7"/>
+        <color rgb="FFCCCCCC"/>
       </right>
       <top style="hair">
-        <color rgb="FFB7B7B7"/>
+        <color rgb="FFCCCCCC"/>
       </top>
       <bottom style="hair">
-        <color rgb="FFB7B7B7"/>
+        <color rgb="FFCCCCCC"/>
       </bottom>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left style="hair">
-        <color rgb="FFB7B7B7"/>
+        <color rgb="FFCCCCCC"/>
       </left>
       <right style="thin">
-        <color rgb="FFB7B7B7"/>
+        <color rgb="FFCCCCCC"/>
       </right>
       <top style="hair">
-        <color rgb="FFB7B7B7"/>
+        <color rgb="FFCCCCCC"/>
       </top>
       <bottom style="hair">
-        <color rgb="FFB7B7B7"/>
+        <color rgb="FFCCCCCC"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin">
-        <color rgb="FFB7B7B7"/>
-      </left>
-      <right style="hair">
-        <color rgb="FFB7B7B7"/>
-      </right>
-      <top style="hair">
-        <color rgb="FFB7B7B7"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair">
-        <color rgb="FFB7B7B7"/>
-      </left>
-      <right style="hair">
-        <color rgb="FFB7B7B7"/>
-      </right>
-      <top style="hair">
-        <color rgb="FFB7B7B7"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair">
-        <color rgb="FFB7B7B7"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB7B7B7"/>
-      </right>
-      <top style="hair">
-        <color rgb="FFB7B7B7"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right style="hair">
-        <color rgb="FFB7B7B7"/>
+        <color rgb="FFCCCCCC"/>
       </right>
       <top style="hair">
-        <color rgb="FFB7B7B7"/>
+        <color rgb="FFCCCCCC"/>
       </top>
       <bottom style="hair">
-        <color rgb="FFB7B7B7"/>
+        <color rgb="FFCCCCCC"/>
       </bottom>
       <diagonal/>
     </border>
@@ -789,7 +763,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="84">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -970,15 +944,15 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="26" fillId="16" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="26" fillId="16" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="26" fillId="16" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="26" fillId="16" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="26" fillId="16" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="26" fillId="16" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -998,55 +972,67 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="28" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="28" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="28" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="28" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="28" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="171" fontId="29" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="171" fontId="29" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="29" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="29" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="29" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="29" fillId="17" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="29" fillId="17" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="29" fillId="18" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="29" fillId="18" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="29" fillId="19" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="29" fillId="19" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="29" fillId="20" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="29" fillId="20" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="29" fillId="21" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="171" fontId="29" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="29" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1054,116 +1040,60 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="172" fontId="28" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="29" fillId="21" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="17" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="18" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="19" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="20" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="28" fillId="22" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="21" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="13" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="31" fillId="13" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="31" fillId="13" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="173" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="171" fontId="29" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="29" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="29" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="29" fillId="18" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="29" fillId="17" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="29" fillId="19" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="29" fillId="20" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="29" fillId="21" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="29" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="28" fillId="22" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="171" fontId="29" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="29" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="29" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="29" fillId="18" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="29" fillId="17" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="29" fillId="19" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="29" fillId="20" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="29" fillId="21" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="29" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="29" fillId="13" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="30" fillId="13" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="30" fillId="13" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -1186,7 +1116,7 @@
       <rgbColor rgb="FFFF0000"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFEDEDED"/>
+      <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800000"/>
@@ -1195,7 +1125,7 @@
       <rgbColor rgb="FF806000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF3D85C6"/>
-      <rgbColor rgb="FFB7B7B7"/>
+      <rgbColor rgb="FFCCCCCC"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF5B9BD5"/>
       <rgbColor rgb="FF993366"/>
@@ -1218,13 +1148,13 @@
       <rgbColor rgb="FFD0E0E3"/>
       <rgbColor rgb="FFFFE699"/>
       <rgbColor rgb="FFA2C4C9"/>
-      <rgbColor rgb="FFD9D9D9"/>
-      <rgbColor rgb="FFCCCCCC"/>
+      <rgbColor rgb="FFFCE4D6"/>
+      <rgbColor rgb="FFEDEDED"/>
       <rgbColor rgb="FFF8CBAD"/>
       <rgbColor rgb="FF2F75B5"/>
       <rgbColor rgb="FF73C79E"/>
       <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFCE4D6"/>
+      <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFBF8F00"/>
       <rgbColor rgb="FFC65911"/>
       <rgbColor rgb="FF666666"/>
@@ -1248,10 +1178,10 @@
     <tabColor rgb="FF3D85C6"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:BQ38"/>
+  <dimension ref="A1:BQ1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C22" activeCellId="0" sqref="C22"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L23" activeCellId="0" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="0"/>
@@ -2266,10 +2196,10 @@
       <c r="M12" s="60"/>
       <c r="N12" s="60"/>
       <c r="O12" s="60"/>
-      <c r="P12" s="61"/>
-      <c r="Q12" s="61"/>
-      <c r="R12" s="61"/>
-      <c r="S12" s="59"/>
+      <c r="P12" s="60"/>
+      <c r="Q12" s="60"/>
+      <c r="R12" s="60"/>
+      <c r="S12" s="60"/>
       <c r="T12" s="59"/>
       <c r="U12" s="59"/>
       <c r="V12" s="59"/>
@@ -2279,11 +2209,11 @@
       <c r="Z12" s="59"/>
       <c r="AA12" s="59"/>
       <c r="AB12" s="59"/>
-      <c r="AC12" s="62"/>
-      <c r="AD12" s="62"/>
-      <c r="AE12" s="62"/>
-      <c r="AF12" s="62"/>
-      <c r="AG12" s="62"/>
+      <c r="AC12" s="61"/>
+      <c r="AD12" s="61"/>
+      <c r="AE12" s="61"/>
+      <c r="AF12" s="61"/>
+      <c r="AG12" s="61"/>
       <c r="AH12" s="59"/>
       <c r="AI12" s="59"/>
       <c r="AJ12" s="59"/>
@@ -2294,11 +2224,11 @@
       <c r="AO12" s="59"/>
       <c r="AP12" s="59"/>
       <c r="AQ12" s="59"/>
-      <c r="AR12" s="63"/>
-      <c r="AS12" s="63"/>
-      <c r="AT12" s="63"/>
-      <c r="AU12" s="63"/>
-      <c r="AV12" s="63"/>
+      <c r="AR12" s="62"/>
+      <c r="AS12" s="62"/>
+      <c r="AT12" s="62"/>
+      <c r="AU12" s="62"/>
+      <c r="AV12" s="62"/>
       <c r="AW12" s="59"/>
       <c r="AX12" s="59"/>
       <c r="AY12" s="59"/>
@@ -2309,21 +2239,21 @@
       <c r="BD12" s="59"/>
       <c r="BE12" s="59"/>
       <c r="BF12" s="59"/>
-      <c r="BG12" s="64"/>
-      <c r="BH12" s="64"/>
-      <c r="BI12" s="64"/>
-      <c r="BJ12" s="64"/>
-      <c r="BK12" s="64"/>
+      <c r="BG12" s="63"/>
+      <c r="BH12" s="63"/>
+      <c r="BI12" s="63"/>
+      <c r="BJ12" s="63"/>
+      <c r="BK12" s="63"/>
       <c r="BL12" s="59"/>
       <c r="BM12" s="59"/>
       <c r="BN12" s="59"/>
       <c r="BO12" s="59"/>
-      <c r="BP12" s="65"/>
+      <c r="BP12" s="64"/>
       <c r="BQ12" s="51"/>
     </row>
     <row r="13" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A13" s="51"/>
-      <c r="B13" s="66" t="s">
+      <c r="B13" s="65" t="s">
         <v>38</v>
       </c>
       <c r="C13" s="53" t="s">
@@ -2333,78 +2263,76 @@
         <v>37</v>
       </c>
       <c r="E13" s="54" t="n">
-        <v>43174</v>
+        <v>44957</v>
       </c>
       <c r="F13" s="54" t="n">
-        <v>43175</v>
+        <v>44966</v>
       </c>
       <c r="G13" s="55" t="n">
         <f aca="false">DAYS360(E13,F13)</f>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H13" s="56" t="n">
         <v>0.5</v>
       </c>
-      <c r="I13" s="67"/>
-      <c r="J13" s="68"/>
-      <c r="K13" s="69"/>
-      <c r="L13" s="69"/>
-      <c r="M13" s="69"/>
-      <c r="N13" s="70"/>
-      <c r="O13" s="70"/>
-      <c r="P13" s="71"/>
-      <c r="Q13" s="70"/>
-      <c r="R13" s="70"/>
-      <c r="S13" s="69"/>
-      <c r="T13" s="69"/>
-      <c r="U13" s="69"/>
-      <c r="V13" s="69"/>
-      <c r="W13" s="69"/>
-      <c r="X13" s="69"/>
-      <c r="Y13" s="69"/>
-      <c r="Z13" s="69"/>
-      <c r="AA13" s="69"/>
-      <c r="AB13" s="69"/>
-      <c r="AC13" s="72"/>
-      <c r="AD13" s="72"/>
-      <c r="AE13" s="72"/>
-      <c r="AF13" s="72"/>
-      <c r="AG13" s="72"/>
-      <c r="AH13" s="69"/>
-      <c r="AI13" s="69"/>
-      <c r="AJ13" s="69"/>
-      <c r="AK13" s="69"/>
-      <c r="AL13" s="69"/>
-      <c r="AM13" s="69"/>
-      <c r="AN13" s="69"/>
-      <c r="AO13" s="69"/>
-      <c r="AP13" s="69"/>
-      <c r="AQ13" s="69"/>
-      <c r="AR13" s="73"/>
-      <c r="AS13" s="73"/>
-      <c r="AT13" s="73"/>
-      <c r="AU13" s="73"/>
-      <c r="AV13" s="73"/>
-      <c r="AW13" s="69"/>
-      <c r="AX13" s="69"/>
-      <c r="AY13" s="69"/>
-      <c r="AZ13" s="69"/>
-      <c r="BA13" s="69"/>
-      <c r="BB13" s="69"/>
-      <c r="BC13" s="69"/>
-      <c r="BD13" s="69"/>
-      <c r="BE13" s="69"/>
-      <c r="BF13" s="69"/>
-      <c r="BG13" s="74"/>
-      <c r="BH13" s="74"/>
-      <c r="BI13" s="74"/>
-      <c r="BJ13" s="74"/>
-      <c r="BK13" s="74"/>
-      <c r="BL13" s="69"/>
-      <c r="BM13" s="69"/>
-      <c r="BN13" s="69"/>
-      <c r="BO13" s="69"/>
-      <c r="BP13" s="75"/>
+      <c r="I13" s="66"/>
+      <c r="J13" s="67"/>
+      <c r="K13" s="68"/>
+      <c r="L13" s="68"/>
+      <c r="N13" s="69"/>
+      <c r="O13" s="69"/>
+      <c r="Q13" s="69"/>
+      <c r="R13" s="69"/>
+      <c r="S13" s="68"/>
+      <c r="T13" s="70"/>
+      <c r="U13" s="70"/>
+      <c r="V13" s="70"/>
+      <c r="W13" s="70"/>
+      <c r="X13" s="70"/>
+      <c r="Y13" s="70"/>
+      <c r="Z13" s="70"/>
+      <c r="AA13" s="70"/>
+      <c r="AB13" s="68"/>
+      <c r="AC13" s="71"/>
+      <c r="AD13" s="71"/>
+      <c r="AE13" s="71"/>
+      <c r="AF13" s="71"/>
+      <c r="AG13" s="71"/>
+      <c r="AH13" s="68"/>
+      <c r="AI13" s="68"/>
+      <c r="AJ13" s="68"/>
+      <c r="AK13" s="68"/>
+      <c r="AL13" s="68"/>
+      <c r="AM13" s="68"/>
+      <c r="AN13" s="68"/>
+      <c r="AO13" s="68"/>
+      <c r="AP13" s="68"/>
+      <c r="AQ13" s="68"/>
+      <c r="AR13" s="72"/>
+      <c r="AS13" s="72"/>
+      <c r="AT13" s="72"/>
+      <c r="AU13" s="72"/>
+      <c r="AV13" s="72"/>
+      <c r="AW13" s="68"/>
+      <c r="AX13" s="68"/>
+      <c r="AY13" s="68"/>
+      <c r="AZ13" s="68"/>
+      <c r="BA13" s="68"/>
+      <c r="BB13" s="68"/>
+      <c r="BC13" s="68"/>
+      <c r="BD13" s="68"/>
+      <c r="BE13" s="68"/>
+      <c r="BF13" s="68"/>
+      <c r="BG13" s="73"/>
+      <c r="BH13" s="73"/>
+      <c r="BI13" s="73"/>
+      <c r="BJ13" s="73"/>
+      <c r="BK13" s="73"/>
+      <c r="BL13" s="68"/>
+      <c r="BM13" s="68"/>
+      <c r="BN13" s="68"/>
+      <c r="BO13" s="68"/>
+      <c r="BP13" s="74"/>
       <c r="BQ13" s="51"/>
     </row>
     <row r="14" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
@@ -2419,78 +2347,78 @@
         <v>37</v>
       </c>
       <c r="E14" s="54" t="n">
-        <v>43174</v>
+        <v>44946</v>
       </c>
       <c r="F14" s="54" t="n">
-        <v>43180</v>
+        <v>44960</v>
       </c>
       <c r="G14" s="55" t="n">
         <f aca="false">DAYS360(E14,F14)</f>
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="H14" s="56" t="n">
         <v>0.2</v>
       </c>
-      <c r="I14" s="67"/>
-      <c r="J14" s="68"/>
-      <c r="K14" s="69"/>
-      <c r="L14" s="69"/>
-      <c r="M14" s="69"/>
+      <c r="I14" s="66"/>
+      <c r="J14" s="67"/>
+      <c r="K14" s="68"/>
+      <c r="L14" s="68"/>
+      <c r="M14" s="70"/>
       <c r="N14" s="70"/>
       <c r="O14" s="70"/>
-      <c r="P14" s="71"/>
-      <c r="Q14" s="71"/>
-      <c r="R14" s="71"/>
-      <c r="S14" s="71"/>
-      <c r="T14" s="71"/>
-      <c r="U14" s="71"/>
-      <c r="V14" s="69"/>
-      <c r="W14" s="69"/>
-      <c r="X14" s="69"/>
-      <c r="Y14" s="69"/>
-      <c r="Z14" s="69"/>
-      <c r="AA14" s="69"/>
-      <c r="AB14" s="69"/>
-      <c r="AC14" s="72"/>
-      <c r="AD14" s="72"/>
-      <c r="AE14" s="72"/>
-      <c r="AF14" s="72"/>
-      <c r="AG14" s="72"/>
-      <c r="AH14" s="69"/>
-      <c r="AI14" s="69"/>
-      <c r="AJ14" s="69"/>
-      <c r="AK14" s="69"/>
-      <c r="AL14" s="69"/>
-      <c r="AM14" s="69"/>
-      <c r="AN14" s="69"/>
-      <c r="AO14" s="69"/>
-      <c r="AP14" s="69"/>
-      <c r="AQ14" s="69"/>
-      <c r="AR14" s="73"/>
-      <c r="AS14" s="73"/>
-      <c r="AT14" s="73"/>
-      <c r="AU14" s="73"/>
-      <c r="AV14" s="73"/>
-      <c r="AW14" s="69"/>
-      <c r="AX14" s="69"/>
-      <c r="AY14" s="69"/>
-      <c r="AZ14" s="69"/>
-      <c r="BA14" s="69"/>
-      <c r="BB14" s="69"/>
-      <c r="BC14" s="69"/>
-      <c r="BD14" s="69"/>
-      <c r="BE14" s="69"/>
-      <c r="BF14" s="69"/>
-      <c r="BG14" s="74"/>
-      <c r="BH14" s="74"/>
-      <c r="BI14" s="74"/>
-      <c r="BJ14" s="74"/>
-      <c r="BK14" s="74"/>
-      <c r="BL14" s="69"/>
-      <c r="BM14" s="69"/>
-      <c r="BN14" s="69"/>
-      <c r="BO14" s="69"/>
-      <c r="BP14" s="75"/>
+      <c r="P14" s="70"/>
+      <c r="Q14" s="70"/>
+      <c r="R14" s="70"/>
+      <c r="S14" s="70"/>
+      <c r="T14" s="70"/>
+      <c r="U14" s="70"/>
+      <c r="V14" s="70"/>
+      <c r="W14" s="70"/>
+      <c r="X14" s="68"/>
+      <c r="Y14" s="68"/>
+      <c r="Z14" s="68"/>
+      <c r="AA14" s="68"/>
+      <c r="AB14" s="68"/>
+      <c r="AC14" s="71"/>
+      <c r="AD14" s="71"/>
+      <c r="AE14" s="71"/>
+      <c r="AF14" s="71"/>
+      <c r="AG14" s="71"/>
+      <c r="AH14" s="68"/>
+      <c r="AI14" s="68"/>
+      <c r="AJ14" s="68"/>
+      <c r="AK14" s="68"/>
+      <c r="AL14" s="68"/>
+      <c r="AM14" s="68"/>
+      <c r="AN14" s="68"/>
+      <c r="AO14" s="68"/>
+      <c r="AP14" s="68"/>
+      <c r="AQ14" s="68"/>
+      <c r="AR14" s="72"/>
+      <c r="AS14" s="72"/>
+      <c r="AT14" s="72"/>
+      <c r="AU14" s="72"/>
+      <c r="AV14" s="72"/>
+      <c r="AW14" s="68"/>
+      <c r="AX14" s="68"/>
+      <c r="AY14" s="68"/>
+      <c r="AZ14" s="68"/>
+      <c r="BA14" s="68"/>
+      <c r="BB14" s="68"/>
+      <c r="BC14" s="68"/>
+      <c r="BD14" s="68"/>
+      <c r="BE14" s="68"/>
+      <c r="BF14" s="68"/>
+      <c r="BG14" s="73"/>
+      <c r="BH14" s="73"/>
+      <c r="BI14" s="73"/>
+      <c r="BJ14" s="73"/>
+      <c r="BK14" s="73"/>
+      <c r="BL14" s="68"/>
+      <c r="BM14" s="68"/>
+      <c r="BN14" s="68"/>
+      <c r="BO14" s="68"/>
+      <c r="BP14" s="74"/>
       <c r="BQ14" s="51"/>
     </row>
     <row r="15" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
@@ -2505,800 +2433,809 @@
         <v>37</v>
       </c>
       <c r="E15" s="54" t="n">
-        <v>43175</v>
+        <v>44946</v>
       </c>
       <c r="F15" s="54" t="n">
-        <v>43181</v>
+        <v>44948</v>
       </c>
       <c r="G15" s="55" t="n">
         <f aca="false">DAYS360(E15,F15)</f>
-        <v>6</v>
-      </c>
-      <c r="H15" s="76" t="n">
+        <v>2</v>
+      </c>
+      <c r="H15" s="75" t="n">
         <v>0.6</v>
       </c>
-      <c r="I15" s="67"/>
-      <c r="J15" s="68"/>
-      <c r="K15" s="69"/>
-      <c r="L15" s="69"/>
-      <c r="M15" s="69"/>
+      <c r="I15" s="66"/>
+      <c r="J15" s="67"/>
+      <c r="K15" s="68"/>
+      <c r="L15" s="68"/>
+      <c r="M15" s="70"/>
       <c r="N15" s="70"/>
       <c r="O15" s="70"/>
-      <c r="P15" s="70"/>
-      <c r="Q15" s="71"/>
-      <c r="R15" s="71"/>
-      <c r="S15" s="71"/>
-      <c r="T15" s="71"/>
-      <c r="U15" s="71"/>
-      <c r="V15" s="71"/>
-      <c r="W15" s="69"/>
-      <c r="X15" s="69"/>
-      <c r="Y15" s="69"/>
-      <c r="Z15" s="69"/>
-      <c r="AA15" s="69"/>
-      <c r="AB15" s="69"/>
-      <c r="AC15" s="72"/>
-      <c r="AD15" s="72"/>
-      <c r="AE15" s="72"/>
-      <c r="AF15" s="72"/>
-      <c r="AG15" s="72"/>
-      <c r="AH15" s="69"/>
-      <c r="AI15" s="69"/>
-      <c r="AJ15" s="69"/>
-      <c r="AK15" s="69"/>
-      <c r="AL15" s="69"/>
-      <c r="AM15" s="69"/>
-      <c r="AN15" s="69"/>
-      <c r="AO15" s="69"/>
-      <c r="AP15" s="69"/>
-      <c r="AQ15" s="69"/>
-      <c r="AR15" s="73"/>
-      <c r="AS15" s="73"/>
-      <c r="AT15" s="73"/>
-      <c r="AU15" s="73"/>
-      <c r="AV15" s="73"/>
-      <c r="AW15" s="69"/>
-      <c r="AX15" s="69"/>
-      <c r="AY15" s="69"/>
-      <c r="AZ15" s="69"/>
-      <c r="BA15" s="69"/>
-      <c r="BB15" s="69"/>
-      <c r="BC15" s="69"/>
-      <c r="BD15" s="69"/>
-      <c r="BE15" s="69"/>
-      <c r="BF15" s="69"/>
-      <c r="BG15" s="74"/>
-      <c r="BH15" s="74"/>
-      <c r="BI15" s="74"/>
-      <c r="BJ15" s="74"/>
-      <c r="BK15" s="74"/>
-      <c r="BL15" s="69"/>
-      <c r="BM15" s="69"/>
-      <c r="BN15" s="69"/>
-      <c r="BO15" s="69"/>
-      <c r="BP15" s="75"/>
+      <c r="P15" s="69"/>
+      <c r="Q15" s="76"/>
+      <c r="R15" s="76"/>
+      <c r="S15" s="76"/>
+      <c r="T15" s="76"/>
+      <c r="U15" s="76"/>
+      <c r="V15" s="76"/>
+      <c r="W15" s="68"/>
+      <c r="X15" s="68"/>
+      <c r="Y15" s="68"/>
+      <c r="Z15" s="68"/>
+      <c r="AA15" s="68"/>
+      <c r="AB15" s="68"/>
+      <c r="AC15" s="71"/>
+      <c r="AD15" s="71"/>
+      <c r="AE15" s="71"/>
+      <c r="AF15" s="71"/>
+      <c r="AG15" s="71"/>
+      <c r="AH15" s="68"/>
+      <c r="AI15" s="68"/>
+      <c r="AJ15" s="68"/>
+      <c r="AK15" s="68"/>
+      <c r="AL15" s="68"/>
+      <c r="AM15" s="68"/>
+      <c r="AN15" s="68"/>
+      <c r="AO15" s="68"/>
+      <c r="AP15" s="68"/>
+      <c r="AQ15" s="68"/>
+      <c r="AR15" s="72"/>
+      <c r="AS15" s="72"/>
+      <c r="AT15" s="72"/>
+      <c r="AU15" s="72"/>
+      <c r="AV15" s="72"/>
+      <c r="AW15" s="68"/>
+      <c r="AX15" s="68"/>
+      <c r="AY15" s="68"/>
+      <c r="AZ15" s="68"/>
+      <c r="BA15" s="68"/>
+      <c r="BB15" s="68"/>
+      <c r="BC15" s="68"/>
+      <c r="BD15" s="68"/>
+      <c r="BE15" s="68"/>
+      <c r="BF15" s="68"/>
+      <c r="BG15" s="73"/>
+      <c r="BH15" s="73"/>
+      <c r="BI15" s="73"/>
+      <c r="BJ15" s="73"/>
+      <c r="BK15" s="73"/>
+      <c r="BL15" s="68"/>
+      <c r="BM15" s="68"/>
+      <c r="BN15" s="68"/>
+      <c r="BO15" s="68"/>
+      <c r="BP15" s="74"/>
       <c r="BQ15" s="51"/>
     </row>
-    <row r="16" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
-      <c r="A16" s="51"/>
-      <c r="B16" s="52" t="n">
-        <v>43191</v>
-      </c>
-      <c r="C16" s="53" t="s">
+    <row r="16" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="26"/>
+      <c r="B16" s="45" t="n">
+        <v>2</v>
+      </c>
+      <c r="C16" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="53" t="s">
-        <v>43</v>
-      </c>
-      <c r="E16" s="54" t="n">
-        <v>43177</v>
-      </c>
-      <c r="F16" s="54" t="n">
-        <v>43181</v>
-      </c>
-      <c r="G16" s="55" t="n">
-        <f aca="false">DAYS360(E16,F16)</f>
-        <v>4</v>
-      </c>
-      <c r="H16" s="56" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" s="67"/>
-      <c r="J16" s="68"/>
-      <c r="K16" s="69"/>
-      <c r="L16" s="69"/>
-      <c r="M16" s="69"/>
-      <c r="N16" s="70"/>
-      <c r="O16" s="70"/>
-      <c r="P16" s="70"/>
-      <c r="Q16" s="70"/>
-      <c r="R16" s="70"/>
-      <c r="S16" s="71"/>
-      <c r="T16" s="71"/>
-      <c r="U16" s="71"/>
-      <c r="V16" s="71"/>
-      <c r="W16" s="69"/>
-      <c r="X16" s="69"/>
-      <c r="Y16" s="69"/>
-      <c r="Z16" s="69"/>
-      <c r="AA16" s="69"/>
-      <c r="AB16" s="69"/>
-      <c r="AC16" s="72"/>
-      <c r="AD16" s="72"/>
-      <c r="AE16" s="72"/>
-      <c r="AF16" s="72"/>
-      <c r="AG16" s="72"/>
-      <c r="AH16" s="69"/>
-      <c r="AI16" s="69"/>
-      <c r="AJ16" s="69"/>
-      <c r="AK16" s="69"/>
-      <c r="AL16" s="69"/>
-      <c r="AM16" s="69"/>
-      <c r="AN16" s="69"/>
-      <c r="AO16" s="69"/>
-      <c r="AP16" s="69"/>
-      <c r="AQ16" s="69"/>
-      <c r="AR16" s="73"/>
-      <c r="AS16" s="73"/>
-      <c r="AT16" s="73"/>
-      <c r="AU16" s="73"/>
-      <c r="AV16" s="73"/>
-      <c r="AW16" s="69"/>
-      <c r="AX16" s="69"/>
-      <c r="AY16" s="69"/>
-      <c r="AZ16" s="69"/>
-      <c r="BA16" s="69"/>
-      <c r="BB16" s="69"/>
-      <c r="BC16" s="69"/>
-      <c r="BD16" s="69"/>
-      <c r="BE16" s="69"/>
-      <c r="BF16" s="69"/>
-      <c r="BG16" s="74"/>
-      <c r="BH16" s="74"/>
-      <c r="BI16" s="74"/>
-      <c r="BJ16" s="74"/>
-      <c r="BK16" s="74"/>
-      <c r="BL16" s="69"/>
-      <c r="BM16" s="69"/>
-      <c r="BN16" s="69"/>
-      <c r="BO16" s="69"/>
-      <c r="BP16" s="75"/>
-      <c r="BQ16" s="51"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="48"/>
+      <c r="J16" s="49"/>
+      <c r="K16" s="50"/>
+      <c r="L16" s="50"/>
+      <c r="M16" s="48"/>
+      <c r="N16" s="48"/>
+      <c r="O16" s="48"/>
+      <c r="P16" s="48"/>
+      <c r="Q16" s="48"/>
+      <c r="R16" s="48"/>
+      <c r="S16" s="48"/>
+      <c r="T16" s="48"/>
+      <c r="U16" s="48"/>
+      <c r="V16" s="48"/>
+      <c r="W16" s="48"/>
+      <c r="X16" s="48"/>
+      <c r="Y16" s="48"/>
+      <c r="Z16" s="48"/>
+      <c r="AA16" s="48"/>
+      <c r="AB16" s="48"/>
+      <c r="AC16" s="48"/>
+      <c r="AD16" s="48"/>
+      <c r="AE16" s="48"/>
+      <c r="AF16" s="48"/>
+      <c r="AG16" s="48"/>
+      <c r="AH16" s="48"/>
+      <c r="AI16" s="48"/>
+      <c r="AJ16" s="48"/>
+      <c r="AK16" s="48"/>
+      <c r="AL16" s="48"/>
+      <c r="AM16" s="48"/>
+      <c r="AN16" s="48"/>
+      <c r="AO16" s="48"/>
+      <c r="AP16" s="48"/>
+      <c r="AQ16" s="48"/>
+      <c r="AR16" s="48"/>
+      <c r="AS16" s="48"/>
+      <c r="AT16" s="48"/>
+      <c r="AU16" s="48"/>
+      <c r="AV16" s="48"/>
+      <c r="AW16" s="48"/>
+      <c r="AX16" s="48"/>
+      <c r="AY16" s="48"/>
+      <c r="AZ16" s="48"/>
+      <c r="BA16" s="48"/>
+      <c r="BB16" s="48"/>
+      <c r="BC16" s="48"/>
+      <c r="BD16" s="48"/>
+      <c r="BE16" s="48"/>
+      <c r="BF16" s="48"/>
+      <c r="BG16" s="48"/>
+      <c r="BH16" s="48"/>
+      <c r="BI16" s="48"/>
+      <c r="BJ16" s="48"/>
+      <c r="BK16" s="48"/>
+      <c r="BL16" s="48"/>
+      <c r="BM16" s="48"/>
+      <c r="BN16" s="48"/>
+      <c r="BO16" s="48"/>
+      <c r="BP16" s="48"/>
+      <c r="BQ16" s="26"/>
     </row>
     <row r="17" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A17" s="51"/>
       <c r="B17" s="52" t="n">
-        <v>43221</v>
-      </c>
-      <c r="C17" s="53"/>
+        <v>43102</v>
+      </c>
+      <c r="C17" s="77" t="s">
+        <v>43</v>
+      </c>
       <c r="D17" s="53" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="E17" s="54" t="n">
-        <v>43178</v>
+        <v>43183</v>
       </c>
       <c r="F17" s="54" t="n">
-        <v>43181</v>
+        <v>43187</v>
       </c>
       <c r="G17" s="55" t="n">
-        <f aca="false">DAYS360(E17,F17)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H17" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" s="67"/>
-      <c r="J17" s="68"/>
-      <c r="K17" s="69"/>
-      <c r="L17" s="69"/>
-      <c r="M17" s="69"/>
-      <c r="N17" s="70"/>
-      <c r="O17" s="70"/>
-      <c r="P17" s="70"/>
-      <c r="Q17" s="70"/>
-      <c r="R17" s="70"/>
-      <c r="S17" s="69"/>
-      <c r="T17" s="71"/>
-      <c r="U17" s="71"/>
-      <c r="V17" s="71"/>
-      <c r="W17" s="69"/>
-      <c r="X17" s="69"/>
-      <c r="Y17" s="69"/>
-      <c r="Z17" s="69"/>
-      <c r="AA17" s="69"/>
-      <c r="AB17" s="69"/>
-      <c r="AC17" s="72"/>
-      <c r="AD17" s="72"/>
-      <c r="AE17" s="72"/>
-      <c r="AF17" s="72"/>
-      <c r="AG17" s="72"/>
-      <c r="AH17" s="69"/>
-      <c r="AI17" s="69"/>
-      <c r="AJ17" s="69"/>
-      <c r="AK17" s="69"/>
-      <c r="AL17" s="69"/>
-      <c r="AM17" s="69"/>
-      <c r="AN17" s="69"/>
-      <c r="AO17" s="69"/>
-      <c r="AP17" s="69"/>
-      <c r="AQ17" s="69"/>
-      <c r="AR17" s="73"/>
-      <c r="AS17" s="73"/>
-      <c r="AT17" s="73"/>
-      <c r="AU17" s="73"/>
-      <c r="AV17" s="73"/>
-      <c r="AW17" s="69"/>
-      <c r="AX17" s="69"/>
-      <c r="AY17" s="69"/>
-      <c r="AZ17" s="69"/>
-      <c r="BA17" s="69"/>
-      <c r="BB17" s="69"/>
-      <c r="BC17" s="69"/>
-      <c r="BD17" s="69"/>
-      <c r="BE17" s="69"/>
-      <c r="BF17" s="69"/>
-      <c r="BG17" s="74"/>
-      <c r="BH17" s="74"/>
-      <c r="BI17" s="74"/>
-      <c r="BJ17" s="74"/>
-      <c r="BK17" s="74"/>
-      <c r="BL17" s="69"/>
-      <c r="BM17" s="69"/>
-      <c r="BN17" s="69"/>
-      <c r="BO17" s="69"/>
-      <c r="BP17" s="75"/>
+        <v>1</v>
+      </c>
+      <c r="I17" s="57"/>
+      <c r="J17" s="58"/>
+      <c r="K17" s="59"/>
+      <c r="L17" s="59"/>
+      <c r="M17" s="59"/>
+      <c r="N17" s="78"/>
+      <c r="O17" s="78"/>
+      <c r="P17" s="78"/>
+      <c r="Q17" s="78"/>
+      <c r="R17" s="78"/>
+      <c r="S17" s="59"/>
+      <c r="T17" s="59"/>
+      <c r="U17" s="59"/>
+      <c r="V17" s="59"/>
+      <c r="W17" s="59"/>
+      <c r="X17" s="79"/>
+      <c r="Y17" s="79"/>
+      <c r="Z17" s="79"/>
+      <c r="AA17" s="79"/>
+      <c r="AB17" s="59"/>
+      <c r="AC17" s="61"/>
+      <c r="AD17" s="61"/>
+      <c r="AE17" s="61"/>
+      <c r="AF17" s="61"/>
+      <c r="AG17" s="61"/>
+      <c r="AH17" s="59"/>
+      <c r="AI17" s="59"/>
+      <c r="AJ17" s="59"/>
+      <c r="AK17" s="59"/>
+      <c r="AL17" s="59"/>
+      <c r="AM17" s="59"/>
+      <c r="AN17" s="59"/>
+      <c r="AO17" s="59"/>
+      <c r="AP17" s="59"/>
+      <c r="AQ17" s="59"/>
+      <c r="AR17" s="62"/>
+      <c r="AS17" s="62"/>
+      <c r="AT17" s="62"/>
+      <c r="AU17" s="62"/>
+      <c r="AV17" s="62"/>
+      <c r="AW17" s="59"/>
+      <c r="AX17" s="59"/>
+      <c r="AY17" s="59"/>
+      <c r="AZ17" s="59"/>
+      <c r="BA17" s="59"/>
+      <c r="BB17" s="59"/>
+      <c r="BC17" s="59"/>
+      <c r="BD17" s="59"/>
+      <c r="BE17" s="59"/>
+      <c r="BF17" s="59"/>
+      <c r="BG17" s="63"/>
+      <c r="BH17" s="63"/>
+      <c r="BI17" s="63"/>
+      <c r="BJ17" s="63"/>
+      <c r="BK17" s="63"/>
+      <c r="BL17" s="59"/>
+      <c r="BM17" s="59"/>
+      <c r="BN17" s="59"/>
+      <c r="BO17" s="59"/>
+      <c r="BP17" s="64"/>
       <c r="BQ17" s="51"/>
     </row>
     <row r="18" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A18" s="51"/>
-      <c r="B18" s="77" t="n">
-        <v>43252</v>
-      </c>
-      <c r="C18" s="78"/>
+      <c r="B18" s="52" t="n">
+        <v>43133</v>
+      </c>
+      <c r="C18" s="53" t="s">
+        <v>44</v>
+      </c>
       <c r="D18" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="E18" s="79" t="n">
-        <v>43182</v>
-      </c>
-      <c r="F18" s="79" t="n">
-        <v>43182</v>
-      </c>
-      <c r="G18" s="80" t="n">
-        <f aca="false">DAYS360(E18,F18)</f>
-        <v>0</v>
-      </c>
-      <c r="H18" s="81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" s="82"/>
-      <c r="J18" s="83"/>
-      <c r="K18" s="84"/>
-      <c r="L18" s="84"/>
-      <c r="M18" s="84"/>
-      <c r="N18" s="85"/>
-      <c r="O18" s="85"/>
-      <c r="P18" s="85"/>
-      <c r="Q18" s="85"/>
-      <c r="R18" s="85"/>
-      <c r="S18" s="84"/>
-      <c r="T18" s="84"/>
-      <c r="U18" s="84"/>
-      <c r="V18" s="84"/>
-      <c r="W18" s="86"/>
-      <c r="X18" s="84"/>
-      <c r="Y18" s="84"/>
-      <c r="Z18" s="84"/>
-      <c r="AA18" s="84"/>
-      <c r="AB18" s="84"/>
-      <c r="AC18" s="87"/>
-      <c r="AD18" s="87"/>
-      <c r="AE18" s="87"/>
-      <c r="AF18" s="87"/>
-      <c r="AG18" s="87"/>
-      <c r="AH18" s="84"/>
-      <c r="AI18" s="84"/>
-      <c r="AJ18" s="84"/>
-      <c r="AK18" s="84"/>
-      <c r="AL18" s="84"/>
-      <c r="AM18" s="84"/>
-      <c r="AN18" s="84"/>
-      <c r="AO18" s="84"/>
-      <c r="AP18" s="84"/>
-      <c r="AQ18" s="84"/>
-      <c r="AR18" s="88"/>
-      <c r="AS18" s="88"/>
-      <c r="AT18" s="88"/>
-      <c r="AU18" s="88"/>
-      <c r="AV18" s="88"/>
-      <c r="AW18" s="84"/>
-      <c r="AX18" s="84"/>
-      <c r="AY18" s="84"/>
-      <c r="AZ18" s="84"/>
-      <c r="BA18" s="84"/>
-      <c r="BB18" s="84"/>
-      <c r="BC18" s="84"/>
-      <c r="BD18" s="84"/>
-      <c r="BE18" s="84"/>
-      <c r="BF18" s="84"/>
-      <c r="BG18" s="89"/>
-      <c r="BH18" s="89"/>
-      <c r="BI18" s="89"/>
-      <c r="BJ18" s="89"/>
-      <c r="BK18" s="89"/>
-      <c r="BL18" s="84"/>
-      <c r="BM18" s="84"/>
-      <c r="BN18" s="84"/>
-      <c r="BO18" s="84"/>
-      <c r="BP18" s="90"/>
+        <v>45</v>
+      </c>
+      <c r="E18" s="54" t="n">
+        <v>44966</v>
+      </c>
+      <c r="F18" s="54" t="n">
+        <v>44966</v>
+      </c>
+      <c r="G18" s="55" t="n">
+        <v>3</v>
+      </c>
+      <c r="H18" s="56" t="n">
+        <v>1</v>
+      </c>
+      <c r="I18" s="66"/>
+      <c r="J18" s="67"/>
+      <c r="K18" s="68"/>
+      <c r="L18" s="68"/>
+      <c r="M18" s="68"/>
+      <c r="N18" s="69"/>
+      <c r="O18" s="69"/>
+      <c r="P18" s="69"/>
+      <c r="Q18" s="69"/>
+      <c r="R18" s="69"/>
+      <c r="S18" s="68"/>
+      <c r="T18" s="68"/>
+      <c r="U18" s="68"/>
+      <c r="V18" s="68"/>
+      <c r="W18" s="68"/>
+      <c r="X18" s="68"/>
+      <c r="Y18" s="68"/>
+      <c r="Z18" s="68"/>
+      <c r="AA18" s="68"/>
+      <c r="AB18" s="79"/>
+      <c r="AC18" s="79"/>
+      <c r="AD18" s="79"/>
+      <c r="AE18" s="80"/>
+      <c r="AF18" s="81"/>
+      <c r="AG18" s="81"/>
+      <c r="AH18" s="68"/>
+      <c r="AI18" s="68"/>
+      <c r="AJ18" s="68"/>
+      <c r="AK18" s="68"/>
+      <c r="AL18" s="68"/>
+      <c r="AM18" s="68"/>
+      <c r="AN18" s="68"/>
+      <c r="AO18" s="68"/>
+      <c r="AP18" s="68"/>
+      <c r="AQ18" s="68"/>
+      <c r="AR18" s="72"/>
+      <c r="AS18" s="72"/>
+      <c r="AT18" s="72"/>
+      <c r="AU18" s="72"/>
+      <c r="AV18" s="72"/>
+      <c r="AW18" s="68"/>
+      <c r="AX18" s="68"/>
+      <c r="AY18" s="68"/>
+      <c r="AZ18" s="68"/>
+      <c r="BA18" s="68"/>
+      <c r="BB18" s="68"/>
+      <c r="BC18" s="68"/>
+      <c r="BD18" s="68"/>
+      <c r="BE18" s="68"/>
+      <c r="BF18" s="68"/>
+      <c r="BG18" s="73"/>
+      <c r="BH18" s="73"/>
+      <c r="BI18" s="73"/>
+      <c r="BJ18" s="73"/>
+      <c r="BK18" s="73"/>
+      <c r="BL18" s="68"/>
+      <c r="BM18" s="68"/>
+      <c r="BN18" s="68"/>
+      <c r="BO18" s="68"/>
+      <c r="BP18" s="74"/>
       <c r="BQ18" s="51"/>
     </row>
-    <row r="19" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="26"/>
-      <c r="B19" s="45" t="n">
-        <v>2</v>
-      </c>
-      <c r="C19" s="46"/>
-      <c r="D19" s="47"/>
-      <c r="E19" s="47"/>
-      <c r="F19" s="47"/>
-      <c r="G19" s="47"/>
-      <c r="H19" s="47"/>
-      <c r="I19" s="48"/>
-      <c r="J19" s="49"/>
-      <c r="K19" s="50"/>
-      <c r="L19" s="50"/>
-      <c r="M19" s="48"/>
-      <c r="N19" s="48"/>
-      <c r="O19" s="48"/>
-      <c r="P19" s="48"/>
-      <c r="Q19" s="48"/>
-      <c r="R19" s="48"/>
-      <c r="S19" s="48"/>
-      <c r="T19" s="48"/>
-      <c r="U19" s="48"/>
-      <c r="V19" s="48"/>
-      <c r="W19" s="48"/>
-      <c r="X19" s="48"/>
-      <c r="Y19" s="48"/>
-      <c r="Z19" s="48"/>
-      <c r="AA19" s="48"/>
-      <c r="AB19" s="48"/>
-      <c r="AC19" s="48"/>
-      <c r="AD19" s="48"/>
-      <c r="AE19" s="48"/>
-      <c r="AF19" s="48"/>
-      <c r="AG19" s="48"/>
-      <c r="AH19" s="48"/>
-      <c r="AI19" s="48"/>
-      <c r="AJ19" s="48"/>
-      <c r="AK19" s="48"/>
-      <c r="AL19" s="48"/>
-      <c r="AM19" s="48"/>
-      <c r="AN19" s="48"/>
-      <c r="AO19" s="48"/>
-      <c r="AP19" s="48"/>
-      <c r="AQ19" s="48"/>
-      <c r="AR19" s="48"/>
-      <c r="AS19" s="48"/>
-      <c r="AT19" s="48"/>
-      <c r="AU19" s="48"/>
-      <c r="AV19" s="48"/>
-      <c r="AW19" s="48"/>
-      <c r="AX19" s="48"/>
-      <c r="AY19" s="48"/>
-      <c r="AZ19" s="48"/>
-      <c r="BA19" s="48"/>
-      <c r="BB19" s="48"/>
-      <c r="BC19" s="48"/>
-      <c r="BD19" s="48"/>
-      <c r="BE19" s="48"/>
-      <c r="BF19" s="48"/>
-      <c r="BG19" s="48"/>
-      <c r="BH19" s="48"/>
-      <c r="BI19" s="48"/>
-      <c r="BJ19" s="48"/>
-      <c r="BK19" s="48"/>
-      <c r="BL19" s="48"/>
-      <c r="BM19" s="48"/>
-      <c r="BN19" s="48"/>
-      <c r="BO19" s="48"/>
-      <c r="BP19" s="48"/>
-      <c r="BQ19" s="26"/>
+    <row r="19" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+      <c r="A19" s="51"/>
+      <c r="B19" s="52" t="n">
+        <v>43161</v>
+      </c>
+      <c r="C19" s="53"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="54"/>
+      <c r="G19" s="55" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" s="66"/>
+      <c r="J19" s="67"/>
+      <c r="K19" s="68"/>
+      <c r="L19" s="68"/>
+      <c r="M19" s="68"/>
+      <c r="N19" s="69"/>
+      <c r="O19" s="69"/>
+      <c r="P19" s="69"/>
+      <c r="Q19" s="69"/>
+      <c r="R19" s="69"/>
+      <c r="S19" s="68"/>
+      <c r="T19" s="68"/>
+      <c r="U19" s="68"/>
+      <c r="V19" s="68"/>
+      <c r="W19" s="68"/>
+      <c r="X19" s="68"/>
+      <c r="Y19" s="68"/>
+      <c r="Z19" s="68"/>
+      <c r="AA19" s="68"/>
+      <c r="AB19" s="68"/>
+      <c r="AC19" s="71"/>
+      <c r="AD19" s="71"/>
+      <c r="AE19" s="71"/>
+      <c r="AF19" s="71"/>
+      <c r="AG19" s="71"/>
+      <c r="AH19" s="68"/>
+      <c r="AI19" s="68"/>
+      <c r="AJ19" s="68"/>
+      <c r="AK19" s="68"/>
+      <c r="AL19" s="68"/>
+      <c r="AM19" s="68"/>
+      <c r="AN19" s="68"/>
+      <c r="AO19" s="68"/>
+      <c r="AP19" s="68"/>
+      <c r="AQ19" s="68"/>
+      <c r="AR19" s="72"/>
+      <c r="AS19" s="72"/>
+      <c r="AT19" s="72"/>
+      <c r="AU19" s="72"/>
+      <c r="AV19" s="72"/>
+      <c r="AW19" s="68"/>
+      <c r="AX19" s="68"/>
+      <c r="AY19" s="68"/>
+      <c r="AZ19" s="68"/>
+      <c r="BA19" s="68"/>
+      <c r="BB19" s="68"/>
+      <c r="BC19" s="68"/>
+      <c r="BD19" s="68"/>
+      <c r="BE19" s="68"/>
+      <c r="BF19" s="68"/>
+      <c r="BG19" s="73"/>
+      <c r="BH19" s="73"/>
+      <c r="BI19" s="73"/>
+      <c r="BJ19" s="73"/>
+      <c r="BK19" s="73"/>
+      <c r="BL19" s="68"/>
+      <c r="BM19" s="68"/>
+      <c r="BN19" s="68"/>
+      <c r="BO19" s="68"/>
+      <c r="BP19" s="74"/>
+      <c r="BQ19" s="51"/>
     </row>
     <row r="20" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A20" s="51"/>
       <c r="B20" s="52" t="n">
-        <v>43102</v>
+        <v>43192</v>
       </c>
       <c r="C20" s="53"/>
       <c r="D20" s="53"/>
-      <c r="E20" s="54" t="n">
-        <v>43183</v>
-      </c>
-      <c r="F20" s="54" t="n">
-        <v>43187</v>
-      </c>
+      <c r="E20" s="54"/>
+      <c r="F20" s="54"/>
       <c r="G20" s="55" t="n">
-        <v>4</v>
-      </c>
-      <c r="H20" s="56" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="I20" s="57"/>
-      <c r="J20" s="58"/>
-      <c r="K20" s="59"/>
-      <c r="L20" s="59"/>
-      <c r="M20" s="59"/>
-      <c r="N20" s="61"/>
-      <c r="O20" s="61"/>
-      <c r="P20" s="61"/>
-      <c r="Q20" s="61"/>
-      <c r="R20" s="61"/>
-      <c r="S20" s="59"/>
-      <c r="T20" s="59"/>
-      <c r="U20" s="59"/>
-      <c r="V20" s="59"/>
-      <c r="W20" s="59"/>
-      <c r="X20" s="91"/>
-      <c r="Y20" s="91"/>
-      <c r="Z20" s="91"/>
-      <c r="AA20" s="91"/>
-      <c r="AB20" s="59"/>
-      <c r="AC20" s="62"/>
-      <c r="AD20" s="62"/>
-      <c r="AE20" s="62"/>
-      <c r="AF20" s="62"/>
-      <c r="AG20" s="62"/>
-      <c r="AH20" s="59"/>
-      <c r="AI20" s="59"/>
-      <c r="AJ20" s="59"/>
-      <c r="AK20" s="59"/>
-      <c r="AL20" s="59"/>
-      <c r="AM20" s="59"/>
-      <c r="AN20" s="59"/>
-      <c r="AO20" s="59"/>
-      <c r="AP20" s="59"/>
-      <c r="AQ20" s="59"/>
-      <c r="AR20" s="63"/>
-      <c r="AS20" s="63"/>
-      <c r="AT20" s="63"/>
-      <c r="AU20" s="63"/>
-      <c r="AV20" s="63"/>
-      <c r="AW20" s="59"/>
-      <c r="AX20" s="59"/>
-      <c r="AY20" s="59"/>
-      <c r="AZ20" s="59"/>
-      <c r="BA20" s="59"/>
-      <c r="BB20" s="59"/>
-      <c r="BC20" s="59"/>
-      <c r="BD20" s="59"/>
-      <c r="BE20" s="59"/>
-      <c r="BF20" s="59"/>
-      <c r="BG20" s="64"/>
-      <c r="BH20" s="64"/>
-      <c r="BI20" s="64"/>
-      <c r="BJ20" s="64"/>
-      <c r="BK20" s="64"/>
-      <c r="BL20" s="59"/>
-      <c r="BM20" s="59"/>
-      <c r="BN20" s="59"/>
-      <c r="BO20" s="59"/>
-      <c r="BP20" s="65"/>
+        <v>0</v>
+      </c>
+      <c r="H20" s="75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" s="66"/>
+      <c r="J20" s="67"/>
+      <c r="K20" s="68"/>
+      <c r="L20" s="68"/>
+      <c r="M20" s="68"/>
+      <c r="N20" s="69"/>
+      <c r="O20" s="69"/>
+      <c r="P20" s="69"/>
+      <c r="Q20" s="69"/>
+      <c r="R20" s="69"/>
+      <c r="S20" s="68"/>
+      <c r="T20" s="68"/>
+      <c r="U20" s="68"/>
+      <c r="V20" s="68"/>
+      <c r="W20" s="68"/>
+      <c r="X20" s="68"/>
+      <c r="Y20" s="68"/>
+      <c r="Z20" s="68"/>
+      <c r="AA20" s="68"/>
+      <c r="AB20" s="68"/>
+      <c r="AC20" s="71"/>
+      <c r="AD20" s="71"/>
+      <c r="AE20" s="71"/>
+      <c r="AF20" s="71"/>
+      <c r="AG20" s="71"/>
+      <c r="AH20" s="68"/>
+      <c r="AI20" s="68"/>
+      <c r="AJ20" s="68"/>
+      <c r="AK20" s="68"/>
+      <c r="AL20" s="68"/>
+      <c r="AM20" s="68"/>
+      <c r="AN20" s="68"/>
+      <c r="AO20" s="68"/>
+      <c r="AP20" s="68"/>
+      <c r="AQ20" s="68"/>
+      <c r="AR20" s="72"/>
+      <c r="AS20" s="72"/>
+      <c r="AT20" s="72"/>
+      <c r="AU20" s="72"/>
+      <c r="AV20" s="72"/>
+      <c r="AW20" s="68"/>
+      <c r="AX20" s="68"/>
+      <c r="AY20" s="68"/>
+      <c r="AZ20" s="68"/>
+      <c r="BA20" s="68"/>
+      <c r="BB20" s="68"/>
+      <c r="BC20" s="68"/>
+      <c r="BD20" s="68"/>
+      <c r="BE20" s="68"/>
+      <c r="BF20" s="68"/>
+      <c r="BG20" s="73"/>
+      <c r="BH20" s="73"/>
+      <c r="BI20" s="73"/>
+      <c r="BJ20" s="73"/>
+      <c r="BK20" s="73"/>
+      <c r="BL20" s="68"/>
+      <c r="BM20" s="68"/>
+      <c r="BN20" s="68"/>
+      <c r="BO20" s="68"/>
+      <c r="BP20" s="74"/>
       <c r="BQ20" s="51"/>
     </row>
-    <row r="21" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
-      <c r="A21" s="51"/>
-      <c r="B21" s="52" t="n">
-        <v>43133</v>
-      </c>
-      <c r="C21" s="53"/>
-      <c r="D21" s="53"/>
-      <c r="E21" s="54" t="n">
-        <v>43188</v>
-      </c>
-      <c r="F21" s="54" t="n">
-        <v>43192</v>
-      </c>
-      <c r="G21" s="55" t="n">
+    <row r="21" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="26"/>
+      <c r="B21" s="45" t="n">
         <v>3</v>
       </c>
-      <c r="H21" s="56" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="I21" s="67"/>
-      <c r="J21" s="68"/>
-      <c r="K21" s="69"/>
-      <c r="L21" s="69"/>
-      <c r="M21" s="69"/>
-      <c r="N21" s="70"/>
-      <c r="O21" s="70"/>
-      <c r="P21" s="70"/>
-      <c r="Q21" s="70"/>
-      <c r="R21" s="70"/>
-      <c r="S21" s="69"/>
-      <c r="T21" s="69"/>
-      <c r="U21" s="69"/>
-      <c r="V21" s="69"/>
-      <c r="W21" s="69"/>
-      <c r="X21" s="69"/>
-      <c r="Y21" s="69"/>
-      <c r="Z21" s="69"/>
-      <c r="AA21" s="69"/>
-      <c r="AB21" s="91"/>
-      <c r="AC21" s="91"/>
-      <c r="AD21" s="91"/>
-      <c r="AE21" s="92"/>
-      <c r="AF21" s="93"/>
-      <c r="AG21" s="93"/>
-      <c r="AH21" s="69"/>
-      <c r="AI21" s="69"/>
-      <c r="AJ21" s="69"/>
-      <c r="AK21" s="69"/>
-      <c r="AL21" s="69"/>
-      <c r="AM21" s="69"/>
-      <c r="AN21" s="69"/>
-      <c r="AO21" s="69"/>
-      <c r="AP21" s="69"/>
-      <c r="AQ21" s="69"/>
-      <c r="AR21" s="73"/>
-      <c r="AS21" s="73"/>
-      <c r="AT21" s="73"/>
-      <c r="AU21" s="73"/>
-      <c r="AV21" s="73"/>
-      <c r="AW21" s="69"/>
-      <c r="AX21" s="69"/>
-      <c r="AY21" s="69"/>
-      <c r="AZ21" s="69"/>
-      <c r="BA21" s="69"/>
-      <c r="BB21" s="69"/>
-      <c r="BC21" s="69"/>
-      <c r="BD21" s="69"/>
-      <c r="BE21" s="69"/>
-      <c r="BF21" s="69"/>
-      <c r="BG21" s="74"/>
-      <c r="BH21" s="74"/>
-      <c r="BI21" s="74"/>
-      <c r="BJ21" s="74"/>
-      <c r="BK21" s="74"/>
-      <c r="BL21" s="69"/>
-      <c r="BM21" s="69"/>
-      <c r="BN21" s="69"/>
-      <c r="BO21" s="69"/>
-      <c r="BP21" s="75"/>
-      <c r="BQ21" s="51"/>
+      <c r="C21" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" s="47"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="47"/>
+      <c r="H21" s="47"/>
+      <c r="I21" s="48"/>
+      <c r="J21" s="49"/>
+      <c r="K21" s="50"/>
+      <c r="L21" s="50"/>
+      <c r="M21" s="48"/>
+      <c r="N21" s="48"/>
+      <c r="O21" s="48"/>
+      <c r="P21" s="48"/>
+      <c r="Q21" s="48"/>
+      <c r="R21" s="48"/>
+      <c r="S21" s="48"/>
+      <c r="T21" s="48"/>
+      <c r="U21" s="48"/>
+      <c r="V21" s="48"/>
+      <c r="W21" s="48"/>
+      <c r="X21" s="48"/>
+      <c r="Y21" s="48"/>
+      <c r="Z21" s="48"/>
+      <c r="AA21" s="48"/>
+      <c r="AB21" s="48"/>
+      <c r="AC21" s="48"/>
+      <c r="AD21" s="48"/>
+      <c r="AE21" s="48"/>
+      <c r="AF21" s="48"/>
+      <c r="AG21" s="48"/>
+      <c r="AH21" s="48"/>
+      <c r="AI21" s="48"/>
+      <c r="AJ21" s="48"/>
+      <c r="AK21" s="48"/>
+      <c r="AL21" s="48"/>
+      <c r="AM21" s="48"/>
+      <c r="AN21" s="48"/>
+      <c r="AO21" s="48"/>
+      <c r="AP21" s="48"/>
+      <c r="AQ21" s="48"/>
+      <c r="AR21" s="48"/>
+      <c r="AS21" s="48"/>
+      <c r="AT21" s="48"/>
+      <c r="AU21" s="48"/>
+      <c r="AV21" s="48"/>
+      <c r="AW21" s="48"/>
+      <c r="AX21" s="48"/>
+      <c r="AY21" s="48"/>
+      <c r="AZ21" s="48"/>
+      <c r="BA21" s="48"/>
+      <c r="BB21" s="48"/>
+      <c r="BC21" s="48"/>
+      <c r="BD21" s="48"/>
+      <c r="BE21" s="48"/>
+      <c r="BF21" s="48"/>
+      <c r="BG21" s="48"/>
+      <c r="BH21" s="48"/>
+      <c r="BI21" s="48"/>
+      <c r="BJ21" s="48"/>
+      <c r="BK21" s="48"/>
+      <c r="BL21" s="48"/>
+      <c r="BM21" s="48"/>
+      <c r="BN21" s="48"/>
+      <c r="BO21" s="48"/>
+      <c r="BP21" s="48"/>
+      <c r="BQ21" s="26"/>
     </row>
     <row r="22" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A22" s="51"/>
       <c r="B22" s="52" t="n">
-        <v>43161</v>
-      </c>
-      <c r="C22" s="53"/>
-      <c r="D22" s="53"/>
-      <c r="E22" s="54"/>
-      <c r="F22" s="54"/>
+        <v>43103</v>
+      </c>
+      <c r="C22" s="53" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" s="53" t="s">
+        <v>37</v>
+      </c>
+      <c r="E22" s="54" t="n">
+        <v>44966</v>
+      </c>
+      <c r="F22" s="54" t="n">
+        <v>44966</v>
+      </c>
       <c r="G22" s="55" t="n">
         <v>0</v>
       </c>
       <c r="H22" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" s="67"/>
-      <c r="J22" s="68"/>
-      <c r="K22" s="69"/>
-      <c r="L22" s="69"/>
-      <c r="M22" s="69"/>
-      <c r="N22" s="70"/>
-      <c r="O22" s="70"/>
-      <c r="P22" s="70"/>
-      <c r="Q22" s="70"/>
-      <c r="R22" s="70"/>
-      <c r="S22" s="69"/>
-      <c r="T22" s="69"/>
-      <c r="U22" s="69"/>
-      <c r="V22" s="69"/>
-      <c r="W22" s="69"/>
-      <c r="X22" s="69"/>
-      <c r="Y22" s="69"/>
-      <c r="Z22" s="69"/>
-      <c r="AA22" s="69"/>
-      <c r="AB22" s="69"/>
-      <c r="AC22" s="72"/>
-      <c r="AD22" s="72"/>
-      <c r="AE22" s="72"/>
-      <c r="AF22" s="72"/>
-      <c r="AG22" s="72"/>
-      <c r="AH22" s="69"/>
-      <c r="AI22" s="69"/>
-      <c r="AJ22" s="69"/>
-      <c r="AK22" s="69"/>
-      <c r="AL22" s="69"/>
-      <c r="AM22" s="69"/>
-      <c r="AN22" s="69"/>
-      <c r="AO22" s="69"/>
-      <c r="AP22" s="69"/>
-      <c r="AQ22" s="69"/>
-      <c r="AR22" s="73"/>
-      <c r="AS22" s="73"/>
-      <c r="AT22" s="73"/>
-      <c r="AU22" s="73"/>
-      <c r="AV22" s="73"/>
-      <c r="AW22" s="69"/>
-      <c r="AX22" s="69"/>
-      <c r="AY22" s="69"/>
-      <c r="AZ22" s="69"/>
-      <c r="BA22" s="69"/>
-      <c r="BB22" s="69"/>
-      <c r="BC22" s="69"/>
-      <c r="BD22" s="69"/>
-      <c r="BE22" s="69"/>
-      <c r="BF22" s="69"/>
-      <c r="BG22" s="74"/>
-      <c r="BH22" s="74"/>
-      <c r="BI22" s="74"/>
-      <c r="BJ22" s="74"/>
-      <c r="BK22" s="74"/>
-      <c r="BL22" s="69"/>
-      <c r="BM22" s="69"/>
-      <c r="BN22" s="69"/>
-      <c r="BO22" s="69"/>
-      <c r="BP22" s="75"/>
+        <v>1</v>
+      </c>
+      <c r="I22" s="57"/>
+      <c r="J22" s="58"/>
+      <c r="K22" s="59"/>
+      <c r="L22" s="59"/>
+      <c r="M22" s="59"/>
+      <c r="N22" s="69"/>
+      <c r="O22" s="69"/>
+      <c r="P22" s="69"/>
+      <c r="Q22" s="69"/>
+      <c r="R22" s="69"/>
+      <c r="S22" s="59"/>
+      <c r="T22" s="59"/>
+      <c r="U22" s="59"/>
+      <c r="V22" s="59"/>
+      <c r="W22" s="59"/>
+      <c r="X22" s="59"/>
+      <c r="Y22" s="59"/>
+      <c r="Z22" s="59"/>
+      <c r="AA22" s="59"/>
+      <c r="AB22" s="59"/>
+      <c r="AC22" s="61"/>
+      <c r="AD22" s="61"/>
+      <c r="AE22" s="61"/>
+      <c r="AF22" s="61"/>
+      <c r="AG22" s="61"/>
+      <c r="AH22" s="59"/>
+      <c r="AI22" s="59"/>
+      <c r="AJ22" s="59"/>
+      <c r="AK22" s="59"/>
+      <c r="AL22" s="59"/>
+      <c r="AM22" s="59"/>
+      <c r="AN22" s="59"/>
+      <c r="AO22" s="59"/>
+      <c r="AP22" s="59"/>
+      <c r="AQ22" s="59"/>
+      <c r="AR22" s="62"/>
+      <c r="AS22" s="62"/>
+      <c r="AT22" s="62"/>
+      <c r="AU22" s="62"/>
+      <c r="AV22" s="62"/>
+      <c r="AW22" s="59"/>
+      <c r="AX22" s="59"/>
+      <c r="AY22" s="59"/>
+      <c r="AZ22" s="59"/>
+      <c r="BA22" s="59"/>
+      <c r="BB22" s="59"/>
+      <c r="BC22" s="59"/>
+      <c r="BD22" s="59"/>
+      <c r="BE22" s="59"/>
+      <c r="BF22" s="59"/>
+      <c r="BG22" s="63"/>
+      <c r="BH22" s="63"/>
+      <c r="BI22" s="63"/>
+      <c r="BJ22" s="63"/>
+      <c r="BK22" s="63"/>
+      <c r="BL22" s="59"/>
+      <c r="BM22" s="59"/>
+      <c r="BN22" s="59"/>
+      <c r="BO22" s="59"/>
+      <c r="BP22" s="64"/>
       <c r="BQ22" s="51"/>
     </row>
     <row r="23" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A23" s="51"/>
-      <c r="B23" s="52" t="n">
-        <v>43192</v>
-      </c>
-      <c r="C23" s="53"/>
-      <c r="D23" s="53"/>
-      <c r="E23" s="54"/>
+      <c r="B23" s="82" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="53" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" s="53" t="s">
+        <v>50</v>
+      </c>
+      <c r="E23" s="54" t="n">
+        <v>44966</v>
+      </c>
       <c r="F23" s="54"/>
       <c r="G23" s="55" t="n">
         <v>0</v>
       </c>
-      <c r="H23" s="76" t="n">
+      <c r="H23" s="56" t="n">
         <v>0</v>
       </c>
-      <c r="I23" s="67"/>
-      <c r="J23" s="68"/>
-      <c r="K23" s="69"/>
-      <c r="L23" s="69"/>
-      <c r="M23" s="69"/>
-      <c r="N23" s="70"/>
-      <c r="O23" s="70"/>
-      <c r="P23" s="70"/>
-      <c r="Q23" s="70"/>
-      <c r="R23" s="70"/>
-      <c r="S23" s="69"/>
-      <c r="T23" s="69"/>
-      <c r="U23" s="69"/>
-      <c r="V23" s="69"/>
-      <c r="W23" s="69"/>
-      <c r="X23" s="69"/>
-      <c r="Y23" s="69"/>
-      <c r="Z23" s="69"/>
-      <c r="AA23" s="69"/>
-      <c r="AB23" s="69"/>
-      <c r="AC23" s="72"/>
-      <c r="AD23" s="72"/>
-      <c r="AE23" s="72"/>
-      <c r="AF23" s="72"/>
-      <c r="AG23" s="72"/>
-      <c r="AH23" s="69"/>
-      <c r="AI23" s="69"/>
-      <c r="AJ23" s="69"/>
-      <c r="AK23" s="69"/>
-      <c r="AL23" s="69"/>
-      <c r="AM23" s="69"/>
-      <c r="AN23" s="69"/>
-      <c r="AO23" s="69"/>
-      <c r="AP23" s="69"/>
-      <c r="AQ23" s="69"/>
-      <c r="AR23" s="73"/>
-      <c r="AS23" s="73"/>
-      <c r="AT23" s="73"/>
-      <c r="AU23" s="73"/>
-      <c r="AV23" s="73"/>
-      <c r="AW23" s="69"/>
-      <c r="AX23" s="69"/>
-      <c r="AY23" s="69"/>
-      <c r="AZ23" s="69"/>
-      <c r="BA23" s="69"/>
-      <c r="BB23" s="69"/>
-      <c r="BC23" s="69"/>
-      <c r="BD23" s="69"/>
-      <c r="BE23" s="69"/>
-      <c r="BF23" s="69"/>
-      <c r="BG23" s="74"/>
-      <c r="BH23" s="74"/>
-      <c r="BI23" s="74"/>
-      <c r="BJ23" s="74"/>
-      <c r="BK23" s="74"/>
-      <c r="BL23" s="69"/>
-      <c r="BM23" s="69"/>
-      <c r="BN23" s="69"/>
-      <c r="BO23" s="69"/>
-      <c r="BP23" s="75"/>
+      <c r="I23" s="66"/>
+      <c r="J23" s="67"/>
+      <c r="K23" s="68"/>
+      <c r="L23" s="68"/>
+      <c r="M23" s="68"/>
+      <c r="N23" s="69"/>
+      <c r="O23" s="69"/>
+      <c r="P23" s="69"/>
+      <c r="Q23" s="69"/>
+      <c r="R23" s="69"/>
+      <c r="S23" s="68"/>
+      <c r="T23" s="68"/>
+      <c r="U23" s="68"/>
+      <c r="V23" s="68"/>
+      <c r="W23" s="68"/>
+      <c r="X23" s="68"/>
+      <c r="Y23" s="68"/>
+      <c r="Z23" s="68"/>
+      <c r="AA23" s="68"/>
+      <c r="AB23" s="68"/>
+      <c r="AC23" s="71"/>
+      <c r="AD23" s="71"/>
+      <c r="AE23" s="71"/>
+      <c r="AF23" s="71"/>
+      <c r="AG23" s="71"/>
+      <c r="AH23" s="68"/>
+      <c r="AI23" s="68"/>
+      <c r="AJ23" s="68"/>
+      <c r="AK23" s="68"/>
+      <c r="AL23" s="68"/>
+      <c r="AM23" s="68"/>
+      <c r="AN23" s="68"/>
+      <c r="AO23" s="68"/>
+      <c r="AP23" s="68"/>
+      <c r="AQ23" s="68"/>
+      <c r="AR23" s="72"/>
+      <c r="AS23" s="72"/>
+      <c r="AT23" s="72"/>
+      <c r="AU23" s="72"/>
+      <c r="AV23" s="72"/>
+      <c r="AW23" s="68"/>
+      <c r="AX23" s="68"/>
+      <c r="AY23" s="68"/>
+      <c r="AZ23" s="68"/>
+      <c r="BA23" s="68"/>
+      <c r="BB23" s="68"/>
+      <c r="BC23" s="68"/>
+      <c r="BD23" s="68"/>
+      <c r="BE23" s="68"/>
+      <c r="BF23" s="68"/>
+      <c r="BG23" s="73"/>
+      <c r="BH23" s="73"/>
+      <c r="BI23" s="73"/>
+      <c r="BJ23" s="73"/>
+      <c r="BK23" s="73"/>
+      <c r="BL23" s="68"/>
+      <c r="BM23" s="68"/>
+      <c r="BN23" s="68"/>
+      <c r="BO23" s="68"/>
+      <c r="BP23" s="74"/>
       <c r="BQ23" s="51"/>
     </row>
-    <row r="24" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="26"/>
-      <c r="B24" s="45" t="n">
-        <v>3</v>
-      </c>
-      <c r="C24" s="46"/>
-      <c r="D24" s="47"/>
-      <c r="E24" s="47"/>
-      <c r="F24" s="47"/>
-      <c r="G24" s="47"/>
-      <c r="H24" s="47"/>
-      <c r="I24" s="48"/>
-      <c r="J24" s="49"/>
-      <c r="K24" s="50"/>
-      <c r="L24" s="50"/>
-      <c r="M24" s="48"/>
-      <c r="N24" s="48"/>
-      <c r="O24" s="48"/>
-      <c r="P24" s="48"/>
-      <c r="Q24" s="48"/>
-      <c r="R24" s="48"/>
-      <c r="S24" s="48"/>
-      <c r="T24" s="48"/>
-      <c r="U24" s="48"/>
-      <c r="V24" s="48"/>
-      <c r="W24" s="48"/>
-      <c r="X24" s="48"/>
-      <c r="Y24" s="48"/>
-      <c r="Z24" s="48"/>
-      <c r="AA24" s="48"/>
-      <c r="AB24" s="48"/>
-      <c r="AC24" s="48"/>
-      <c r="AD24" s="48"/>
-      <c r="AE24" s="48"/>
-      <c r="AF24" s="48"/>
-      <c r="AG24" s="48"/>
-      <c r="AH24" s="48"/>
-      <c r="AI24" s="48"/>
-      <c r="AJ24" s="48"/>
-      <c r="AK24" s="48"/>
-      <c r="AL24" s="48"/>
-      <c r="AM24" s="48"/>
-      <c r="AN24" s="48"/>
-      <c r="AO24" s="48"/>
-      <c r="AP24" s="48"/>
-      <c r="AQ24" s="48"/>
-      <c r="AR24" s="48"/>
-      <c r="AS24" s="48"/>
-      <c r="AT24" s="48"/>
-      <c r="AU24" s="48"/>
-      <c r="AV24" s="48"/>
-      <c r="AW24" s="48"/>
-      <c r="AX24" s="48"/>
-      <c r="AY24" s="48"/>
-      <c r="AZ24" s="48"/>
-      <c r="BA24" s="48"/>
-      <c r="BB24" s="48"/>
-      <c r="BC24" s="48"/>
-      <c r="BD24" s="48"/>
-      <c r="BE24" s="48"/>
-      <c r="BF24" s="48"/>
-      <c r="BG24" s="48"/>
-      <c r="BH24" s="48"/>
-      <c r="BI24" s="48"/>
-      <c r="BJ24" s="48"/>
-      <c r="BK24" s="48"/>
-      <c r="BL24" s="48"/>
-      <c r="BM24" s="48"/>
-      <c r="BN24" s="48"/>
-      <c r="BO24" s="48"/>
-      <c r="BP24" s="48"/>
-      <c r="BQ24" s="26"/>
+    <row r="24" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+      <c r="A24" s="51"/>
+      <c r="B24" s="65" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" s="53" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" s="53" t="s">
+        <v>53</v>
+      </c>
+      <c r="E24" s="54" t="n">
+        <v>44966</v>
+      </c>
+      <c r="F24" s="54"/>
+      <c r="G24" s="55" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" s="66"/>
+      <c r="J24" s="67"/>
+      <c r="K24" s="68"/>
+      <c r="L24" s="68"/>
+      <c r="M24" s="68"/>
+      <c r="N24" s="69"/>
+      <c r="O24" s="69"/>
+      <c r="P24" s="69"/>
+      <c r="Q24" s="69"/>
+      <c r="R24" s="69"/>
+      <c r="S24" s="59"/>
+      <c r="T24" s="59"/>
+      <c r="U24" s="59"/>
+      <c r="V24" s="59"/>
+      <c r="W24" s="68"/>
+      <c r="X24" s="68"/>
+      <c r="Y24" s="68"/>
+      <c r="Z24" s="68"/>
+      <c r="AA24" s="68"/>
+      <c r="AB24" s="68"/>
+      <c r="AC24" s="71"/>
+      <c r="AD24" s="71"/>
+      <c r="AE24" s="71"/>
+      <c r="AF24" s="71"/>
+      <c r="AG24" s="71"/>
+      <c r="AH24" s="68"/>
+      <c r="AI24" s="68"/>
+      <c r="AJ24" s="68"/>
+      <c r="AK24" s="68"/>
+      <c r="AL24" s="68"/>
+      <c r="AM24" s="68"/>
+      <c r="AN24" s="68"/>
+      <c r="AO24" s="68"/>
+      <c r="AP24" s="68"/>
+      <c r="AQ24" s="68"/>
+      <c r="AR24" s="72"/>
+      <c r="AS24" s="72"/>
+      <c r="AT24" s="72"/>
+      <c r="AU24" s="72"/>
+      <c r="AV24" s="72"/>
+      <c r="AW24" s="68"/>
+      <c r="AX24" s="68"/>
+      <c r="AY24" s="68"/>
+      <c r="AZ24" s="68"/>
+      <c r="BA24" s="68"/>
+      <c r="BB24" s="68"/>
+      <c r="BC24" s="68"/>
+      <c r="BD24" s="68"/>
+      <c r="BE24" s="68"/>
+      <c r="BF24" s="68"/>
+      <c r="BG24" s="73"/>
+      <c r="BH24" s="73"/>
+      <c r="BI24" s="73"/>
+      <c r="BJ24" s="73"/>
+      <c r="BK24" s="73"/>
+      <c r="BL24" s="68"/>
+      <c r="BM24" s="68"/>
+      <c r="BN24" s="68"/>
+      <c r="BO24" s="68"/>
+      <c r="BP24" s="74"/>
+      <c r="BQ24" s="51"/>
     </row>
     <row r="25" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A25" s="51"/>
-      <c r="B25" s="52" t="n">
-        <v>43103</v>
+      <c r="B25" s="65" t="s">
+        <v>54</v>
       </c>
       <c r="C25" s="53"/>
       <c r="D25" s="53"/>
@@ -3307,75 +3244,75 @@
       <c r="G25" s="55" t="n">
         <v>0</v>
       </c>
-      <c r="H25" s="56" t="n">
+      <c r="H25" s="75" t="n">
         <v>0</v>
       </c>
-      <c r="I25" s="57"/>
-      <c r="J25" s="58"/>
-      <c r="K25" s="59"/>
-      <c r="L25" s="59"/>
-      <c r="M25" s="59"/>
-      <c r="N25" s="70"/>
-      <c r="O25" s="70"/>
-      <c r="P25" s="70"/>
-      <c r="Q25" s="70"/>
-      <c r="R25" s="70"/>
+      <c r="I25" s="66"/>
+      <c r="J25" s="67"/>
+      <c r="K25" s="68"/>
+      <c r="L25" s="68"/>
+      <c r="M25" s="68"/>
+      <c r="N25" s="69"/>
+      <c r="O25" s="69"/>
+      <c r="P25" s="69"/>
+      <c r="Q25" s="69"/>
+      <c r="R25" s="69"/>
       <c r="S25" s="59"/>
       <c r="T25" s="59"/>
       <c r="U25" s="59"/>
       <c r="V25" s="59"/>
-      <c r="W25" s="59"/>
-      <c r="X25" s="59"/>
-      <c r="Y25" s="59"/>
-      <c r="Z25" s="59"/>
-      <c r="AA25" s="59"/>
-      <c r="AB25" s="59"/>
-      <c r="AC25" s="62"/>
-      <c r="AD25" s="62"/>
-      <c r="AE25" s="62"/>
-      <c r="AF25" s="62"/>
-      <c r="AG25" s="62"/>
-      <c r="AH25" s="59"/>
-      <c r="AI25" s="59"/>
-      <c r="AJ25" s="59"/>
-      <c r="AK25" s="59"/>
-      <c r="AL25" s="59"/>
-      <c r="AM25" s="59"/>
-      <c r="AN25" s="59"/>
-      <c r="AO25" s="59"/>
-      <c r="AP25" s="59"/>
-      <c r="AQ25" s="59"/>
-      <c r="AR25" s="63"/>
-      <c r="AS25" s="63"/>
-      <c r="AT25" s="63"/>
-      <c r="AU25" s="63"/>
-      <c r="AV25" s="63"/>
-      <c r="AW25" s="59"/>
-      <c r="AX25" s="59"/>
-      <c r="AY25" s="59"/>
-      <c r="AZ25" s="59"/>
-      <c r="BA25" s="59"/>
-      <c r="BB25" s="59"/>
-      <c r="BC25" s="59"/>
-      <c r="BD25" s="59"/>
-      <c r="BE25" s="59"/>
-      <c r="BF25" s="59"/>
-      <c r="BG25" s="64"/>
-      <c r="BH25" s="64"/>
-      <c r="BI25" s="64"/>
-      <c r="BJ25" s="64"/>
-      <c r="BK25" s="64"/>
-      <c r="BL25" s="59"/>
-      <c r="BM25" s="59"/>
-      <c r="BN25" s="59"/>
-      <c r="BO25" s="59"/>
-      <c r="BP25" s="65"/>
+      <c r="W25" s="68"/>
+      <c r="X25" s="68"/>
+      <c r="Y25" s="68"/>
+      <c r="Z25" s="68"/>
+      <c r="AA25" s="68"/>
+      <c r="AB25" s="68"/>
+      <c r="AC25" s="71"/>
+      <c r="AD25" s="71"/>
+      <c r="AE25" s="71"/>
+      <c r="AF25" s="71"/>
+      <c r="AG25" s="71"/>
+      <c r="AH25" s="68"/>
+      <c r="AI25" s="68"/>
+      <c r="AJ25" s="68"/>
+      <c r="AK25" s="68"/>
+      <c r="AL25" s="68"/>
+      <c r="AM25" s="68"/>
+      <c r="AN25" s="68"/>
+      <c r="AO25" s="68"/>
+      <c r="AP25" s="68"/>
+      <c r="AQ25" s="68"/>
+      <c r="AR25" s="72"/>
+      <c r="AS25" s="72"/>
+      <c r="AT25" s="72"/>
+      <c r="AU25" s="72"/>
+      <c r="AV25" s="72"/>
+      <c r="AW25" s="68"/>
+      <c r="AX25" s="68"/>
+      <c r="AY25" s="68"/>
+      <c r="AZ25" s="68"/>
+      <c r="BA25" s="68"/>
+      <c r="BB25" s="68"/>
+      <c r="BC25" s="68"/>
+      <c r="BD25" s="68"/>
+      <c r="BE25" s="68"/>
+      <c r="BF25" s="68"/>
+      <c r="BG25" s="73"/>
+      <c r="BH25" s="73"/>
+      <c r="BI25" s="73"/>
+      <c r="BJ25" s="73"/>
+      <c r="BK25" s="73"/>
+      <c r="BL25" s="68"/>
+      <c r="BM25" s="68"/>
+      <c r="BN25" s="68"/>
+      <c r="BO25" s="68"/>
+      <c r="BP25" s="74"/>
       <c r="BQ25" s="51"/>
     </row>
     <row r="26" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A26" s="51"/>
       <c r="B26" s="52" t="n">
-        <v>43134</v>
+        <v>43162</v>
       </c>
       <c r="C26" s="53"/>
       <c r="D26" s="53"/>
@@ -3387,72 +3324,72 @@
       <c r="H26" s="56" t="n">
         <v>0</v>
       </c>
-      <c r="I26" s="67"/>
-      <c r="J26" s="68"/>
-      <c r="K26" s="69"/>
-      <c r="L26" s="69"/>
-      <c r="M26" s="69"/>
-      <c r="N26" s="70"/>
-      <c r="O26" s="70"/>
-      <c r="P26" s="70"/>
-      <c r="Q26" s="70"/>
-      <c r="R26" s="70"/>
-      <c r="S26" s="69"/>
-      <c r="T26" s="69"/>
-      <c r="U26" s="69"/>
-      <c r="V26" s="69"/>
-      <c r="W26" s="69"/>
-      <c r="X26" s="69"/>
-      <c r="Y26" s="69"/>
-      <c r="Z26" s="69"/>
-      <c r="AA26" s="69"/>
-      <c r="AB26" s="69"/>
-      <c r="AC26" s="72"/>
-      <c r="AD26" s="72"/>
-      <c r="AE26" s="72"/>
-      <c r="AF26" s="72"/>
-      <c r="AG26" s="72"/>
-      <c r="AH26" s="69"/>
-      <c r="AI26" s="69"/>
-      <c r="AJ26" s="69"/>
-      <c r="AK26" s="69"/>
-      <c r="AL26" s="69"/>
-      <c r="AM26" s="69"/>
-      <c r="AN26" s="69"/>
-      <c r="AO26" s="69"/>
-      <c r="AP26" s="69"/>
-      <c r="AQ26" s="69"/>
-      <c r="AR26" s="73"/>
-      <c r="AS26" s="73"/>
-      <c r="AT26" s="73"/>
-      <c r="AU26" s="73"/>
-      <c r="AV26" s="73"/>
-      <c r="AW26" s="69"/>
-      <c r="AX26" s="69"/>
-      <c r="AY26" s="69"/>
-      <c r="AZ26" s="69"/>
-      <c r="BA26" s="69"/>
-      <c r="BB26" s="69"/>
-      <c r="BC26" s="69"/>
-      <c r="BD26" s="69"/>
-      <c r="BE26" s="69"/>
-      <c r="BF26" s="69"/>
-      <c r="BG26" s="74"/>
-      <c r="BH26" s="74"/>
-      <c r="BI26" s="74"/>
-      <c r="BJ26" s="74"/>
-      <c r="BK26" s="74"/>
-      <c r="BL26" s="69"/>
-      <c r="BM26" s="69"/>
-      <c r="BN26" s="69"/>
-      <c r="BO26" s="69"/>
-      <c r="BP26" s="75"/>
+      <c r="I26" s="66"/>
+      <c r="J26" s="67"/>
+      <c r="K26" s="68"/>
+      <c r="L26" s="68"/>
+      <c r="M26" s="68"/>
+      <c r="N26" s="69"/>
+      <c r="O26" s="69"/>
+      <c r="P26" s="69"/>
+      <c r="Q26" s="69"/>
+      <c r="R26" s="69"/>
+      <c r="S26" s="59"/>
+      <c r="T26" s="59"/>
+      <c r="U26" s="59"/>
+      <c r="V26" s="59"/>
+      <c r="W26" s="68"/>
+      <c r="X26" s="68"/>
+      <c r="Y26" s="68"/>
+      <c r="Z26" s="68"/>
+      <c r="AA26" s="68"/>
+      <c r="AB26" s="68"/>
+      <c r="AC26" s="71"/>
+      <c r="AD26" s="71"/>
+      <c r="AE26" s="71"/>
+      <c r="AF26" s="71"/>
+      <c r="AG26" s="71"/>
+      <c r="AH26" s="68"/>
+      <c r="AI26" s="68"/>
+      <c r="AJ26" s="68"/>
+      <c r="AK26" s="68"/>
+      <c r="AL26" s="68"/>
+      <c r="AM26" s="68"/>
+      <c r="AN26" s="68"/>
+      <c r="AO26" s="68"/>
+      <c r="AP26" s="68"/>
+      <c r="AQ26" s="68"/>
+      <c r="AR26" s="72"/>
+      <c r="AS26" s="72"/>
+      <c r="AT26" s="72"/>
+      <c r="AU26" s="72"/>
+      <c r="AV26" s="72"/>
+      <c r="AW26" s="68"/>
+      <c r="AX26" s="68"/>
+      <c r="AY26" s="68"/>
+      <c r="AZ26" s="68"/>
+      <c r="BA26" s="68"/>
+      <c r="BB26" s="68"/>
+      <c r="BC26" s="68"/>
+      <c r="BD26" s="68"/>
+      <c r="BE26" s="68"/>
+      <c r="BF26" s="68"/>
+      <c r="BG26" s="73"/>
+      <c r="BH26" s="73"/>
+      <c r="BI26" s="73"/>
+      <c r="BJ26" s="73"/>
+      <c r="BK26" s="73"/>
+      <c r="BL26" s="68"/>
+      <c r="BM26" s="68"/>
+      <c r="BN26" s="68"/>
+      <c r="BO26" s="68"/>
+      <c r="BP26" s="74"/>
       <c r="BQ26" s="51"/>
     </row>
     <row r="27" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A27" s="51"/>
-      <c r="B27" s="66" t="s">
-        <v>45</v>
+      <c r="B27" s="65" t="s">
+        <v>55</v>
       </c>
       <c r="C27" s="53"/>
       <c r="D27" s="53"/>
@@ -3464,149 +3401,145 @@
       <c r="H27" s="56" t="n">
         <v>0</v>
       </c>
-      <c r="I27" s="67"/>
-      <c r="J27" s="68"/>
-      <c r="K27" s="69"/>
-      <c r="L27" s="69"/>
-      <c r="M27" s="69"/>
-      <c r="N27" s="70"/>
-      <c r="O27" s="70"/>
-      <c r="P27" s="70"/>
-      <c r="Q27" s="70"/>
-      <c r="R27" s="70"/>
+      <c r="I27" s="66"/>
+      <c r="J27" s="67"/>
+      <c r="K27" s="68"/>
+      <c r="L27" s="68"/>
+      <c r="M27" s="68"/>
+      <c r="N27" s="69"/>
+      <c r="O27" s="69"/>
+      <c r="P27" s="69"/>
+      <c r="Q27" s="69"/>
+      <c r="R27" s="69"/>
       <c r="S27" s="59"/>
       <c r="T27" s="59"/>
       <c r="U27" s="59"/>
       <c r="V27" s="59"/>
-      <c r="W27" s="69"/>
-      <c r="X27" s="69"/>
-      <c r="Y27" s="69"/>
-      <c r="Z27" s="69"/>
-      <c r="AA27" s="69"/>
-      <c r="AB27" s="69"/>
-      <c r="AC27" s="72"/>
-      <c r="AD27" s="72"/>
-      <c r="AE27" s="72"/>
-      <c r="AF27" s="72"/>
-      <c r="AG27" s="72"/>
-      <c r="AH27" s="69"/>
-      <c r="AI27" s="69"/>
-      <c r="AJ27" s="69"/>
-      <c r="AK27" s="69"/>
-      <c r="AL27" s="69"/>
-      <c r="AM27" s="69"/>
-      <c r="AN27" s="69"/>
-      <c r="AO27" s="69"/>
-      <c r="AP27" s="69"/>
-      <c r="AQ27" s="69"/>
-      <c r="AR27" s="73"/>
-      <c r="AS27" s="73"/>
-      <c r="AT27" s="73"/>
-      <c r="AU27" s="73"/>
-      <c r="AV27" s="73"/>
-      <c r="AW27" s="69"/>
-      <c r="AX27" s="69"/>
-      <c r="AY27" s="69"/>
-      <c r="AZ27" s="69"/>
-      <c r="BA27" s="69"/>
-      <c r="BB27" s="69"/>
-      <c r="BC27" s="69"/>
-      <c r="BD27" s="69"/>
-      <c r="BE27" s="69"/>
-      <c r="BF27" s="69"/>
-      <c r="BG27" s="74"/>
-      <c r="BH27" s="74"/>
-      <c r="BI27" s="74"/>
-      <c r="BJ27" s="74"/>
-      <c r="BK27" s="74"/>
-      <c r="BL27" s="69"/>
-      <c r="BM27" s="69"/>
-      <c r="BN27" s="69"/>
-      <c r="BO27" s="69"/>
-      <c r="BP27" s="75"/>
+      <c r="W27" s="68"/>
+      <c r="X27" s="68"/>
+      <c r="Y27" s="68"/>
+      <c r="Z27" s="68"/>
+      <c r="AA27" s="68"/>
+      <c r="AB27" s="68"/>
+      <c r="AC27" s="71"/>
+      <c r="AD27" s="71"/>
+      <c r="AE27" s="71"/>
+      <c r="AF27" s="71"/>
+      <c r="AG27" s="71"/>
+      <c r="AH27" s="68"/>
+      <c r="AI27" s="68"/>
+      <c r="AJ27" s="68"/>
+      <c r="AK27" s="68"/>
+      <c r="AL27" s="68"/>
+      <c r="AM27" s="68"/>
+      <c r="AN27" s="68"/>
+      <c r="AO27" s="68"/>
+      <c r="AP27" s="68"/>
+      <c r="AQ27" s="68"/>
+      <c r="AR27" s="72"/>
+      <c r="AS27" s="72"/>
+      <c r="AT27" s="72"/>
+      <c r="AU27" s="72"/>
+      <c r="AV27" s="72"/>
+      <c r="AW27" s="68"/>
+      <c r="AX27" s="68"/>
+      <c r="AY27" s="68"/>
+      <c r="AZ27" s="68"/>
+      <c r="BA27" s="68"/>
+      <c r="BB27" s="68"/>
+      <c r="BC27" s="68"/>
+      <c r="BD27" s="68"/>
+      <c r="BE27" s="68"/>
+      <c r="BF27" s="68"/>
+      <c r="BG27" s="73"/>
+      <c r="BH27" s="73"/>
+      <c r="BI27" s="73"/>
+      <c r="BJ27" s="73"/>
+      <c r="BK27" s="73"/>
+      <c r="BL27" s="68"/>
+      <c r="BM27" s="68"/>
+      <c r="BN27" s="68"/>
+      <c r="BO27" s="68"/>
+      <c r="BP27" s="74"/>
       <c r="BQ27" s="51"/>
     </row>
-    <row r="28" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
-      <c r="A28" s="51"/>
-      <c r="B28" s="66" t="s">
-        <v>46</v>
-      </c>
-      <c r="C28" s="53"/>
-      <c r="D28" s="53"/>
-      <c r="E28" s="54"/>
-      <c r="F28" s="54"/>
-      <c r="G28" s="55" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" s="76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" s="67"/>
-      <c r="J28" s="68"/>
-      <c r="K28" s="69"/>
-      <c r="L28" s="69"/>
-      <c r="M28" s="69"/>
-      <c r="N28" s="70"/>
-      <c r="O28" s="70"/>
-      <c r="P28" s="70"/>
-      <c r="Q28" s="70"/>
-      <c r="R28" s="70"/>
-      <c r="S28" s="59"/>
-      <c r="T28" s="59"/>
-      <c r="U28" s="59"/>
-      <c r="V28" s="59"/>
-      <c r="W28" s="69"/>
-      <c r="X28" s="69"/>
-      <c r="Y28" s="69"/>
-      <c r="Z28" s="69"/>
-      <c r="AA28" s="69"/>
-      <c r="AB28" s="69"/>
-      <c r="AC28" s="72"/>
-      <c r="AD28" s="72"/>
-      <c r="AE28" s="72"/>
-      <c r="AF28" s="72"/>
-      <c r="AG28" s="72"/>
-      <c r="AH28" s="69"/>
-      <c r="AI28" s="69"/>
-      <c r="AJ28" s="69"/>
-      <c r="AK28" s="69"/>
-      <c r="AL28" s="69"/>
-      <c r="AM28" s="69"/>
-      <c r="AN28" s="69"/>
-      <c r="AO28" s="69"/>
-      <c r="AP28" s="69"/>
-      <c r="AQ28" s="69"/>
-      <c r="AR28" s="73"/>
-      <c r="AS28" s="73"/>
-      <c r="AT28" s="73"/>
-      <c r="AU28" s="73"/>
-      <c r="AV28" s="73"/>
-      <c r="AW28" s="69"/>
-      <c r="AX28" s="69"/>
-      <c r="AY28" s="69"/>
-      <c r="AZ28" s="69"/>
-      <c r="BA28" s="69"/>
-      <c r="BB28" s="69"/>
-      <c r="BC28" s="69"/>
-      <c r="BD28" s="69"/>
-      <c r="BE28" s="69"/>
-      <c r="BF28" s="69"/>
-      <c r="BG28" s="74"/>
-      <c r="BH28" s="74"/>
-      <c r="BI28" s="74"/>
-      <c r="BJ28" s="74"/>
-      <c r="BK28" s="74"/>
-      <c r="BL28" s="69"/>
-      <c r="BM28" s="69"/>
-      <c r="BN28" s="69"/>
-      <c r="BO28" s="69"/>
-      <c r="BP28" s="75"/>
-      <c r="BQ28" s="51"/>
+    <row r="28" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="26"/>
+      <c r="B28" s="45" t="n">
+        <v>4</v>
+      </c>
+      <c r="C28" s="46"/>
+      <c r="D28" s="47"/>
+      <c r="E28" s="47"/>
+      <c r="F28" s="47"/>
+      <c r="G28" s="47"/>
+      <c r="H28" s="47"/>
+      <c r="I28" s="48"/>
+      <c r="J28" s="49"/>
+      <c r="K28" s="50"/>
+      <c r="L28" s="50"/>
+      <c r="M28" s="48"/>
+      <c r="N28" s="48"/>
+      <c r="O28" s="48"/>
+      <c r="P28" s="48"/>
+      <c r="Q28" s="48"/>
+      <c r="R28" s="48"/>
+      <c r="S28" s="48"/>
+      <c r="T28" s="48"/>
+      <c r="U28" s="48"/>
+      <c r="V28" s="48"/>
+      <c r="W28" s="48"/>
+      <c r="X28" s="48"/>
+      <c r="Y28" s="48"/>
+      <c r="Z28" s="48"/>
+      <c r="AA28" s="48"/>
+      <c r="AB28" s="48"/>
+      <c r="AC28" s="48"/>
+      <c r="AD28" s="48"/>
+      <c r="AE28" s="48"/>
+      <c r="AF28" s="48"/>
+      <c r="AG28" s="48"/>
+      <c r="AH28" s="48"/>
+      <c r="AI28" s="48"/>
+      <c r="AJ28" s="48"/>
+      <c r="AK28" s="48"/>
+      <c r="AL28" s="48"/>
+      <c r="AM28" s="48"/>
+      <c r="AN28" s="48"/>
+      <c r="AO28" s="48"/>
+      <c r="AP28" s="48"/>
+      <c r="AQ28" s="48"/>
+      <c r="AR28" s="48"/>
+      <c r="AS28" s="48"/>
+      <c r="AT28" s="48"/>
+      <c r="AU28" s="48"/>
+      <c r="AV28" s="48"/>
+      <c r="AW28" s="48"/>
+      <c r="AX28" s="48"/>
+      <c r="AY28" s="48"/>
+      <c r="AZ28" s="48"/>
+      <c r="BA28" s="48"/>
+      <c r="BB28" s="48"/>
+      <c r="BC28" s="48"/>
+      <c r="BD28" s="48"/>
+      <c r="BE28" s="48"/>
+      <c r="BF28" s="48"/>
+      <c r="BG28" s="48"/>
+      <c r="BH28" s="48"/>
+      <c r="BI28" s="48"/>
+      <c r="BJ28" s="48"/>
+      <c r="BK28" s="48"/>
+      <c r="BL28" s="48"/>
+      <c r="BM28" s="48"/>
+      <c r="BN28" s="48"/>
+      <c r="BO28" s="48"/>
+      <c r="BP28" s="48"/>
+      <c r="BQ28" s="26"/>
     </row>
     <row r="29" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A29" s="51"/>
       <c r="B29" s="52" t="n">
-        <v>43162</v>
+        <v>43104</v>
       </c>
       <c r="C29" s="53"/>
       <c r="D29" s="53"/>
@@ -3618,72 +3551,72 @@
       <c r="H29" s="56" t="n">
         <v>0</v>
       </c>
-      <c r="I29" s="67"/>
-      <c r="J29" s="68"/>
-      <c r="K29" s="69"/>
-      <c r="L29" s="69"/>
-      <c r="M29" s="69"/>
-      <c r="N29" s="70"/>
-      <c r="O29" s="70"/>
-      <c r="P29" s="70"/>
-      <c r="Q29" s="70"/>
-      <c r="R29" s="70"/>
+      <c r="I29" s="57"/>
+      <c r="J29" s="58"/>
+      <c r="K29" s="59"/>
+      <c r="L29" s="59"/>
+      <c r="M29" s="59"/>
+      <c r="N29" s="78"/>
+      <c r="O29" s="78"/>
+      <c r="P29" s="78"/>
+      <c r="Q29" s="78"/>
+      <c r="R29" s="78"/>
       <c r="S29" s="59"/>
       <c r="T29" s="59"/>
       <c r="U29" s="59"/>
       <c r="V29" s="59"/>
-      <c r="W29" s="69"/>
-      <c r="X29" s="69"/>
-      <c r="Y29" s="69"/>
-      <c r="Z29" s="69"/>
-      <c r="AA29" s="69"/>
-      <c r="AB29" s="69"/>
-      <c r="AC29" s="72"/>
-      <c r="AD29" s="72"/>
-      <c r="AE29" s="72"/>
-      <c r="AF29" s="72"/>
-      <c r="AG29" s="72"/>
-      <c r="AH29" s="69"/>
-      <c r="AI29" s="69"/>
-      <c r="AJ29" s="69"/>
-      <c r="AK29" s="69"/>
-      <c r="AL29" s="69"/>
-      <c r="AM29" s="69"/>
-      <c r="AN29" s="69"/>
-      <c r="AO29" s="69"/>
-      <c r="AP29" s="69"/>
-      <c r="AQ29" s="69"/>
-      <c r="AR29" s="73"/>
-      <c r="AS29" s="73"/>
-      <c r="AT29" s="73"/>
-      <c r="AU29" s="73"/>
-      <c r="AV29" s="73"/>
-      <c r="AW29" s="69"/>
-      <c r="AX29" s="69"/>
-      <c r="AY29" s="69"/>
-      <c r="AZ29" s="69"/>
-      <c r="BA29" s="69"/>
-      <c r="BB29" s="69"/>
-      <c r="BC29" s="69"/>
-      <c r="BD29" s="69"/>
-      <c r="BE29" s="69"/>
-      <c r="BF29" s="69"/>
-      <c r="BG29" s="74"/>
-      <c r="BH29" s="74"/>
-      <c r="BI29" s="74"/>
-      <c r="BJ29" s="74"/>
-      <c r="BK29" s="74"/>
-      <c r="BL29" s="69"/>
-      <c r="BM29" s="69"/>
-      <c r="BN29" s="69"/>
-      <c r="BO29" s="69"/>
-      <c r="BP29" s="75"/>
+      <c r="W29" s="59"/>
+      <c r="X29" s="59"/>
+      <c r="Y29" s="59"/>
+      <c r="Z29" s="59"/>
+      <c r="AA29" s="59"/>
+      <c r="AB29" s="59"/>
+      <c r="AC29" s="61"/>
+      <c r="AD29" s="61"/>
+      <c r="AE29" s="61"/>
+      <c r="AF29" s="61"/>
+      <c r="AG29" s="61"/>
+      <c r="AH29" s="59"/>
+      <c r="AI29" s="59"/>
+      <c r="AJ29" s="59"/>
+      <c r="AK29" s="59"/>
+      <c r="AL29" s="59"/>
+      <c r="AM29" s="59"/>
+      <c r="AN29" s="59"/>
+      <c r="AO29" s="59"/>
+      <c r="AP29" s="59"/>
+      <c r="AQ29" s="59"/>
+      <c r="AR29" s="62"/>
+      <c r="AS29" s="62"/>
+      <c r="AT29" s="62"/>
+      <c r="AU29" s="62"/>
+      <c r="AV29" s="62"/>
+      <c r="AW29" s="59"/>
+      <c r="AX29" s="59"/>
+      <c r="AY29" s="59"/>
+      <c r="AZ29" s="59"/>
+      <c r="BA29" s="59"/>
+      <c r="BB29" s="59"/>
+      <c r="BC29" s="59"/>
+      <c r="BD29" s="59"/>
+      <c r="BE29" s="59"/>
+      <c r="BF29" s="59"/>
+      <c r="BG29" s="63"/>
+      <c r="BH29" s="63"/>
+      <c r="BI29" s="63"/>
+      <c r="BJ29" s="63"/>
+      <c r="BK29" s="63"/>
+      <c r="BL29" s="59"/>
+      <c r="BM29" s="59"/>
+      <c r="BN29" s="59"/>
+      <c r="BO29" s="59"/>
+      <c r="BP29" s="64"/>
       <c r="BQ29" s="51"/>
     </row>
     <row r="30" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A30" s="51"/>
-      <c r="B30" s="66" t="s">
-        <v>47</v>
+      <c r="B30" s="52" t="n">
+        <v>43135</v>
       </c>
       <c r="C30" s="53"/>
       <c r="D30" s="53"/>
@@ -3695,145 +3628,149 @@
       <c r="H30" s="56" t="n">
         <v>0</v>
       </c>
-      <c r="I30" s="67"/>
-      <c r="J30" s="68"/>
-      <c r="K30" s="69"/>
-      <c r="L30" s="69"/>
-      <c r="M30" s="69"/>
-      <c r="N30" s="70"/>
-      <c r="O30" s="70"/>
-      <c r="P30" s="70"/>
-      <c r="Q30" s="70"/>
-      <c r="R30" s="70"/>
-      <c r="S30" s="59"/>
-      <c r="T30" s="59"/>
-      <c r="U30" s="59"/>
-      <c r="V30" s="59"/>
-      <c r="W30" s="69"/>
-      <c r="X30" s="69"/>
-      <c r="Y30" s="69"/>
-      <c r="Z30" s="69"/>
-      <c r="AA30" s="69"/>
-      <c r="AB30" s="69"/>
-      <c r="AC30" s="72"/>
-      <c r="AD30" s="72"/>
-      <c r="AE30" s="72"/>
-      <c r="AF30" s="72"/>
-      <c r="AG30" s="72"/>
-      <c r="AH30" s="69"/>
-      <c r="AI30" s="69"/>
-      <c r="AJ30" s="69"/>
-      <c r="AK30" s="69"/>
-      <c r="AL30" s="69"/>
-      <c r="AM30" s="69"/>
-      <c r="AN30" s="69"/>
-      <c r="AO30" s="69"/>
-      <c r="AP30" s="69"/>
-      <c r="AQ30" s="69"/>
-      <c r="AR30" s="73"/>
-      <c r="AS30" s="73"/>
-      <c r="AT30" s="73"/>
-      <c r="AU30" s="73"/>
-      <c r="AV30" s="73"/>
-      <c r="AW30" s="69"/>
-      <c r="AX30" s="69"/>
-      <c r="AY30" s="69"/>
-      <c r="AZ30" s="69"/>
-      <c r="BA30" s="69"/>
-      <c r="BB30" s="69"/>
-      <c r="BC30" s="69"/>
-      <c r="BD30" s="69"/>
-      <c r="BE30" s="69"/>
-      <c r="BF30" s="69"/>
-      <c r="BG30" s="74"/>
-      <c r="BH30" s="74"/>
-      <c r="BI30" s="74"/>
-      <c r="BJ30" s="74"/>
-      <c r="BK30" s="74"/>
-      <c r="BL30" s="69"/>
-      <c r="BM30" s="69"/>
-      <c r="BN30" s="69"/>
-      <c r="BO30" s="69"/>
-      <c r="BP30" s="75"/>
+      <c r="I30" s="66"/>
+      <c r="J30" s="67"/>
+      <c r="K30" s="68"/>
+      <c r="L30" s="68"/>
+      <c r="M30" s="68"/>
+      <c r="N30" s="78"/>
+      <c r="O30" s="78"/>
+      <c r="P30" s="78"/>
+      <c r="Q30" s="78"/>
+      <c r="R30" s="78"/>
+      <c r="S30" s="68"/>
+      <c r="T30" s="68"/>
+      <c r="U30" s="68"/>
+      <c r="V30" s="68"/>
+      <c r="W30" s="68"/>
+      <c r="X30" s="68"/>
+      <c r="Y30" s="68"/>
+      <c r="Z30" s="68"/>
+      <c r="AA30" s="68"/>
+      <c r="AB30" s="68"/>
+      <c r="AC30" s="71"/>
+      <c r="AD30" s="71"/>
+      <c r="AE30" s="71"/>
+      <c r="AF30" s="71"/>
+      <c r="AG30" s="71"/>
+      <c r="AH30" s="68"/>
+      <c r="AI30" s="68"/>
+      <c r="AJ30" s="68"/>
+      <c r="AK30" s="68"/>
+      <c r="AL30" s="68"/>
+      <c r="AM30" s="68"/>
+      <c r="AN30" s="68"/>
+      <c r="AO30" s="68"/>
+      <c r="AP30" s="68"/>
+      <c r="AQ30" s="68"/>
+      <c r="AR30" s="72"/>
+      <c r="AS30" s="72"/>
+      <c r="AT30" s="72"/>
+      <c r="AU30" s="72"/>
+      <c r="AV30" s="72"/>
+      <c r="AW30" s="68"/>
+      <c r="AX30" s="68"/>
+      <c r="AY30" s="68"/>
+      <c r="AZ30" s="68"/>
+      <c r="BA30" s="68"/>
+      <c r="BB30" s="68"/>
+      <c r="BC30" s="68"/>
+      <c r="BD30" s="68"/>
+      <c r="BE30" s="68"/>
+      <c r="BF30" s="68"/>
+      <c r="BG30" s="73"/>
+      <c r="BH30" s="73"/>
+      <c r="BI30" s="73"/>
+      <c r="BJ30" s="73"/>
+      <c r="BK30" s="73"/>
+      <c r="BL30" s="68"/>
+      <c r="BM30" s="68"/>
+      <c r="BN30" s="68"/>
+      <c r="BO30" s="68"/>
+      <c r="BP30" s="74"/>
       <c r="BQ30" s="51"/>
     </row>
-    <row r="31" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="26"/>
-      <c r="B31" s="45" t="n">
-        <v>4</v>
-      </c>
-      <c r="C31" s="46"/>
-      <c r="D31" s="47"/>
-      <c r="E31" s="47"/>
-      <c r="F31" s="47"/>
-      <c r="G31" s="47"/>
-      <c r="H31" s="47"/>
-      <c r="I31" s="48"/>
-      <c r="J31" s="49"/>
-      <c r="K31" s="50"/>
-      <c r="L31" s="50"/>
-      <c r="M31" s="48"/>
-      <c r="N31" s="48"/>
-      <c r="O31" s="48"/>
-      <c r="P31" s="48"/>
-      <c r="Q31" s="48"/>
-      <c r="R31" s="48"/>
-      <c r="S31" s="48"/>
-      <c r="T31" s="48"/>
-      <c r="U31" s="48"/>
-      <c r="V31" s="48"/>
-      <c r="W31" s="48"/>
-      <c r="X31" s="48"/>
-      <c r="Y31" s="48"/>
-      <c r="Z31" s="48"/>
-      <c r="AA31" s="48"/>
-      <c r="AB31" s="48"/>
-      <c r="AC31" s="48"/>
-      <c r="AD31" s="48"/>
-      <c r="AE31" s="48"/>
-      <c r="AF31" s="48"/>
-      <c r="AG31" s="48"/>
-      <c r="AH31" s="48"/>
-      <c r="AI31" s="48"/>
-      <c r="AJ31" s="48"/>
-      <c r="AK31" s="48"/>
-      <c r="AL31" s="48"/>
-      <c r="AM31" s="48"/>
-      <c r="AN31" s="48"/>
-      <c r="AO31" s="48"/>
-      <c r="AP31" s="48"/>
-      <c r="AQ31" s="48"/>
-      <c r="AR31" s="48"/>
-      <c r="AS31" s="48"/>
-      <c r="AT31" s="48"/>
-      <c r="AU31" s="48"/>
-      <c r="AV31" s="48"/>
-      <c r="AW31" s="48"/>
-      <c r="AX31" s="48"/>
-      <c r="AY31" s="48"/>
-      <c r="AZ31" s="48"/>
-      <c r="BA31" s="48"/>
-      <c r="BB31" s="48"/>
-      <c r="BC31" s="48"/>
-      <c r="BD31" s="48"/>
-      <c r="BE31" s="48"/>
-      <c r="BF31" s="48"/>
-      <c r="BG31" s="48"/>
-      <c r="BH31" s="48"/>
-      <c r="BI31" s="48"/>
-      <c r="BJ31" s="48"/>
-      <c r="BK31" s="48"/>
-      <c r="BL31" s="48"/>
-      <c r="BM31" s="48"/>
-      <c r="BN31" s="48"/>
-      <c r="BO31" s="48"/>
-      <c r="BP31" s="48"/>
-      <c r="BQ31" s="26"/>
+    <row r="31" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+      <c r="A31" s="51"/>
+      <c r="B31" s="52" t="n">
+        <v>43163</v>
+      </c>
+      <c r="C31" s="53"/>
+      <c r="D31" s="53"/>
+      <c r="E31" s="54"/>
+      <c r="F31" s="54"/>
+      <c r="G31" s="55" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" s="66"/>
+      <c r="J31" s="67"/>
+      <c r="K31" s="68"/>
+      <c r="L31" s="68"/>
+      <c r="M31" s="68"/>
+      <c r="N31" s="78"/>
+      <c r="O31" s="78"/>
+      <c r="P31" s="78"/>
+      <c r="Q31" s="78"/>
+      <c r="R31" s="78"/>
+      <c r="S31" s="59"/>
+      <c r="T31" s="59"/>
+      <c r="U31" s="59"/>
+      <c r="V31" s="59"/>
+      <c r="W31" s="68"/>
+      <c r="X31" s="68"/>
+      <c r="Y31" s="68"/>
+      <c r="Z31" s="68"/>
+      <c r="AA31" s="68"/>
+      <c r="AB31" s="68"/>
+      <c r="AC31" s="71"/>
+      <c r="AD31" s="71"/>
+      <c r="AE31" s="71"/>
+      <c r="AF31" s="71"/>
+      <c r="AG31" s="71"/>
+      <c r="AH31" s="68"/>
+      <c r="AI31" s="68"/>
+      <c r="AJ31" s="68"/>
+      <c r="AK31" s="68"/>
+      <c r="AL31" s="68"/>
+      <c r="AM31" s="68"/>
+      <c r="AN31" s="68"/>
+      <c r="AO31" s="68"/>
+      <c r="AP31" s="68"/>
+      <c r="AQ31" s="68"/>
+      <c r="AR31" s="72"/>
+      <c r="AS31" s="72"/>
+      <c r="AT31" s="72"/>
+      <c r="AU31" s="72"/>
+      <c r="AV31" s="72"/>
+      <c r="AW31" s="68"/>
+      <c r="AX31" s="68"/>
+      <c r="AY31" s="68"/>
+      <c r="AZ31" s="68"/>
+      <c r="BA31" s="68"/>
+      <c r="BB31" s="68"/>
+      <c r="BC31" s="68"/>
+      <c r="BD31" s="68"/>
+      <c r="BE31" s="68"/>
+      <c r="BF31" s="68"/>
+      <c r="BG31" s="73"/>
+      <c r="BH31" s="73"/>
+      <c r="BI31" s="73"/>
+      <c r="BJ31" s="73"/>
+      <c r="BK31" s="73"/>
+      <c r="BL31" s="68"/>
+      <c r="BM31" s="68"/>
+      <c r="BN31" s="68"/>
+      <c r="BO31" s="68"/>
+      <c r="BP31" s="74"/>
+      <c r="BQ31" s="51"/>
     </row>
     <row r="32" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A32" s="51"/>
       <c r="B32" s="52" t="n">
-        <v>43104</v>
+        <v>43194</v>
       </c>
       <c r="C32" s="53"/>
       <c r="D32" s="53"/>
@@ -3842,515 +3779,287 @@
       <c r="G32" s="55" t="n">
         <v>0</v>
       </c>
-      <c r="H32" s="56" t="n">
+      <c r="H32" s="75" t="n">
         <v>0</v>
       </c>
-      <c r="I32" s="57"/>
-      <c r="J32" s="58"/>
-      <c r="K32" s="59"/>
-      <c r="L32" s="59"/>
-      <c r="M32" s="59"/>
-      <c r="N32" s="61"/>
-      <c r="O32" s="61"/>
-      <c r="P32" s="61"/>
-      <c r="Q32" s="61"/>
-      <c r="R32" s="61"/>
+      <c r="I32" s="66"/>
+      <c r="J32" s="67"/>
+      <c r="K32" s="68"/>
+      <c r="L32" s="68"/>
+      <c r="M32" s="68"/>
+      <c r="N32" s="78"/>
+      <c r="O32" s="78"/>
+      <c r="P32" s="78"/>
+      <c r="Q32" s="78"/>
+      <c r="R32" s="78"/>
       <c r="S32" s="59"/>
       <c r="T32" s="59"/>
       <c r="U32" s="59"/>
       <c r="V32" s="59"/>
-      <c r="W32" s="59"/>
-      <c r="X32" s="59"/>
-      <c r="Y32" s="59"/>
-      <c r="Z32" s="59"/>
-      <c r="AA32" s="59"/>
-      <c r="AB32" s="59"/>
-      <c r="AC32" s="62"/>
-      <c r="AD32" s="62"/>
-      <c r="AE32" s="62"/>
-      <c r="AF32" s="62"/>
-      <c r="AG32" s="62"/>
-      <c r="AH32" s="59"/>
-      <c r="AI32" s="59"/>
-      <c r="AJ32" s="59"/>
-      <c r="AK32" s="59"/>
-      <c r="AL32" s="59"/>
-      <c r="AM32" s="59"/>
-      <c r="AN32" s="59"/>
-      <c r="AO32" s="59"/>
-      <c r="AP32" s="59"/>
-      <c r="AQ32" s="59"/>
-      <c r="AR32" s="63"/>
-      <c r="AS32" s="63"/>
-      <c r="AT32" s="63"/>
-      <c r="AU32" s="63"/>
-      <c r="AV32" s="63"/>
-      <c r="AW32" s="59"/>
-      <c r="AX32" s="59"/>
-      <c r="AY32" s="59"/>
-      <c r="AZ32" s="59"/>
-      <c r="BA32" s="59"/>
-      <c r="BB32" s="59"/>
-      <c r="BC32" s="59"/>
-      <c r="BD32" s="59"/>
-      <c r="BE32" s="59"/>
-      <c r="BF32" s="59"/>
-      <c r="BG32" s="64"/>
-      <c r="BH32" s="64"/>
-      <c r="BI32" s="64"/>
-      <c r="BJ32" s="64"/>
-      <c r="BK32" s="64"/>
-      <c r="BL32" s="59"/>
-      <c r="BM32" s="59"/>
-      <c r="BN32" s="59"/>
-      <c r="BO32" s="59"/>
-      <c r="BP32" s="65"/>
+      <c r="W32" s="68"/>
+      <c r="X32" s="68"/>
+      <c r="Y32" s="68"/>
+      <c r="Z32" s="68"/>
+      <c r="AA32" s="68"/>
+      <c r="AB32" s="68"/>
+      <c r="AC32" s="71"/>
+      <c r="AD32" s="71"/>
+      <c r="AE32" s="71"/>
+      <c r="AF32" s="71"/>
+      <c r="AG32" s="71"/>
+      <c r="AH32" s="68"/>
+      <c r="AI32" s="68"/>
+      <c r="AJ32" s="68"/>
+      <c r="AK32" s="68"/>
+      <c r="AL32" s="68"/>
+      <c r="AM32" s="68"/>
+      <c r="AN32" s="68"/>
+      <c r="AO32" s="68"/>
+      <c r="AP32" s="68"/>
+      <c r="AQ32" s="68"/>
+      <c r="AR32" s="72"/>
+      <c r="AS32" s="72"/>
+      <c r="AT32" s="72"/>
+      <c r="AU32" s="72"/>
+      <c r="AV32" s="72"/>
+      <c r="AW32" s="68"/>
+      <c r="AX32" s="68"/>
+      <c r="AY32" s="68"/>
+      <c r="AZ32" s="68"/>
+      <c r="BA32" s="68"/>
+      <c r="BB32" s="68"/>
+      <c r="BC32" s="68"/>
+      <c r="BD32" s="68"/>
+      <c r="BE32" s="68"/>
+      <c r="BF32" s="68"/>
+      <c r="BG32" s="73"/>
+      <c r="BH32" s="73"/>
+      <c r="BI32" s="73"/>
+      <c r="BJ32" s="73"/>
+      <c r="BK32" s="73"/>
+      <c r="BL32" s="68"/>
+      <c r="BM32" s="68"/>
+      <c r="BN32" s="68"/>
+      <c r="BO32" s="68"/>
+      <c r="BP32" s="74"/>
       <c r="BQ32" s="51"/>
     </row>
-    <row r="33" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
-      <c r="A33" s="51"/>
-      <c r="B33" s="52" t="n">
-        <v>43135</v>
-      </c>
-      <c r="C33" s="53"/>
-      <c r="D33" s="53"/>
-      <c r="E33" s="54"/>
-      <c r="F33" s="54"/>
-      <c r="G33" s="55" t="n">
-        <v>0</v>
-      </c>
-      <c r="H33" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" s="67"/>
-      <c r="J33" s="68"/>
-      <c r="K33" s="69"/>
-      <c r="L33" s="69"/>
-      <c r="M33" s="69"/>
-      <c r="N33" s="61"/>
-      <c r="O33" s="61"/>
-      <c r="P33" s="61"/>
-      <c r="Q33" s="61"/>
-      <c r="R33" s="61"/>
-      <c r="S33" s="69"/>
-      <c r="T33" s="69"/>
-      <c r="U33" s="69"/>
-      <c r="V33" s="69"/>
-      <c r="W33" s="69"/>
-      <c r="X33" s="69"/>
-      <c r="Y33" s="69"/>
-      <c r="Z33" s="69"/>
-      <c r="AA33" s="69"/>
-      <c r="AB33" s="69"/>
-      <c r="AC33" s="72"/>
-      <c r="AD33" s="72"/>
-      <c r="AE33" s="72"/>
-      <c r="AF33" s="72"/>
-      <c r="AG33" s="72"/>
-      <c r="AH33" s="69"/>
-      <c r="AI33" s="69"/>
-      <c r="AJ33" s="69"/>
-      <c r="AK33" s="69"/>
-      <c r="AL33" s="69"/>
-      <c r="AM33" s="69"/>
-      <c r="AN33" s="69"/>
-      <c r="AO33" s="69"/>
-      <c r="AP33" s="69"/>
-      <c r="AQ33" s="69"/>
-      <c r="AR33" s="73"/>
-      <c r="AS33" s="73"/>
-      <c r="AT33" s="73"/>
-      <c r="AU33" s="73"/>
-      <c r="AV33" s="73"/>
-      <c r="AW33" s="69"/>
-      <c r="AX33" s="69"/>
-      <c r="AY33" s="69"/>
-      <c r="AZ33" s="69"/>
-      <c r="BA33" s="69"/>
-      <c r="BB33" s="69"/>
-      <c r="BC33" s="69"/>
-      <c r="BD33" s="69"/>
-      <c r="BE33" s="69"/>
-      <c r="BF33" s="69"/>
-      <c r="BG33" s="74"/>
-      <c r="BH33" s="74"/>
-      <c r="BI33" s="74"/>
-      <c r="BJ33" s="74"/>
-      <c r="BK33" s="74"/>
-      <c r="BL33" s="69"/>
-      <c r="BM33" s="69"/>
-      <c r="BN33" s="69"/>
-      <c r="BO33" s="69"/>
-      <c r="BP33" s="75"/>
-      <c r="BQ33" s="51"/>
+    <row r="33" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="26"/>
+      <c r="B33" s="26"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="83"/>
+      <c r="H33" s="83"/>
+      <c r="I33" s="26"/>
+      <c r="J33" s="26"/>
+      <c r="K33" s="26"/>
+      <c r="L33" s="26"/>
+      <c r="M33" s="26"/>
+      <c r="N33" s="26"/>
+      <c r="O33" s="26"/>
+      <c r="P33" s="26"/>
+      <c r="Q33" s="26"/>
+      <c r="R33" s="26"/>
+      <c r="S33" s="26"/>
+      <c r="T33" s="26"/>
+      <c r="U33" s="26"/>
+      <c r="V33" s="26"/>
+      <c r="W33" s="26"/>
+      <c r="X33" s="26"/>
+      <c r="Y33" s="26"/>
+      <c r="Z33" s="26"/>
+      <c r="AA33" s="26"/>
+      <c r="AB33" s="26"/>
+      <c r="AC33" s="26"/>
+      <c r="AD33" s="26"/>
+      <c r="AE33" s="26"/>
+      <c r="AF33" s="26"/>
+      <c r="AG33" s="26"/>
+      <c r="AH33" s="26"/>
+      <c r="AI33" s="26"/>
+      <c r="AJ33" s="26"/>
+      <c r="AK33" s="26"/>
+      <c r="AL33" s="26"/>
+      <c r="AM33" s="26"/>
+      <c r="AN33" s="26"/>
+      <c r="AO33" s="26"/>
+      <c r="AP33" s="26"/>
+      <c r="AQ33" s="26"/>
+      <c r="AR33" s="26"/>
+      <c r="AS33" s="26"/>
+      <c r="AT33" s="26"/>
+      <c r="AU33" s="26"/>
+      <c r="AV33" s="26"/>
+      <c r="AW33" s="26"/>
+      <c r="AX33" s="26"/>
+      <c r="AY33" s="26"/>
+      <c r="AZ33" s="26"/>
+      <c r="BA33" s="26"/>
+      <c r="BB33" s="26"/>
+      <c r="BC33" s="26"/>
+      <c r="BD33" s="26"/>
+      <c r="BE33" s="26"/>
+      <c r="BF33" s="26"/>
+      <c r="BG33" s="26"/>
+      <c r="BH33" s="26"/>
+      <c r="BI33" s="26"/>
+      <c r="BJ33" s="26"/>
+      <c r="BK33" s="26"/>
+      <c r="BL33" s="26"/>
+      <c r="BM33" s="26"/>
+      <c r="BN33" s="26"/>
+      <c r="BO33" s="26"/>
+      <c r="BP33" s="26"/>
+      <c r="BQ33" s="26"/>
     </row>
-    <row r="34" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
-      <c r="A34" s="51"/>
-      <c r="B34" s="52" t="n">
-        <v>43163</v>
-      </c>
-      <c r="C34" s="53"/>
-      <c r="D34" s="53"/>
-      <c r="E34" s="54"/>
-      <c r="F34" s="54"/>
-      <c r="G34" s="55" t="n">
-        <v>0</v>
-      </c>
-      <c r="H34" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" s="67"/>
-      <c r="J34" s="68"/>
-      <c r="K34" s="69"/>
-      <c r="L34" s="69"/>
-      <c r="M34" s="69"/>
-      <c r="N34" s="61"/>
-      <c r="O34" s="61"/>
-      <c r="P34" s="61"/>
-      <c r="Q34" s="61"/>
-      <c r="R34" s="61"/>
-      <c r="S34" s="59"/>
-      <c r="T34" s="59"/>
-      <c r="U34" s="59"/>
-      <c r="V34" s="59"/>
-      <c r="W34" s="69"/>
-      <c r="X34" s="69"/>
-      <c r="Y34" s="69"/>
-      <c r="Z34" s="69"/>
-      <c r="AA34" s="69"/>
-      <c r="AB34" s="69"/>
-      <c r="AC34" s="72"/>
-      <c r="AD34" s="72"/>
-      <c r="AE34" s="72"/>
-      <c r="AF34" s="72"/>
-      <c r="AG34" s="72"/>
-      <c r="AH34" s="69"/>
-      <c r="AI34" s="69"/>
-      <c r="AJ34" s="69"/>
-      <c r="AK34" s="69"/>
-      <c r="AL34" s="69"/>
-      <c r="AM34" s="69"/>
-      <c r="AN34" s="69"/>
-      <c r="AO34" s="69"/>
-      <c r="AP34" s="69"/>
-      <c r="AQ34" s="69"/>
-      <c r="AR34" s="73"/>
-      <c r="AS34" s="73"/>
-      <c r="AT34" s="73"/>
-      <c r="AU34" s="73"/>
-      <c r="AV34" s="73"/>
-      <c r="AW34" s="69"/>
-      <c r="AX34" s="69"/>
-      <c r="AY34" s="69"/>
-      <c r="AZ34" s="69"/>
-      <c r="BA34" s="69"/>
-      <c r="BB34" s="69"/>
-      <c r="BC34" s="69"/>
-      <c r="BD34" s="69"/>
-      <c r="BE34" s="69"/>
-      <c r="BF34" s="69"/>
-      <c r="BG34" s="74"/>
-      <c r="BH34" s="74"/>
-      <c r="BI34" s="74"/>
-      <c r="BJ34" s="74"/>
-      <c r="BK34" s="74"/>
-      <c r="BL34" s="69"/>
-      <c r="BM34" s="69"/>
-      <c r="BN34" s="69"/>
-      <c r="BO34" s="69"/>
-      <c r="BP34" s="75"/>
-      <c r="BQ34" s="51"/>
+    <row r="34" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="26"/>
+      <c r="B34" s="26"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="26"/>
+      <c r="G34" s="83"/>
+      <c r="H34" s="83"/>
+      <c r="I34" s="26"/>
+      <c r="J34" s="26"/>
+      <c r="K34" s="26"/>
+      <c r="L34" s="26"/>
+      <c r="M34" s="26"/>
+      <c r="N34" s="26"/>
+      <c r="O34" s="26"/>
+      <c r="P34" s="26"/>
+      <c r="Q34" s="26"/>
+      <c r="R34" s="26"/>
+      <c r="S34" s="26"/>
+      <c r="T34" s="26"/>
+      <c r="U34" s="26"/>
+      <c r="V34" s="26"/>
+      <c r="W34" s="26"/>
+      <c r="X34" s="26"/>
+      <c r="Y34" s="26"/>
+      <c r="Z34" s="26"/>
+      <c r="AA34" s="26"/>
+      <c r="AB34" s="26"/>
+      <c r="AC34" s="26"/>
+      <c r="AD34" s="26"/>
+      <c r="AE34" s="26"/>
+      <c r="AF34" s="26"/>
+      <c r="AG34" s="26"/>
+      <c r="AH34" s="26"/>
+      <c r="AI34" s="26"/>
+      <c r="AJ34" s="26"/>
+      <c r="AK34" s="26"/>
+      <c r="AL34" s="26"/>
+      <c r="AM34" s="26"/>
+      <c r="AN34" s="26"/>
+      <c r="AO34" s="26"/>
+      <c r="AP34" s="26"/>
+      <c r="AQ34" s="26"/>
+      <c r="AR34" s="26"/>
+      <c r="AS34" s="26"/>
+      <c r="AT34" s="26"/>
+      <c r="AU34" s="26"/>
+      <c r="AV34" s="26"/>
+      <c r="AW34" s="26"/>
+      <c r="AX34" s="26"/>
+      <c r="AY34" s="26"/>
+      <c r="AZ34" s="26"/>
+      <c r="BA34" s="26"/>
+      <c r="BB34" s="26"/>
+      <c r="BC34" s="26"/>
+      <c r="BD34" s="26"/>
+      <c r="BE34" s="26"/>
+      <c r="BF34" s="26"/>
+      <c r="BG34" s="26"/>
+      <c r="BH34" s="26"/>
+      <c r="BI34" s="26"/>
+      <c r="BJ34" s="26"/>
+      <c r="BK34" s="26"/>
+      <c r="BL34" s="26"/>
+      <c r="BM34" s="26"/>
+      <c r="BN34" s="26"/>
+      <c r="BO34" s="26"/>
+      <c r="BP34" s="26"/>
+      <c r="BQ34" s="26"/>
     </row>
-    <row r="35" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
-      <c r="A35" s="51"/>
-      <c r="B35" s="52" t="n">
-        <v>43194</v>
-      </c>
-      <c r="C35" s="53"/>
-      <c r="D35" s="53"/>
-      <c r="E35" s="54"/>
-      <c r="F35" s="54"/>
-      <c r="G35" s="55" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" s="76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" s="67"/>
-      <c r="J35" s="68"/>
-      <c r="K35" s="69"/>
-      <c r="L35" s="69"/>
-      <c r="M35" s="69"/>
-      <c r="N35" s="61"/>
-      <c r="O35" s="61"/>
-      <c r="P35" s="61"/>
-      <c r="Q35" s="61"/>
-      <c r="R35" s="61"/>
-      <c r="S35" s="59"/>
-      <c r="T35" s="59"/>
-      <c r="U35" s="59"/>
-      <c r="V35" s="59"/>
-      <c r="W35" s="69"/>
-      <c r="X35" s="69"/>
-      <c r="Y35" s="69"/>
-      <c r="Z35" s="69"/>
-      <c r="AA35" s="69"/>
-      <c r="AB35" s="69"/>
-      <c r="AC35" s="72"/>
-      <c r="AD35" s="72"/>
-      <c r="AE35" s="72"/>
-      <c r="AF35" s="72"/>
-      <c r="AG35" s="72"/>
-      <c r="AH35" s="69"/>
-      <c r="AI35" s="69"/>
-      <c r="AJ35" s="69"/>
-      <c r="AK35" s="69"/>
-      <c r="AL35" s="69"/>
-      <c r="AM35" s="69"/>
-      <c r="AN35" s="69"/>
-      <c r="AO35" s="69"/>
-      <c r="AP35" s="69"/>
-      <c r="AQ35" s="69"/>
-      <c r="AR35" s="73"/>
-      <c r="AS35" s="73"/>
-      <c r="AT35" s="73"/>
-      <c r="AU35" s="73"/>
-      <c r="AV35" s="73"/>
-      <c r="AW35" s="69"/>
-      <c r="AX35" s="69"/>
-      <c r="AY35" s="69"/>
-      <c r="AZ35" s="69"/>
-      <c r="BA35" s="69"/>
-      <c r="BB35" s="69"/>
-      <c r="BC35" s="69"/>
-      <c r="BD35" s="69"/>
-      <c r="BE35" s="69"/>
-      <c r="BF35" s="69"/>
-      <c r="BG35" s="74"/>
-      <c r="BH35" s="74"/>
-      <c r="BI35" s="74"/>
-      <c r="BJ35" s="74"/>
-      <c r="BK35" s="74"/>
-      <c r="BL35" s="69"/>
-      <c r="BM35" s="69"/>
-      <c r="BN35" s="69"/>
-      <c r="BO35" s="69"/>
-      <c r="BP35" s="75"/>
-      <c r="BQ35" s="51"/>
+    <row r="35" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="26"/>
+      <c r="B35" s="26"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="83"/>
+      <c r="H35" s="83"/>
+      <c r="I35" s="26"/>
+      <c r="J35" s="26"/>
+      <c r="K35" s="26"/>
+      <c r="L35" s="26"/>
+      <c r="M35" s="26"/>
+      <c r="N35" s="26"/>
+      <c r="O35" s="26"/>
+      <c r="P35" s="26"/>
+      <c r="Q35" s="26"/>
+      <c r="R35" s="26"/>
+      <c r="S35" s="26"/>
+      <c r="T35" s="26"/>
+      <c r="U35" s="26"/>
+      <c r="V35" s="26"/>
+      <c r="W35" s="26"/>
+      <c r="X35" s="26"/>
+      <c r="Y35" s="26"/>
+      <c r="Z35" s="26"/>
+      <c r="AA35" s="26"/>
+      <c r="AB35" s="26"/>
+      <c r="AC35" s="26"/>
+      <c r="AD35" s="26"/>
+      <c r="AE35" s="26"/>
+      <c r="AF35" s="26"/>
+      <c r="AG35" s="26"/>
+      <c r="AH35" s="26"/>
+      <c r="AI35" s="26"/>
+      <c r="AJ35" s="26"/>
+      <c r="AK35" s="26"/>
+      <c r="AL35" s="26"/>
+      <c r="AM35" s="26"/>
+      <c r="AN35" s="26"/>
+      <c r="AO35" s="26"/>
+      <c r="AP35" s="26"/>
+      <c r="AQ35" s="26"/>
+      <c r="AR35" s="26"/>
+      <c r="AS35" s="26"/>
+      <c r="AT35" s="26"/>
+      <c r="AU35" s="26"/>
+      <c r="AV35" s="26"/>
+      <c r="AW35" s="26"/>
+      <c r="AX35" s="26"/>
+      <c r="AY35" s="26"/>
+      <c r="AZ35" s="26"/>
+      <c r="BA35" s="26"/>
+      <c r="BB35" s="26"/>
+      <c r="BC35" s="26"/>
+      <c r="BD35" s="26"/>
+      <c r="BE35" s="26"/>
+      <c r="BF35" s="26"/>
+      <c r="BG35" s="26"/>
+      <c r="BH35" s="26"/>
+      <c r="BI35" s="26"/>
+      <c r="BJ35" s="26"/>
+      <c r="BK35" s="26"/>
+      <c r="BL35" s="26"/>
+      <c r="BM35" s="26"/>
+      <c r="BN35" s="26"/>
+      <c r="BO35" s="26"/>
+      <c r="BP35" s="26"/>
+      <c r="BQ35" s="26"/>
     </row>
-    <row r="36" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="26"/>
-      <c r="B36" s="26"/>
-      <c r="C36" s="26"/>
-      <c r="D36" s="26"/>
-      <c r="E36" s="26"/>
-      <c r="F36" s="26"/>
-      <c r="G36" s="94"/>
-      <c r="H36" s="94"/>
-      <c r="I36" s="26"/>
-      <c r="J36" s="26"/>
-      <c r="K36" s="26"/>
-      <c r="L36" s="26"/>
-      <c r="M36" s="26"/>
-      <c r="N36" s="26"/>
-      <c r="O36" s="26"/>
-      <c r="P36" s="26"/>
-      <c r="Q36" s="26"/>
-      <c r="R36" s="26"/>
-      <c r="S36" s="26"/>
-      <c r="T36" s="26"/>
-      <c r="U36" s="26"/>
-      <c r="V36" s="26"/>
-      <c r="W36" s="26"/>
-      <c r="X36" s="26"/>
-      <c r="Y36" s="26"/>
-      <c r="Z36" s="26"/>
-      <c r="AA36" s="26"/>
-      <c r="AB36" s="26"/>
-      <c r="AC36" s="26"/>
-      <c r="AD36" s="26"/>
-      <c r="AE36" s="26"/>
-      <c r="AF36" s="26"/>
-      <c r="AG36" s="26"/>
-      <c r="AH36" s="26"/>
-      <c r="AI36" s="26"/>
-      <c r="AJ36" s="26"/>
-      <c r="AK36" s="26"/>
-      <c r="AL36" s="26"/>
-      <c r="AM36" s="26"/>
-      <c r="AN36" s="26"/>
-      <c r="AO36" s="26"/>
-      <c r="AP36" s="26"/>
-      <c r="AQ36" s="26"/>
-      <c r="AR36" s="26"/>
-      <c r="AS36" s="26"/>
-      <c r="AT36" s="26"/>
-      <c r="AU36" s="26"/>
-      <c r="AV36" s="26"/>
-      <c r="AW36" s="26"/>
-      <c r="AX36" s="26"/>
-      <c r="AY36" s="26"/>
-      <c r="AZ36" s="26"/>
-      <c r="BA36" s="26"/>
-      <c r="BB36" s="26"/>
-      <c r="BC36" s="26"/>
-      <c r="BD36" s="26"/>
-      <c r="BE36" s="26"/>
-      <c r="BF36" s="26"/>
-      <c r="BG36" s="26"/>
-      <c r="BH36" s="26"/>
-      <c r="BI36" s="26"/>
-      <c r="BJ36" s="26"/>
-      <c r="BK36" s="26"/>
-      <c r="BL36" s="26"/>
-      <c r="BM36" s="26"/>
-      <c r="BN36" s="26"/>
-      <c r="BO36" s="26"/>
-      <c r="BP36" s="26"/>
-      <c r="BQ36" s="26"/>
-    </row>
-    <row r="37" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="26"/>
-      <c r="B37" s="26"/>
-      <c r="C37" s="26"/>
-      <c r="D37" s="26"/>
-      <c r="E37" s="26"/>
-      <c r="F37" s="26"/>
-      <c r="G37" s="94"/>
-      <c r="H37" s="94"/>
-      <c r="I37" s="26"/>
-      <c r="J37" s="26"/>
-      <c r="K37" s="26"/>
-      <c r="L37" s="26"/>
-      <c r="M37" s="26"/>
-      <c r="N37" s="26"/>
-      <c r="O37" s="26"/>
-      <c r="P37" s="26"/>
-      <c r="Q37" s="26"/>
-      <c r="R37" s="26"/>
-      <c r="S37" s="26"/>
-      <c r="T37" s="26"/>
-      <c r="U37" s="26"/>
-      <c r="V37" s="26"/>
-      <c r="W37" s="26"/>
-      <c r="X37" s="26"/>
-      <c r="Y37" s="26"/>
-      <c r="Z37" s="26"/>
-      <c r="AA37" s="26"/>
-      <c r="AB37" s="26"/>
-      <c r="AC37" s="26"/>
-      <c r="AD37" s="26"/>
-      <c r="AE37" s="26"/>
-      <c r="AF37" s="26"/>
-      <c r="AG37" s="26"/>
-      <c r="AH37" s="26"/>
-      <c r="AI37" s="26"/>
-      <c r="AJ37" s="26"/>
-      <c r="AK37" s="26"/>
-      <c r="AL37" s="26"/>
-      <c r="AM37" s="26"/>
-      <c r="AN37" s="26"/>
-      <c r="AO37" s="26"/>
-      <c r="AP37" s="26"/>
-      <c r="AQ37" s="26"/>
-      <c r="AR37" s="26"/>
-      <c r="AS37" s="26"/>
-      <c r="AT37" s="26"/>
-      <c r="AU37" s="26"/>
-      <c r="AV37" s="26"/>
-      <c r="AW37" s="26"/>
-      <c r="AX37" s="26"/>
-      <c r="AY37" s="26"/>
-      <c r="AZ37" s="26"/>
-      <c r="BA37" s="26"/>
-      <c r="BB37" s="26"/>
-      <c r="BC37" s="26"/>
-      <c r="BD37" s="26"/>
-      <c r="BE37" s="26"/>
-      <c r="BF37" s="26"/>
-      <c r="BG37" s="26"/>
-      <c r="BH37" s="26"/>
-      <c r="BI37" s="26"/>
-      <c r="BJ37" s="26"/>
-      <c r="BK37" s="26"/>
-      <c r="BL37" s="26"/>
-      <c r="BM37" s="26"/>
-      <c r="BN37" s="26"/>
-      <c r="BO37" s="26"/>
-      <c r="BP37" s="26"/>
-      <c r="BQ37" s="26"/>
-    </row>
-    <row r="38" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="26"/>
-      <c r="B38" s="26"/>
-      <c r="C38" s="26"/>
-      <c r="D38" s="26"/>
-      <c r="E38" s="26"/>
-      <c r="F38" s="26"/>
-      <c r="G38" s="94"/>
-      <c r="H38" s="94"/>
-      <c r="I38" s="26"/>
-      <c r="J38" s="26"/>
-      <c r="K38" s="26"/>
-      <c r="L38" s="26"/>
-      <c r="M38" s="26"/>
-      <c r="N38" s="26"/>
-      <c r="O38" s="26"/>
-      <c r="P38" s="26"/>
-      <c r="Q38" s="26"/>
-      <c r="R38" s="26"/>
-      <c r="S38" s="26"/>
-      <c r="T38" s="26"/>
-      <c r="U38" s="26"/>
-      <c r="V38" s="26"/>
-      <c r="W38" s="26"/>
-      <c r="X38" s="26"/>
-      <c r="Y38" s="26"/>
-      <c r="Z38" s="26"/>
-      <c r="AA38" s="26"/>
-      <c r="AB38" s="26"/>
-      <c r="AC38" s="26"/>
-      <c r="AD38" s="26"/>
-      <c r="AE38" s="26"/>
-      <c r="AF38" s="26"/>
-      <c r="AG38" s="26"/>
-      <c r="AH38" s="26"/>
-      <c r="AI38" s="26"/>
-      <c r="AJ38" s="26"/>
-      <c r="AK38" s="26"/>
-      <c r="AL38" s="26"/>
-      <c r="AM38" s="26"/>
-      <c r="AN38" s="26"/>
-      <c r="AO38" s="26"/>
-      <c r="AP38" s="26"/>
-      <c r="AQ38" s="26"/>
-      <c r="AR38" s="26"/>
-      <c r="AS38" s="26"/>
-      <c r="AT38" s="26"/>
-      <c r="AU38" s="26"/>
-      <c r="AV38" s="26"/>
-      <c r="AW38" s="26"/>
-      <c r="AX38" s="26"/>
-      <c r="AY38" s="26"/>
-      <c r="AZ38" s="26"/>
-      <c r="BA38" s="26"/>
-      <c r="BB38" s="26"/>
-      <c r="BC38" s="26"/>
-      <c r="BD38" s="26"/>
-      <c r="BE38" s="26"/>
-      <c r="BF38" s="26"/>
-      <c r="BG38" s="26"/>
-      <c r="BH38" s="26"/>
-      <c r="BI38" s="26"/>
-      <c r="BJ38" s="26"/>
-      <c r="BK38" s="26"/>
-      <c r="BL38" s="26"/>
-      <c r="BM38" s="26"/>
-      <c r="BN38" s="26"/>
-      <c r="BO38" s="26"/>
-      <c r="BP38" s="26"/>
-      <c r="BQ38" s="26"/>
-    </row>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="34">
     <mergeCell ref="B2:H2"/>
@@ -4388,7 +4097,7 @@
     <mergeCell ref="BG9:BK9"/>
     <mergeCell ref="BL9:BP9"/>
   </mergeCells>
-  <conditionalFormatting sqref="H12:H18 H20:H35">
+  <conditionalFormatting sqref="H12:H15 H17:H32">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -4398,7 +4107,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H12:H18 H20:H35">
+  <conditionalFormatting sqref="H12:H15 H17:H32">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min" val="0"/>

--- a/Diagramme de Gantt.xlsx
+++ b/Diagramme de Gantt.xlsx
@@ -208,7 +208,7 @@
     <numFmt numFmtId="172" formatCode="@"/>
     <numFmt numFmtId="173" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="30">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -419,12 +419,6 @@
       <family val="0"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
   </fonts>
   <fills count="23">
     <fill>
@@ -560,7 +554,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="13">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -718,19 +712,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right style="hair">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="hair">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="hair">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -757,7 +738,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="84">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1084,14 +1065,6 @@
     </xf>
     <xf numFmtId="164" fontId="29" fillId="13" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="30" fillId="13" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="30" fillId="13" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="173" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1183,14 +1156,14 @@
   <dimension ref="A1:BQ1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I22" activeCellId="0" sqref="I22"/>
+      <selection pane="topLeft" activeCell="F19" activeCellId="0" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="29.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="29.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="13.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="10.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="8.63"/>
@@ -2521,7 +2494,7 @@
       <c r="D16" s="48"/>
       <c r="E16" s="49"/>
       <c r="F16" s="49"/>
-      <c r="G16" s="49"/>
+      <c r="G16" s="80"/>
       <c r="H16" s="80"/>
       <c r="I16" s="50"/>
       <c r="J16" s="51"/>
@@ -2603,6 +2576,7 @@
         <v>43187</v>
       </c>
       <c r="G17" s="57" t="n">
+        <f aca="false">DAYS360(E17,F17)</f>
         <v>4</v>
       </c>
       <c r="H17" s="58" t="n">
@@ -2614,11 +2588,11 @@
       <c r="L17" s="61"/>
       <c r="M17" s="61"/>
       <c r="N17" s="72"/>
-      <c r="O17" s="72"/>
-      <c r="P17" s="72"/>
-      <c r="Q17" s="72"/>
-      <c r="R17" s="72"/>
-      <c r="S17" s="61"/>
+      <c r="O17" s="73"/>
+      <c r="P17" s="73"/>
+      <c r="Q17" s="73"/>
+      <c r="R17" s="73"/>
+      <c r="S17" s="73"/>
       <c r="T17" s="61"/>
       <c r="U17" s="61"/>
       <c r="V17" s="61"/>
@@ -2688,7 +2662,8 @@
         <v>44966</v>
       </c>
       <c r="G18" s="57" t="n">
-        <v>3</v>
+        <f aca="false">DAYS360(E18,F18)</f>
+        <v>0</v>
       </c>
       <c r="H18" s="58" t="n">
         <v>1</v>
@@ -2711,13 +2686,13 @@
       <c r="X18" s="70"/>
       <c r="Y18" s="70"/>
       <c r="Z18" s="70"/>
-      <c r="AA18" s="70"/>
-      <c r="AB18" s="81"/>
-      <c r="AC18" s="81"/>
-      <c r="AD18" s="81"/>
-      <c r="AE18" s="82"/>
-      <c r="AF18" s="83"/>
-      <c r="AG18" s="83"/>
+      <c r="AA18" s="81"/>
+      <c r="AB18" s="70"/>
+      <c r="AC18" s="74"/>
+      <c r="AD18" s="74"/>
+      <c r="AE18" s="74"/>
+      <c r="AF18" s="74"/>
+      <c r="AG18" s="74"/>
       <c r="AH18" s="70"/>
       <c r="AI18" s="70"/>
       <c r="AJ18" s="70"/>
@@ -2765,6 +2740,7 @@
       <c r="E19" s="56"/>
       <c r="F19" s="56"/>
       <c r="G19" s="57" t="n">
+        <f aca="false">DAYS360(E19,F19)</f>
         <v>0</v>
       </c>
       <c r="H19" s="58" t="n">
@@ -2842,6 +2818,7 @@
       <c r="E20" s="56"/>
       <c r="F20" s="56"/>
       <c r="G20" s="57" t="n">
+        <f aca="false">DAYS360(E20,F20)</f>
         <v>0</v>
       </c>
       <c r="H20" s="78" t="n">
@@ -2920,7 +2897,7 @@
       <c r="D21" s="48"/>
       <c r="E21" s="49"/>
       <c r="F21" s="49"/>
-      <c r="G21" s="49"/>
+      <c r="G21" s="80"/>
       <c r="H21" s="80"/>
       <c r="I21" s="50"/>
       <c r="J21" s="51"/>
@@ -3002,6 +2979,7 @@
         <v>44966</v>
       </c>
       <c r="G22" s="57" t="n">
+        <f aca="false">DAYS360(E22,F22)</f>
         <v>0</v>
       </c>
       <c r="H22" s="58" t="n">
@@ -3071,7 +3049,7 @@
     </row>
     <row r="23" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A23" s="53"/>
-      <c r="B23" s="84" t="s">
+      <c r="B23" s="82" t="s">
         <v>48</v>
       </c>
       <c r="C23" s="55" t="s">
@@ -3085,7 +3063,8 @@
       </c>
       <c r="F23" s="56"/>
       <c r="G23" s="57" t="n">
-        <v>0</v>
+        <f aca="false">DAYS360(E23,F23)</f>
+        <v>-44319</v>
       </c>
       <c r="H23" s="58" t="n">
         <v>0</v>
@@ -3168,7 +3147,8 @@
       </c>
       <c r="F24" s="56"/>
       <c r="G24" s="57" t="n">
-        <v>0</v>
+        <f aca="false">DAYS360(E24,F24)</f>
+        <v>-44319</v>
       </c>
       <c r="H24" s="58" t="n">
         <v>0</v>
@@ -3245,6 +3225,7 @@
       <c r="E25" s="56"/>
       <c r="F25" s="56"/>
       <c r="G25" s="57" t="n">
+        <f aca="false">DAYS360(E25,F25)</f>
         <v>0</v>
       </c>
       <c r="H25" s="78" t="n">
@@ -3322,6 +3303,7 @@
       <c r="E26" s="56"/>
       <c r="F26" s="56"/>
       <c r="G26" s="57" t="n">
+        <f aca="false">DAYS360(E26,F26)</f>
         <v>0</v>
       </c>
       <c r="H26" s="58" t="n">
@@ -3399,6 +3381,7 @@
       <c r="E27" s="56"/>
       <c r="F27" s="56"/>
       <c r="G27" s="57" t="n">
+        <f aca="false">DAYS360(E27,F27)</f>
         <v>0</v>
       </c>
       <c r="H27" s="58" t="n">
@@ -3475,7 +3458,7 @@
       <c r="D28" s="48"/>
       <c r="E28" s="49"/>
       <c r="F28" s="49"/>
-      <c r="G28" s="49"/>
+      <c r="G28" s="80"/>
       <c r="H28" s="80"/>
       <c r="I28" s="50"/>
       <c r="J28" s="51"/>
@@ -3549,6 +3532,7 @@
       <c r="E29" s="56"/>
       <c r="F29" s="56"/>
       <c r="G29" s="57" t="n">
+        <f aca="false">DAYS360(E29,F29)</f>
         <v>0</v>
       </c>
       <c r="H29" s="58" t="n">
@@ -3626,6 +3610,7 @@
       <c r="E30" s="56"/>
       <c r="F30" s="56"/>
       <c r="G30" s="57" t="n">
+        <f aca="false">DAYS360(E30,F30)</f>
         <v>0</v>
       </c>
       <c r="H30" s="58" t="n">
@@ -3703,6 +3688,7 @@
       <c r="E31" s="56"/>
       <c r="F31" s="56"/>
       <c r="G31" s="57" t="n">
+        <f aca="false">DAYS360(E31,F31)</f>
         <v>0</v>
       </c>
       <c r="H31" s="58" t="n">
@@ -3780,6 +3766,7 @@
       <c r="E32" s="56"/>
       <c r="F32" s="56"/>
       <c r="G32" s="57" t="n">
+        <f aca="false">DAYS360(E32,F32)</f>
         <v>0</v>
       </c>
       <c r="H32" s="78" t="n">
@@ -3854,8 +3841,8 @@
       <c r="D33" s="27"/>
       <c r="E33" s="27"/>
       <c r="F33" s="27"/>
-      <c r="G33" s="85"/>
-      <c r="H33" s="85"/>
+      <c r="G33" s="83"/>
+      <c r="H33" s="83"/>
       <c r="I33" s="27"/>
       <c r="J33" s="27"/>
       <c r="K33" s="27"/>
@@ -3925,8 +3912,8 @@
       <c r="D34" s="27"/>
       <c r="E34" s="27"/>
       <c r="F34" s="27"/>
-      <c r="G34" s="85"/>
-      <c r="H34" s="85"/>
+      <c r="G34" s="83"/>
+      <c r="H34" s="83"/>
       <c r="I34" s="27"/>
       <c r="J34" s="27"/>
       <c r="K34" s="27"/>
@@ -3996,8 +3983,8 @@
       <c r="D35" s="27"/>
       <c r="E35" s="27"/>
       <c r="F35" s="27"/>
-      <c r="G35" s="85"/>
-      <c r="H35" s="85"/>
+      <c r="G35" s="83"/>
+      <c r="H35" s="83"/>
       <c r="I35" s="27"/>
       <c r="J35" s="27"/>
       <c r="K35" s="27"/>
@@ -4118,6 +4105,66 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="G21">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFFFFFF"/>
+        <color rgb="FF57BB8A"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G21">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF57BB8A"/>
+        <color rgb="FFFFFFFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G16">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFFFFFF"/>
+        <color rgb="FF57BB8A"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G16">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF57BB8A"/>
+        <color rgb="FFFFFFFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G28">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFFFFFF"/>
+        <color rgb="FF57BB8A"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G28">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF57BB8A"/>
+        <color rgb="FFFFFFFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/Diagramme de Gantt.xlsx
+++ b/Diagramme de Gantt.xlsx
@@ -1155,8 +1155,8 @@
   </sheetPr>
   <dimension ref="A1:BQ1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F19" activeCellId="0" sqref="F19"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="0"/>
@@ -2597,10 +2597,10 @@
       <c r="U17" s="61"/>
       <c r="V17" s="61"/>
       <c r="W17" s="61"/>
-      <c r="X17" s="81"/>
-      <c r="Y17" s="81"/>
-      <c r="Z17" s="81"/>
-      <c r="AA17" s="81"/>
+      <c r="X17" s="70"/>
+      <c r="Y17" s="70"/>
+      <c r="Z17" s="70"/>
+      <c r="AA17" s="70"/>
       <c r="AB17" s="61"/>
       <c r="AC17" s="63"/>
       <c r="AD17" s="63"/>

--- a/Diagramme de Gantt.xlsx
+++ b/Diagramme de Gantt.xlsx
@@ -147,6 +147,12 @@
     <t xml:space="preserve">Installation de la SDL</t>
   </si>
   <si>
+    <t xml:space="preserve">Initiation à la SDL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Raphaël, Xavier</t>
+  </si>
+  <si>
     <t xml:space="preserve">Prise en main de github</t>
   </si>
   <si>
@@ -178,12 +184,6 @@
   </si>
   <si>
     <t xml:space="preserve">'3.1.2’</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Initiation à la SDL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Raphaël, Xavier</t>
   </si>
   <si>
     <t xml:space="preserve">3.2.2</t>
@@ -420,7 +420,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="23">
+  <fills count="24">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -448,7 +448,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF45818E"/>
-        <bgColor rgb="FF3D85C6"/>
+        <bgColor rgb="FF5983B0"/>
       </patternFill>
     </fill>
     <fill>
@@ -520,7 +520,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF5B9BD5"/>
-        <bgColor rgb="FF3D85C6"/>
+        <bgColor rgb="FF5983B0"/>
       </patternFill>
     </fill>
     <fill>
@@ -545,6 +545,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFDDEBF7"/>
         <bgColor rgb="FFEDEDED"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF5983B0"/>
+        <bgColor rgb="FF45818E"/>
       </patternFill>
     </fill>
     <fill>
@@ -738,7 +744,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="86">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1051,7 +1057,15 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="28" fillId="22" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="29" fillId="2" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="22" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="28" fillId="23" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1101,7 +1115,7 @@
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF3D85C6"/>
       <rgbColor rgb="FFCCCCCC"/>
-      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF5983B0"/>
       <rgbColor rgb="FF5B9BD5"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FFFFF2CC"/>
@@ -1153,13 +1167,13 @@
     <tabColor rgb="FF3D85C6"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:BQ1048576"/>
+  <dimension ref="A1:BQ36"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F19" activeCellId="0" sqref="F19"/>
+      <selection pane="topLeft" activeCell="AB20" activeCellId="0" sqref="AB20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.12"/>
@@ -2400,67 +2414,65 @@
     <row r="15" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A15" s="53"/>
       <c r="B15" s="54" t="n">
-        <v>43160</v>
+        <v>36923</v>
       </c>
       <c r="C15" s="55" t="s">
         <v>41</v>
       </c>
       <c r="D15" s="55" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E15" s="56" t="n">
-        <v>44946</v>
+        <v>44966</v>
       </c>
       <c r="F15" s="56" t="n">
-        <v>44948</v>
+        <v>44988</v>
       </c>
       <c r="G15" s="57" t="n">
         <f aca="false">DAYS360(E15,F15)</f>
-        <v>2</v>
-      </c>
-      <c r="H15" s="78" t="n">
-        <v>0.6</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="H15" s="58"/>
       <c r="I15" s="68"/>
       <c r="J15" s="69"/>
       <c r="K15" s="70"/>
       <c r="L15" s="70"/>
-      <c r="M15" s="73"/>
-      <c r="N15" s="73"/>
-      <c r="O15" s="73"/>
-      <c r="P15" s="71"/>
-      <c r="Q15" s="72"/>
-      <c r="R15" s="72"/>
-      <c r="S15" s="79"/>
-      <c r="T15" s="79"/>
-      <c r="U15" s="79"/>
-      <c r="V15" s="79"/>
-      <c r="W15" s="70"/>
-      <c r="X15" s="70"/>
+      <c r="M15" s="78"/>
+      <c r="N15" s="78"/>
+      <c r="O15" s="78"/>
+      <c r="P15" s="78"/>
+      <c r="Q15" s="78"/>
+      <c r="R15" s="78"/>
+      <c r="S15" s="78"/>
+      <c r="T15" s="78"/>
+      <c r="U15" s="78"/>
+      <c r="V15" s="78"/>
+      <c r="W15" s="78"/>
+      <c r="X15" s="78"/>
       <c r="Y15" s="70"/>
       <c r="Z15" s="70"/>
-      <c r="AA15" s="70"/>
-      <c r="AB15" s="70"/>
-      <c r="AC15" s="74"/>
-      <c r="AD15" s="74"/>
-      <c r="AE15" s="74"/>
-      <c r="AF15" s="74"/>
-      <c r="AG15" s="74"/>
-      <c r="AH15" s="70"/>
-      <c r="AI15" s="70"/>
-      <c r="AJ15" s="70"/>
-      <c r="AK15" s="70"/>
-      <c r="AL15" s="70"/>
-      <c r="AM15" s="70"/>
-      <c r="AN15" s="70"/>
-      <c r="AO15" s="70"/>
-      <c r="AP15" s="70"/>
-      <c r="AQ15" s="70"/>
-      <c r="AR15" s="75"/>
-      <c r="AS15" s="75"/>
-      <c r="AT15" s="75"/>
-      <c r="AU15" s="75"/>
-      <c r="AV15" s="75"/>
+      <c r="AA15" s="79"/>
+      <c r="AB15" s="79"/>
+      <c r="AC15" s="79"/>
+      <c r="AD15" s="79"/>
+      <c r="AE15" s="79"/>
+      <c r="AF15" s="79"/>
+      <c r="AG15" s="79"/>
+      <c r="AH15" s="79"/>
+      <c r="AI15" s="79"/>
+      <c r="AJ15" s="79"/>
+      <c r="AK15" s="79"/>
+      <c r="AL15" s="79"/>
+      <c r="AM15" s="79"/>
+      <c r="AN15" s="79"/>
+      <c r="AO15" s="79"/>
+      <c r="AP15" s="79"/>
+      <c r="AQ15" s="79"/>
+      <c r="AR15" s="79"/>
+      <c r="AS15" s="79"/>
+      <c r="AT15" s="79"/>
+      <c r="AU15" s="79"/>
+      <c r="AV15" s="79"/>
       <c r="AW15" s="70"/>
       <c r="AX15" s="70"/>
       <c r="AY15" s="70"/>
@@ -2483,268 +2495,276 @@
       <c r="BP15" s="77"/>
       <c r="BQ15" s="53"/>
     </row>
-    <row r="16" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="27"/>
-      <c r="B16" s="47" t="n">
+    <row r="16" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+      <c r="A16" s="53"/>
+      <c r="B16" s="54" t="n">
+        <v>43160</v>
+      </c>
+      <c r="C16" s="55" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="55" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="56" t="n">
+        <v>44946</v>
+      </c>
+      <c r="F16" s="56" t="n">
+        <v>44948</v>
+      </c>
+      <c r="G16" s="57" t="n">
+        <f aca="false">DAYS360(E16,F16)</f>
         <v>2</v>
       </c>
-      <c r="C16" s="48" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16" s="48"/>
-      <c r="E16" s="49"/>
-      <c r="F16" s="49"/>
-      <c r="G16" s="80"/>
-      <c r="H16" s="80"/>
-      <c r="I16" s="50"/>
-      <c r="J16" s="51"/>
-      <c r="K16" s="52"/>
-      <c r="L16" s="52"/>
-      <c r="M16" s="50"/>
-      <c r="N16" s="50"/>
-      <c r="O16" s="50"/>
-      <c r="P16" s="50"/>
-      <c r="Q16" s="50"/>
-      <c r="R16" s="50"/>
-      <c r="S16" s="50"/>
-      <c r="T16" s="50"/>
-      <c r="U16" s="50"/>
-      <c r="V16" s="50"/>
-      <c r="W16" s="50"/>
-      <c r="X16" s="50"/>
-      <c r="Y16" s="50"/>
-      <c r="Z16" s="50"/>
-      <c r="AA16" s="50"/>
-      <c r="AB16" s="50"/>
-      <c r="AC16" s="50"/>
-      <c r="AD16" s="50"/>
-      <c r="AE16" s="50"/>
-      <c r="AF16" s="50"/>
-      <c r="AG16" s="50"/>
-      <c r="AH16" s="50"/>
-      <c r="AI16" s="50"/>
-      <c r="AJ16" s="50"/>
-      <c r="AK16" s="50"/>
-      <c r="AL16" s="50"/>
-      <c r="AM16" s="50"/>
-      <c r="AN16" s="50"/>
-      <c r="AO16" s="50"/>
-      <c r="AP16" s="50"/>
-      <c r="AQ16" s="50"/>
-      <c r="AR16" s="50"/>
-      <c r="AS16" s="50"/>
-      <c r="AT16" s="50"/>
-      <c r="AU16" s="50"/>
-      <c r="AV16" s="50"/>
-      <c r="AW16" s="50"/>
-      <c r="AX16" s="50"/>
-      <c r="AY16" s="50"/>
-      <c r="AZ16" s="50"/>
-      <c r="BA16" s="50"/>
-      <c r="BB16" s="50"/>
-      <c r="BC16" s="50"/>
-      <c r="BD16" s="50"/>
-      <c r="BE16" s="50"/>
-      <c r="BF16" s="50"/>
-      <c r="BG16" s="50"/>
-      <c r="BH16" s="50"/>
-      <c r="BI16" s="50"/>
-      <c r="BJ16" s="50"/>
-      <c r="BK16" s="50"/>
-      <c r="BL16" s="50"/>
-      <c r="BM16" s="50"/>
-      <c r="BN16" s="50"/>
-      <c r="BO16" s="50"/>
-      <c r="BP16" s="50"/>
-      <c r="BQ16" s="27"/>
+      <c r="H16" s="80" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I16" s="68"/>
+      <c r="J16" s="69"/>
+      <c r="K16" s="70"/>
+      <c r="L16" s="70"/>
+      <c r="M16" s="73"/>
+      <c r="N16" s="73"/>
+      <c r="O16" s="73"/>
+      <c r="P16" s="71"/>
+      <c r="Q16" s="72"/>
+      <c r="R16" s="72"/>
+      <c r="S16" s="81"/>
+      <c r="T16" s="81"/>
+      <c r="U16" s="81"/>
+      <c r="V16" s="81"/>
+      <c r="W16" s="70"/>
+      <c r="X16" s="70"/>
+      <c r="Y16" s="70"/>
+      <c r="Z16" s="70"/>
+      <c r="AA16" s="70"/>
+      <c r="AB16" s="70"/>
+      <c r="AC16" s="74"/>
+      <c r="AD16" s="74"/>
+      <c r="AE16" s="74"/>
+      <c r="AF16" s="74"/>
+      <c r="AG16" s="74"/>
+      <c r="AH16" s="70"/>
+      <c r="AI16" s="70"/>
+      <c r="AJ16" s="70"/>
+      <c r="AK16" s="70"/>
+      <c r="AL16" s="70"/>
+      <c r="AM16" s="70"/>
+      <c r="AN16" s="70"/>
+      <c r="AO16" s="70"/>
+      <c r="AP16" s="70"/>
+      <c r="AQ16" s="70"/>
+      <c r="AR16" s="75"/>
+      <c r="AS16" s="75"/>
+      <c r="AT16" s="75"/>
+      <c r="AU16" s="75"/>
+      <c r="AV16" s="75"/>
+      <c r="AW16" s="70"/>
+      <c r="AX16" s="70"/>
+      <c r="AY16" s="70"/>
+      <c r="AZ16" s="70"/>
+      <c r="BA16" s="70"/>
+      <c r="BB16" s="70"/>
+      <c r="BC16" s="70"/>
+      <c r="BD16" s="70"/>
+      <c r="BE16" s="70"/>
+      <c r="BF16" s="70"/>
+      <c r="BG16" s="76"/>
+      <c r="BH16" s="76"/>
+      <c r="BI16" s="76"/>
+      <c r="BJ16" s="76"/>
+      <c r="BK16" s="76"/>
+      <c r="BL16" s="70"/>
+      <c r="BM16" s="70"/>
+      <c r="BN16" s="70"/>
+      <c r="BO16" s="70"/>
+      <c r="BP16" s="77"/>
+      <c r="BQ16" s="53"/>
     </row>
-    <row r="17" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
-      <c r="A17" s="53"/>
-      <c r="B17" s="54" t="n">
-        <v>43102</v>
-      </c>
-      <c r="C17" s="55" t="s">
-        <v>43</v>
-      </c>
-      <c r="D17" s="55" t="s">
-        <v>37</v>
-      </c>
-      <c r="E17" s="56" t="n">
-        <v>43183</v>
-      </c>
-      <c r="F17" s="56" t="n">
-        <v>43187</v>
-      </c>
-      <c r="G17" s="57" t="n">
-        <f aca="false">DAYS360(E17,F17)</f>
-        <v>4</v>
-      </c>
-      <c r="H17" s="58" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" s="59"/>
-      <c r="J17" s="60"/>
-      <c r="K17" s="61"/>
-      <c r="L17" s="61"/>
-      <c r="M17" s="61"/>
-      <c r="N17" s="72"/>
-      <c r="O17" s="73"/>
-      <c r="P17" s="73"/>
-      <c r="Q17" s="73"/>
-      <c r="R17" s="73"/>
-      <c r="S17" s="73"/>
-      <c r="T17" s="61"/>
-      <c r="U17" s="61"/>
-      <c r="V17" s="61"/>
-      <c r="W17" s="61"/>
-      <c r="X17" s="81"/>
-      <c r="Y17" s="81"/>
-      <c r="Z17" s="81"/>
-      <c r="AA17" s="81"/>
-      <c r="AB17" s="61"/>
-      <c r="AC17" s="63"/>
-      <c r="AD17" s="63"/>
-      <c r="AE17" s="63"/>
-      <c r="AF17" s="63"/>
-      <c r="AG17" s="63"/>
-      <c r="AH17" s="61"/>
-      <c r="AI17" s="61"/>
-      <c r="AJ17" s="61"/>
-      <c r="AK17" s="61"/>
-      <c r="AL17" s="61"/>
-      <c r="AM17" s="61"/>
-      <c r="AN17" s="61"/>
-      <c r="AO17" s="61"/>
-      <c r="AP17" s="61"/>
-      <c r="AQ17" s="61"/>
-      <c r="AR17" s="64"/>
-      <c r="AS17" s="64"/>
-      <c r="AT17" s="64"/>
-      <c r="AU17" s="64"/>
-      <c r="AV17" s="64"/>
-      <c r="AW17" s="61"/>
-      <c r="AX17" s="61"/>
-      <c r="AY17" s="61"/>
-      <c r="AZ17" s="61"/>
-      <c r="BA17" s="61"/>
-      <c r="BB17" s="61"/>
-      <c r="BC17" s="61"/>
-      <c r="BD17" s="61"/>
-      <c r="BE17" s="61"/>
-      <c r="BF17" s="61"/>
-      <c r="BG17" s="65"/>
-      <c r="BH17" s="65"/>
-      <c r="BI17" s="65"/>
-      <c r="BJ17" s="65"/>
-      <c r="BK17" s="65"/>
-      <c r="BL17" s="61"/>
-      <c r="BM17" s="61"/>
-      <c r="BN17" s="61"/>
-      <c r="BO17" s="61"/>
-      <c r="BP17" s="66"/>
-      <c r="BQ17" s="53"/>
+    <row r="17" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="27"/>
+      <c r="B17" s="47" t="n">
+        <v>2</v>
+      </c>
+      <c r="C17" s="48" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="48"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="49"/>
+      <c r="G17" s="82"/>
+      <c r="H17" s="82"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="51"/>
+      <c r="K17" s="52"/>
+      <c r="L17" s="52"/>
+      <c r="M17" s="50"/>
+      <c r="N17" s="50"/>
+      <c r="O17" s="50"/>
+      <c r="P17" s="50"/>
+      <c r="Q17" s="50"/>
+      <c r="R17" s="50"/>
+      <c r="S17" s="50"/>
+      <c r="T17" s="50"/>
+      <c r="U17" s="50"/>
+      <c r="V17" s="50"/>
+      <c r="W17" s="50"/>
+      <c r="X17" s="50"/>
+      <c r="Y17" s="50"/>
+      <c r="Z17" s="50"/>
+      <c r="AA17" s="50"/>
+      <c r="AB17" s="50"/>
+      <c r="AC17" s="50"/>
+      <c r="AD17" s="50"/>
+      <c r="AE17" s="50"/>
+      <c r="AF17" s="50"/>
+      <c r="AG17" s="50"/>
+      <c r="AH17" s="50"/>
+      <c r="AI17" s="50"/>
+      <c r="AJ17" s="50"/>
+      <c r="AK17" s="50"/>
+      <c r="AL17" s="50"/>
+      <c r="AM17" s="50"/>
+      <c r="AN17" s="50"/>
+      <c r="AO17" s="50"/>
+      <c r="AP17" s="50"/>
+      <c r="AQ17" s="50"/>
+      <c r="AR17" s="50"/>
+      <c r="AS17" s="50"/>
+      <c r="AT17" s="50"/>
+      <c r="AU17" s="50"/>
+      <c r="AV17" s="50"/>
+      <c r="AW17" s="50"/>
+      <c r="AX17" s="50"/>
+      <c r="AY17" s="50"/>
+      <c r="AZ17" s="50"/>
+      <c r="BA17" s="50"/>
+      <c r="BB17" s="50"/>
+      <c r="BC17" s="50"/>
+      <c r="BD17" s="50"/>
+      <c r="BE17" s="50"/>
+      <c r="BF17" s="50"/>
+      <c r="BG17" s="50"/>
+      <c r="BH17" s="50"/>
+      <c r="BI17" s="50"/>
+      <c r="BJ17" s="50"/>
+      <c r="BK17" s="50"/>
+      <c r="BL17" s="50"/>
+      <c r="BM17" s="50"/>
+      <c r="BN17" s="50"/>
+      <c r="BO17" s="50"/>
+      <c r="BP17" s="50"/>
+      <c r="BQ17" s="27"/>
     </row>
     <row r="18" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A18" s="53"/>
       <c r="B18" s="54" t="n">
-        <v>43133</v>
+        <v>43102</v>
       </c>
       <c r="C18" s="55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D18" s="55" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="E18" s="56" t="n">
-        <v>44966</v>
+        <v>43183</v>
       </c>
       <c r="F18" s="56" t="n">
-        <v>44966</v>
+        <v>43187</v>
       </c>
       <c r="G18" s="57" t="n">
         <f aca="false">DAYS360(E18,F18)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H18" s="58" t="n">
         <v>1</v>
       </c>
-      <c r="I18" s="68"/>
-      <c r="J18" s="69"/>
-      <c r="K18" s="70"/>
-      <c r="L18" s="70"/>
-      <c r="M18" s="70"/>
-      <c r="N18" s="71"/>
-      <c r="O18" s="71"/>
-      <c r="P18" s="71"/>
-      <c r="Q18" s="71"/>
-      <c r="R18" s="71"/>
-      <c r="S18" s="70"/>
-      <c r="T18" s="70"/>
-      <c r="U18" s="70"/>
-      <c r="V18" s="70"/>
-      <c r="W18" s="70"/>
-      <c r="X18" s="70"/>
-      <c r="Y18" s="70"/>
-      <c r="Z18" s="70"/>
-      <c r="AA18" s="81"/>
-      <c r="AB18" s="70"/>
-      <c r="AC18" s="74"/>
-      <c r="AD18" s="74"/>
-      <c r="AE18" s="74"/>
-      <c r="AF18" s="74"/>
-      <c r="AG18" s="74"/>
-      <c r="AH18" s="70"/>
-      <c r="AI18" s="70"/>
-      <c r="AJ18" s="70"/>
-      <c r="AK18" s="70"/>
-      <c r="AL18" s="70"/>
-      <c r="AM18" s="70"/>
-      <c r="AN18" s="70"/>
-      <c r="AO18" s="70"/>
-      <c r="AP18" s="70"/>
-      <c r="AQ18" s="70"/>
-      <c r="AR18" s="75"/>
-      <c r="AS18" s="75"/>
-      <c r="AT18" s="75"/>
-      <c r="AU18" s="75"/>
-      <c r="AV18" s="75"/>
-      <c r="AW18" s="70"/>
-      <c r="AX18" s="70"/>
-      <c r="AY18" s="70"/>
-      <c r="AZ18" s="70"/>
-      <c r="BA18" s="70"/>
-      <c r="BB18" s="70"/>
-      <c r="BC18" s="70"/>
-      <c r="BD18" s="70"/>
-      <c r="BE18" s="70"/>
-      <c r="BF18" s="70"/>
-      <c r="BG18" s="76"/>
-      <c r="BH18" s="76"/>
-      <c r="BI18" s="76"/>
-      <c r="BJ18" s="76"/>
-      <c r="BK18" s="76"/>
-      <c r="BL18" s="70"/>
-      <c r="BM18" s="70"/>
-      <c r="BN18" s="70"/>
-      <c r="BO18" s="70"/>
-      <c r="BP18" s="77"/>
+      <c r="I18" s="59"/>
+      <c r="J18" s="60"/>
+      <c r="K18" s="61"/>
+      <c r="L18" s="61"/>
+      <c r="M18" s="61"/>
+      <c r="N18" s="72"/>
+      <c r="O18" s="73"/>
+      <c r="P18" s="73"/>
+      <c r="Q18" s="73"/>
+      <c r="R18" s="73"/>
+      <c r="S18" s="73"/>
+      <c r="T18" s="61"/>
+      <c r="U18" s="61"/>
+      <c r="V18" s="61"/>
+      <c r="W18" s="61"/>
+      <c r="X18" s="83"/>
+      <c r="Y18" s="83"/>
+      <c r="Z18" s="83"/>
+      <c r="AA18" s="83"/>
+      <c r="AB18" s="61"/>
+      <c r="AC18" s="63"/>
+      <c r="AD18" s="63"/>
+      <c r="AE18" s="63"/>
+      <c r="AF18" s="63"/>
+      <c r="AG18" s="63"/>
+      <c r="AH18" s="61"/>
+      <c r="AI18" s="61"/>
+      <c r="AJ18" s="61"/>
+      <c r="AK18" s="61"/>
+      <c r="AL18" s="61"/>
+      <c r="AM18" s="61"/>
+      <c r="AN18" s="61"/>
+      <c r="AO18" s="61"/>
+      <c r="AP18" s="61"/>
+      <c r="AQ18" s="61"/>
+      <c r="AR18" s="64"/>
+      <c r="AS18" s="64"/>
+      <c r="AT18" s="64"/>
+      <c r="AU18" s="64"/>
+      <c r="AV18" s="64"/>
+      <c r="AW18" s="61"/>
+      <c r="AX18" s="61"/>
+      <c r="AY18" s="61"/>
+      <c r="AZ18" s="61"/>
+      <c r="BA18" s="61"/>
+      <c r="BB18" s="61"/>
+      <c r="BC18" s="61"/>
+      <c r="BD18" s="61"/>
+      <c r="BE18" s="61"/>
+      <c r="BF18" s="61"/>
+      <c r="BG18" s="65"/>
+      <c r="BH18" s="65"/>
+      <c r="BI18" s="65"/>
+      <c r="BJ18" s="65"/>
+      <c r="BK18" s="65"/>
+      <c r="BL18" s="61"/>
+      <c r="BM18" s="61"/>
+      <c r="BN18" s="61"/>
+      <c r="BO18" s="61"/>
+      <c r="BP18" s="66"/>
       <c r="BQ18" s="53"/>
     </row>
     <row r="19" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A19" s="53"/>
       <c r="B19" s="54" t="n">
-        <v>43161</v>
-      </c>
-      <c r="C19" s="55"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="56"/>
-      <c r="F19" s="56"/>
+        <v>43133</v>
+      </c>
+      <c r="C19" s="55" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" s="56" t="n">
+        <v>44966</v>
+      </c>
+      <c r="F19" s="56" t="n">
+        <v>44966</v>
+      </c>
       <c r="G19" s="57" t="n">
         <f aca="false">DAYS360(E19,F19)</f>
         <v>0</v>
       </c>
       <c r="H19" s="58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" s="68"/>
       <c r="J19" s="69"/>
@@ -2764,7 +2784,7 @@
       <c r="X19" s="70"/>
       <c r="Y19" s="70"/>
       <c r="Z19" s="70"/>
-      <c r="AA19" s="70"/>
+      <c r="AA19" s="83"/>
       <c r="AB19" s="70"/>
       <c r="AC19" s="74"/>
       <c r="AD19" s="74"/>
@@ -2811,7 +2831,7 @@
     <row r="20" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A20" s="53"/>
       <c r="B20" s="54" t="n">
-        <v>43192</v>
+        <v>43161</v>
       </c>
       <c r="C20" s="55"/>
       <c r="D20" s="55"/>
@@ -2821,7 +2841,7 @@
         <f aca="false">DAYS360(E20,F20)</f>
         <v>0</v>
       </c>
-      <c r="H20" s="78" t="n">
+      <c r="H20" s="58" t="n">
         <v>0</v>
       </c>
       <c r="I20" s="68"/>
@@ -2886,261 +2906,255 @@
       <c r="BP20" s="77"/>
       <c r="BQ20" s="53"/>
     </row>
-    <row r="21" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="27"/>
-      <c r="B21" s="47" t="n">
+    <row r="21" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+      <c r="A21" s="53"/>
+      <c r="B21" s="54" t="n">
+        <v>43192</v>
+      </c>
+      <c r="C21" s="55"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="56"/>
+      <c r="F21" s="56"/>
+      <c r="G21" s="57" t="n">
+        <f aca="false">DAYS360(E21,F21)</f>
+        <v>0</v>
+      </c>
+      <c r="H21" s="80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" s="68"/>
+      <c r="J21" s="69"/>
+      <c r="K21" s="70"/>
+      <c r="L21" s="70"/>
+      <c r="M21" s="70"/>
+      <c r="N21" s="71"/>
+      <c r="O21" s="71"/>
+      <c r="P21" s="71"/>
+      <c r="Q21" s="71"/>
+      <c r="R21" s="71"/>
+      <c r="S21" s="70"/>
+      <c r="T21" s="70"/>
+      <c r="U21" s="70"/>
+      <c r="V21" s="70"/>
+      <c r="W21" s="70"/>
+      <c r="X21" s="70"/>
+      <c r="Y21" s="70"/>
+      <c r="Z21" s="70"/>
+      <c r="AA21" s="70"/>
+      <c r="AB21" s="70"/>
+      <c r="AC21" s="74"/>
+      <c r="AD21" s="74"/>
+      <c r="AE21" s="74"/>
+      <c r="AF21" s="74"/>
+      <c r="AG21" s="74"/>
+      <c r="AH21" s="70"/>
+      <c r="AI21" s="70"/>
+      <c r="AJ21" s="70"/>
+      <c r="AK21" s="70"/>
+      <c r="AL21" s="70"/>
+      <c r="AM21" s="70"/>
+      <c r="AN21" s="70"/>
+      <c r="AO21" s="70"/>
+      <c r="AP21" s="70"/>
+      <c r="AQ21" s="70"/>
+      <c r="AR21" s="75"/>
+      <c r="AS21" s="75"/>
+      <c r="AT21" s="75"/>
+      <c r="AU21" s="75"/>
+      <c r="AV21" s="75"/>
+      <c r="AW21" s="70"/>
+      <c r="AX21" s="70"/>
+      <c r="AY21" s="70"/>
+      <c r="AZ21" s="70"/>
+      <c r="BA21" s="70"/>
+      <c r="BB21" s="70"/>
+      <c r="BC21" s="70"/>
+      <c r="BD21" s="70"/>
+      <c r="BE21" s="70"/>
+      <c r="BF21" s="70"/>
+      <c r="BG21" s="76"/>
+      <c r="BH21" s="76"/>
+      <c r="BI21" s="76"/>
+      <c r="BJ21" s="76"/>
+      <c r="BK21" s="76"/>
+      <c r="BL21" s="70"/>
+      <c r="BM21" s="70"/>
+      <c r="BN21" s="70"/>
+      <c r="BO21" s="70"/>
+      <c r="BP21" s="77"/>
+      <c r="BQ21" s="53"/>
+    </row>
+    <row r="22" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="27"/>
+      <c r="B22" s="47" t="n">
         <v>3</v>
       </c>
-      <c r="C21" s="48" t="s">
-        <v>46</v>
-      </c>
-      <c r="D21" s="48"/>
-      <c r="E21" s="49"/>
-      <c r="F21" s="49"/>
-      <c r="G21" s="80"/>
-      <c r="H21" s="80"/>
-      <c r="I21" s="50"/>
-      <c r="J21" s="51"/>
-      <c r="K21" s="52"/>
-      <c r="L21" s="52"/>
-      <c r="M21" s="50"/>
-      <c r="N21" s="50"/>
-      <c r="O21" s="50"/>
-      <c r="P21" s="50"/>
-      <c r="Q21" s="50"/>
-      <c r="R21" s="50"/>
-      <c r="S21" s="50"/>
-      <c r="T21" s="50"/>
-      <c r="U21" s="50"/>
-      <c r="V21" s="50"/>
-      <c r="W21" s="50"/>
-      <c r="X21" s="50"/>
-      <c r="Y21" s="50"/>
-      <c r="Z21" s="50"/>
-      <c r="AA21" s="50"/>
-      <c r="AB21" s="50"/>
-      <c r="AC21" s="50"/>
-      <c r="AD21" s="50"/>
-      <c r="AE21" s="50"/>
-      <c r="AF21" s="50"/>
-      <c r="AG21" s="50"/>
-      <c r="AH21" s="50"/>
-      <c r="AI21" s="50"/>
-      <c r="AJ21" s="50"/>
-      <c r="AK21" s="50"/>
-      <c r="AL21" s="50"/>
-      <c r="AM21" s="50"/>
-      <c r="AN21" s="50"/>
-      <c r="AO21" s="50"/>
-      <c r="AP21" s="50"/>
-      <c r="AQ21" s="50"/>
-      <c r="AR21" s="50"/>
-      <c r="AS21" s="50"/>
-      <c r="AT21" s="50"/>
-      <c r="AU21" s="50"/>
-      <c r="AV21" s="50"/>
-      <c r="AW21" s="50"/>
-      <c r="AX21" s="50"/>
-      <c r="AY21" s="50"/>
-      <c r="AZ21" s="50"/>
-      <c r="BA21" s="50"/>
-      <c r="BB21" s="50"/>
-      <c r="BC21" s="50"/>
-      <c r="BD21" s="50"/>
-      <c r="BE21" s="50"/>
-      <c r="BF21" s="50"/>
-      <c r="BG21" s="50"/>
-      <c r="BH21" s="50"/>
-      <c r="BI21" s="50"/>
-      <c r="BJ21" s="50"/>
-      <c r="BK21" s="50"/>
-      <c r="BL21" s="50"/>
-      <c r="BM21" s="50"/>
-      <c r="BN21" s="50"/>
-      <c r="BO21" s="50"/>
-      <c r="BP21" s="50"/>
-      <c r="BQ21" s="27"/>
-    </row>
-    <row r="22" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
-      <c r="A22" s="53"/>
-      <c r="B22" s="54" t="n">
-        <v>43103</v>
-      </c>
-      <c r="C22" s="55" t="s">
-        <v>47</v>
-      </c>
-      <c r="D22" s="55" t="s">
-        <v>37</v>
-      </c>
-      <c r="E22" s="56" t="n">
-        <v>44966</v>
-      </c>
-      <c r="F22" s="56" t="n">
-        <v>44966</v>
-      </c>
-      <c r="G22" s="57" t="n">
-        <f aca="false">DAYS360(E22,F22)</f>
-        <v>0</v>
-      </c>
-      <c r="H22" s="58" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" s="59"/>
-      <c r="J22" s="60"/>
-      <c r="K22" s="61"/>
-      <c r="L22" s="61"/>
-      <c r="M22" s="61"/>
-      <c r="N22" s="71"/>
-      <c r="O22" s="71"/>
-      <c r="P22" s="71"/>
-      <c r="Q22" s="71"/>
-      <c r="R22" s="71"/>
-      <c r="S22" s="61"/>
-      <c r="T22" s="61"/>
-      <c r="U22" s="61"/>
-      <c r="V22" s="61"/>
-      <c r="W22" s="61"/>
-      <c r="X22" s="61"/>
-      <c r="Y22" s="61"/>
-      <c r="Z22" s="61"/>
-      <c r="AA22" s="61"/>
-      <c r="AB22" s="61"/>
-      <c r="AC22" s="63"/>
-      <c r="AD22" s="63"/>
-      <c r="AE22" s="63"/>
-      <c r="AF22" s="63"/>
-      <c r="AG22" s="63"/>
-      <c r="AH22" s="61"/>
-      <c r="AI22" s="61"/>
-      <c r="AJ22" s="61"/>
-      <c r="AK22" s="61"/>
-      <c r="AL22" s="61"/>
-      <c r="AM22" s="61"/>
-      <c r="AN22" s="61"/>
-      <c r="AO22" s="61"/>
-      <c r="AP22" s="61"/>
-      <c r="AQ22" s="61"/>
-      <c r="AR22" s="64"/>
-      <c r="AS22" s="64"/>
-      <c r="AT22" s="64"/>
-      <c r="AU22" s="64"/>
-      <c r="AV22" s="64"/>
-      <c r="AW22" s="61"/>
-      <c r="AX22" s="61"/>
-      <c r="AY22" s="61"/>
-      <c r="AZ22" s="61"/>
-      <c r="BA22" s="61"/>
-      <c r="BB22" s="61"/>
-      <c r="BC22" s="61"/>
-      <c r="BD22" s="61"/>
-      <c r="BE22" s="61"/>
-      <c r="BF22" s="61"/>
-      <c r="BG22" s="65"/>
-      <c r="BH22" s="65"/>
-      <c r="BI22" s="65"/>
-      <c r="BJ22" s="65"/>
-      <c r="BK22" s="65"/>
-      <c r="BL22" s="61"/>
-      <c r="BM22" s="61"/>
-      <c r="BN22" s="61"/>
-      <c r="BO22" s="61"/>
-      <c r="BP22" s="66"/>
-      <c r="BQ22" s="53"/>
+      <c r="C22" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" s="48"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="49"/>
+      <c r="G22" s="82"/>
+      <c r="H22" s="82"/>
+      <c r="I22" s="50"/>
+      <c r="J22" s="51"/>
+      <c r="K22" s="52"/>
+      <c r="L22" s="52"/>
+      <c r="M22" s="50"/>
+      <c r="N22" s="50"/>
+      <c r="O22" s="50"/>
+      <c r="P22" s="50"/>
+      <c r="Q22" s="50"/>
+      <c r="R22" s="50"/>
+      <c r="S22" s="50"/>
+      <c r="T22" s="50"/>
+      <c r="U22" s="50"/>
+      <c r="V22" s="50"/>
+      <c r="W22" s="50"/>
+      <c r="X22" s="50"/>
+      <c r="Y22" s="50"/>
+      <c r="Z22" s="50"/>
+      <c r="AA22" s="50"/>
+      <c r="AB22" s="50"/>
+      <c r="AC22" s="50"/>
+      <c r="AD22" s="50"/>
+      <c r="AE22" s="50"/>
+      <c r="AF22" s="50"/>
+      <c r="AG22" s="50"/>
+      <c r="AH22" s="50"/>
+      <c r="AI22" s="50"/>
+      <c r="AJ22" s="50"/>
+      <c r="AK22" s="50"/>
+      <c r="AL22" s="50"/>
+      <c r="AM22" s="50"/>
+      <c r="AN22" s="50"/>
+      <c r="AO22" s="50"/>
+      <c r="AP22" s="50"/>
+      <c r="AQ22" s="50"/>
+      <c r="AR22" s="50"/>
+      <c r="AS22" s="50"/>
+      <c r="AT22" s="50"/>
+      <c r="AU22" s="50"/>
+      <c r="AV22" s="50"/>
+      <c r="AW22" s="50"/>
+      <c r="AX22" s="50"/>
+      <c r="AY22" s="50"/>
+      <c r="AZ22" s="50"/>
+      <c r="BA22" s="50"/>
+      <c r="BB22" s="50"/>
+      <c r="BC22" s="50"/>
+      <c r="BD22" s="50"/>
+      <c r="BE22" s="50"/>
+      <c r="BF22" s="50"/>
+      <c r="BG22" s="50"/>
+      <c r="BH22" s="50"/>
+      <c r="BI22" s="50"/>
+      <c r="BJ22" s="50"/>
+      <c r="BK22" s="50"/>
+      <c r="BL22" s="50"/>
+      <c r="BM22" s="50"/>
+      <c r="BN22" s="50"/>
+      <c r="BO22" s="50"/>
+      <c r="BP22" s="50"/>
+      <c r="BQ22" s="27"/>
     </row>
     <row r="23" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A23" s="53"/>
-      <c r="B23" s="82" t="s">
-        <v>48</v>
+      <c r="B23" s="54" t="n">
+        <v>43103</v>
       </c>
       <c r="C23" s="55" t="s">
         <v>49</v>
       </c>
       <c r="D23" s="55" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="E23" s="56" t="n">
         <v>44966</v>
       </c>
-      <c r="F23" s="56"/>
+      <c r="F23" s="56" t="n">
+        <v>44966</v>
+      </c>
       <c r="G23" s="57" t="n">
         <f aca="false">DAYS360(E23,F23)</f>
-        <v>-44319</v>
+        <v>0</v>
       </c>
       <c r="H23" s="58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" s="68"/>
-      <c r="J23" s="69"/>
-      <c r="K23" s="70"/>
-      <c r="L23" s="70"/>
-      <c r="M23" s="70"/>
+        <v>1</v>
+      </c>
+      <c r="I23" s="59"/>
+      <c r="J23" s="60"/>
+      <c r="K23" s="61"/>
+      <c r="L23" s="61"/>
+      <c r="M23" s="61"/>
       <c r="N23" s="71"/>
       <c r="O23" s="71"/>
       <c r="P23" s="71"/>
       <c r="Q23" s="71"/>
       <c r="R23" s="71"/>
-      <c r="S23" s="70"/>
-      <c r="T23" s="70"/>
-      <c r="U23" s="70"/>
-      <c r="V23" s="70"/>
-      <c r="W23" s="70"/>
-      <c r="X23" s="70"/>
-      <c r="Y23" s="70"/>
-      <c r="Z23" s="70"/>
-      <c r="AA23" s="70"/>
-      <c r="AB23" s="70"/>
-      <c r="AC23" s="74"/>
-      <c r="AD23" s="74"/>
-      <c r="AE23" s="74"/>
-      <c r="AF23" s="74"/>
-      <c r="AG23" s="74"/>
-      <c r="AH23" s="70"/>
-      <c r="AI23" s="70"/>
-      <c r="AJ23" s="70"/>
-      <c r="AK23" s="70"/>
-      <c r="AL23" s="70"/>
-      <c r="AM23" s="70"/>
-      <c r="AN23" s="70"/>
-      <c r="AO23" s="70"/>
-      <c r="AP23" s="70"/>
-      <c r="AQ23" s="70"/>
-      <c r="AR23" s="75"/>
-      <c r="AS23" s="75"/>
-      <c r="AT23" s="75"/>
-      <c r="AU23" s="75"/>
-      <c r="AV23" s="75"/>
-      <c r="AW23" s="70"/>
-      <c r="AX23" s="70"/>
-      <c r="AY23" s="70"/>
-      <c r="AZ23" s="70"/>
-      <c r="BA23" s="70"/>
-      <c r="BB23" s="70"/>
-      <c r="BC23" s="70"/>
-      <c r="BD23" s="70"/>
-      <c r="BE23" s="70"/>
-      <c r="BF23" s="70"/>
-      <c r="BG23" s="76"/>
-      <c r="BH23" s="76"/>
-      <c r="BI23" s="76"/>
-      <c r="BJ23" s="76"/>
-      <c r="BK23" s="76"/>
-      <c r="BL23" s="70"/>
-      <c r="BM23" s="70"/>
-      <c r="BN23" s="70"/>
-      <c r="BO23" s="70"/>
-      <c r="BP23" s="77"/>
+      <c r="S23" s="61"/>
+      <c r="T23" s="61"/>
+      <c r="U23" s="61"/>
+      <c r="V23" s="61"/>
+      <c r="W23" s="61"/>
+      <c r="X23" s="61"/>
+      <c r="Y23" s="61"/>
+      <c r="Z23" s="61"/>
+      <c r="AA23" s="61"/>
+      <c r="AB23" s="61"/>
+      <c r="AC23" s="63"/>
+      <c r="AD23" s="63"/>
+      <c r="AE23" s="63"/>
+      <c r="AF23" s="63"/>
+      <c r="AG23" s="63"/>
+      <c r="AH23" s="61"/>
+      <c r="AI23" s="61"/>
+      <c r="AJ23" s="61"/>
+      <c r="AK23" s="61"/>
+      <c r="AL23" s="61"/>
+      <c r="AM23" s="61"/>
+      <c r="AN23" s="61"/>
+      <c r="AO23" s="61"/>
+      <c r="AP23" s="61"/>
+      <c r="AQ23" s="61"/>
+      <c r="AR23" s="64"/>
+      <c r="AS23" s="64"/>
+      <c r="AT23" s="64"/>
+      <c r="AU23" s="64"/>
+      <c r="AV23" s="64"/>
+      <c r="AW23" s="61"/>
+      <c r="AX23" s="61"/>
+      <c r="AY23" s="61"/>
+      <c r="AZ23" s="61"/>
+      <c r="BA23" s="61"/>
+      <c r="BB23" s="61"/>
+      <c r="BC23" s="61"/>
+      <c r="BD23" s="61"/>
+      <c r="BE23" s="61"/>
+      <c r="BF23" s="61"/>
+      <c r="BG23" s="65"/>
+      <c r="BH23" s="65"/>
+      <c r="BI23" s="65"/>
+      <c r="BJ23" s="65"/>
+      <c r="BK23" s="65"/>
+      <c r="BL23" s="61"/>
+      <c r="BM23" s="61"/>
+      <c r="BN23" s="61"/>
+      <c r="BO23" s="61"/>
+      <c r="BP23" s="66"/>
       <c r="BQ23" s="53"/>
     </row>
     <row r="24" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A24" s="53"/>
-      <c r="B24" s="67" t="s">
+      <c r="B24" s="84" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="C24" s="55" t="s">
+      <c r="D24" s="55" t="s">
         <v>52</v>
-      </c>
-      <c r="D24" s="55" t="s">
-        <v>53</v>
       </c>
       <c r="E24" s="56" t="n">
         <v>44966</v>
@@ -3163,10 +3177,10 @@
       <c r="P24" s="71"/>
       <c r="Q24" s="71"/>
       <c r="R24" s="71"/>
-      <c r="S24" s="61"/>
-      <c r="T24" s="61"/>
-      <c r="U24" s="61"/>
-      <c r="V24" s="61"/>
+      <c r="S24" s="70"/>
+      <c r="T24" s="70"/>
+      <c r="U24" s="70"/>
+      <c r="V24" s="70"/>
       <c r="W24" s="70"/>
       <c r="X24" s="70"/>
       <c r="Y24" s="70"/>
@@ -3218,17 +3232,11 @@
     <row r="25" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A25" s="53"/>
       <c r="B25" s="67" t="s">
-        <v>54</v>
-      </c>
-      <c r="C25" s="55"/>
-      <c r="D25" s="55"/>
-      <c r="E25" s="56"/>
-      <c r="F25" s="56"/>
-      <c r="G25" s="57" t="n">
-        <f aca="false">DAYS360(E25,F25)</f>
-        <v>0</v>
-      </c>
-      <c r="H25" s="78" t="n">
+        <v>53</v>
+      </c>
+      <c r="C25" s="0"/>
+      <c r="D25" s="0"/>
+      <c r="H25" s="58" t="n">
         <v>0</v>
       </c>
       <c r="I25" s="68"/>
@@ -3295,8 +3303,8 @@
     </row>
     <row r="26" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A26" s="53"/>
-      <c r="B26" s="54" t="n">
-        <v>43162</v>
+      <c r="B26" s="67" t="s">
+        <v>54</v>
       </c>
       <c r="C26" s="55"/>
       <c r="D26" s="55"/>
@@ -3306,7 +3314,7 @@
         <f aca="false">DAYS360(E26,F26)</f>
         <v>0</v>
       </c>
-      <c r="H26" s="58" t="n">
+      <c r="H26" s="80" t="n">
         <v>0</v>
       </c>
       <c r="I26" s="68"/>
@@ -3373,8 +3381,8 @@
     </row>
     <row r="27" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A27" s="53"/>
-      <c r="B27" s="67" t="s">
-        <v>55</v>
+      <c r="B27" s="54" t="n">
+        <v>43162</v>
       </c>
       <c r="C27" s="55"/>
       <c r="D27" s="55"/>
@@ -3449,161 +3457,161 @@
       <c r="BP27" s="77"/>
       <c r="BQ27" s="53"/>
     </row>
-    <row r="28" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="27"/>
-      <c r="B28" s="47" t="n">
+    <row r="28" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+      <c r="A28" s="53"/>
+      <c r="B28" s="67" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" s="55"/>
+      <c r="D28" s="55"/>
+      <c r="E28" s="56"/>
+      <c r="F28" s="56"/>
+      <c r="G28" s="57" t="n">
+        <f aca="false">DAYS360(E28,F28)</f>
+        <v>0</v>
+      </c>
+      <c r="H28" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" s="68"/>
+      <c r="J28" s="69"/>
+      <c r="K28" s="70"/>
+      <c r="L28" s="70"/>
+      <c r="M28" s="70"/>
+      <c r="N28" s="71"/>
+      <c r="O28" s="71"/>
+      <c r="P28" s="71"/>
+      <c r="Q28" s="71"/>
+      <c r="R28" s="71"/>
+      <c r="S28" s="61"/>
+      <c r="T28" s="61"/>
+      <c r="U28" s="61"/>
+      <c r="V28" s="61"/>
+      <c r="W28" s="70"/>
+      <c r="X28" s="70"/>
+      <c r="Y28" s="70"/>
+      <c r="Z28" s="70"/>
+      <c r="AA28" s="70"/>
+      <c r="AB28" s="70"/>
+      <c r="AC28" s="74"/>
+      <c r="AD28" s="74"/>
+      <c r="AE28" s="74"/>
+      <c r="AF28" s="74"/>
+      <c r="AG28" s="74"/>
+      <c r="AH28" s="70"/>
+      <c r="AI28" s="70"/>
+      <c r="AJ28" s="70"/>
+      <c r="AK28" s="70"/>
+      <c r="AL28" s="70"/>
+      <c r="AM28" s="70"/>
+      <c r="AN28" s="70"/>
+      <c r="AO28" s="70"/>
+      <c r="AP28" s="70"/>
+      <c r="AQ28" s="70"/>
+      <c r="AR28" s="75"/>
+      <c r="AS28" s="75"/>
+      <c r="AT28" s="75"/>
+      <c r="AU28" s="75"/>
+      <c r="AV28" s="75"/>
+      <c r="AW28" s="70"/>
+      <c r="AX28" s="70"/>
+      <c r="AY28" s="70"/>
+      <c r="AZ28" s="70"/>
+      <c r="BA28" s="70"/>
+      <c r="BB28" s="70"/>
+      <c r="BC28" s="70"/>
+      <c r="BD28" s="70"/>
+      <c r="BE28" s="70"/>
+      <c r="BF28" s="70"/>
+      <c r="BG28" s="76"/>
+      <c r="BH28" s="76"/>
+      <c r="BI28" s="76"/>
+      <c r="BJ28" s="76"/>
+      <c r="BK28" s="76"/>
+      <c r="BL28" s="70"/>
+      <c r="BM28" s="70"/>
+      <c r="BN28" s="70"/>
+      <c r="BO28" s="70"/>
+      <c r="BP28" s="77"/>
+      <c r="BQ28" s="53"/>
+    </row>
+    <row r="29" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="27"/>
+      <c r="B29" s="47" t="n">
         <v>4</v>
       </c>
-      <c r="C28" s="48"/>
-      <c r="D28" s="48"/>
-      <c r="E28" s="49"/>
-      <c r="F28" s="49"/>
-      <c r="G28" s="80"/>
-      <c r="H28" s="80"/>
-      <c r="I28" s="50"/>
-      <c r="J28" s="51"/>
-      <c r="K28" s="52"/>
-      <c r="L28" s="52"/>
-      <c r="M28" s="50"/>
-      <c r="N28" s="50"/>
-      <c r="O28" s="50"/>
-      <c r="P28" s="50"/>
-      <c r="Q28" s="50"/>
-      <c r="R28" s="50"/>
-      <c r="S28" s="50"/>
-      <c r="T28" s="50"/>
-      <c r="U28" s="50"/>
-      <c r="V28" s="50"/>
-      <c r="W28" s="50"/>
-      <c r="X28" s="50"/>
-      <c r="Y28" s="50"/>
-      <c r="Z28" s="50"/>
-      <c r="AA28" s="50"/>
-      <c r="AB28" s="50"/>
-      <c r="AC28" s="50"/>
-      <c r="AD28" s="50"/>
-      <c r="AE28" s="50"/>
-      <c r="AF28" s="50"/>
-      <c r="AG28" s="50"/>
-      <c r="AH28" s="50"/>
-      <c r="AI28" s="50"/>
-      <c r="AJ28" s="50"/>
-      <c r="AK28" s="50"/>
-      <c r="AL28" s="50"/>
-      <c r="AM28" s="50"/>
-      <c r="AN28" s="50"/>
-      <c r="AO28" s="50"/>
-      <c r="AP28" s="50"/>
-      <c r="AQ28" s="50"/>
-      <c r="AR28" s="50"/>
-      <c r="AS28" s="50"/>
-      <c r="AT28" s="50"/>
-      <c r="AU28" s="50"/>
-      <c r="AV28" s="50"/>
-      <c r="AW28" s="50"/>
-      <c r="AX28" s="50"/>
-      <c r="AY28" s="50"/>
-      <c r="AZ28" s="50"/>
-      <c r="BA28" s="50"/>
-      <c r="BB28" s="50"/>
-      <c r="BC28" s="50"/>
-      <c r="BD28" s="50"/>
-      <c r="BE28" s="50"/>
-      <c r="BF28" s="50"/>
-      <c r="BG28" s="50"/>
-      <c r="BH28" s="50"/>
-      <c r="BI28" s="50"/>
-      <c r="BJ28" s="50"/>
-      <c r="BK28" s="50"/>
-      <c r="BL28" s="50"/>
-      <c r="BM28" s="50"/>
-      <c r="BN28" s="50"/>
-      <c r="BO28" s="50"/>
-      <c r="BP28" s="50"/>
-      <c r="BQ28" s="27"/>
-    </row>
-    <row r="29" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
-      <c r="A29" s="53"/>
-      <c r="B29" s="54" t="n">
-        <v>43104</v>
-      </c>
-      <c r="C29" s="55"/>
-      <c r="D29" s="55"/>
-      <c r="E29" s="56"/>
-      <c r="F29" s="56"/>
-      <c r="G29" s="57" t="n">
-        <f aca="false">DAYS360(E29,F29)</f>
-        <v>0</v>
-      </c>
-      <c r="H29" s="58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" s="59"/>
-      <c r="J29" s="60"/>
-      <c r="K29" s="61"/>
-      <c r="L29" s="61"/>
-      <c r="M29" s="61"/>
-      <c r="N29" s="72"/>
-      <c r="O29" s="72"/>
-      <c r="P29" s="72"/>
-      <c r="Q29" s="72"/>
-      <c r="R29" s="72"/>
-      <c r="S29" s="61"/>
-      <c r="T29" s="61"/>
-      <c r="U29" s="61"/>
-      <c r="V29" s="61"/>
-      <c r="W29" s="61"/>
-      <c r="X29" s="61"/>
-      <c r="Y29" s="61"/>
-      <c r="Z29" s="61"/>
-      <c r="AA29" s="61"/>
-      <c r="AB29" s="61"/>
-      <c r="AC29" s="63"/>
-      <c r="AD29" s="63"/>
-      <c r="AE29" s="63"/>
-      <c r="AF29" s="63"/>
-      <c r="AG29" s="63"/>
-      <c r="AH29" s="61"/>
-      <c r="AI29" s="61"/>
-      <c r="AJ29" s="61"/>
-      <c r="AK29" s="61"/>
-      <c r="AL29" s="61"/>
-      <c r="AM29" s="61"/>
-      <c r="AN29" s="61"/>
-      <c r="AO29" s="61"/>
-      <c r="AP29" s="61"/>
-      <c r="AQ29" s="61"/>
-      <c r="AR29" s="64"/>
-      <c r="AS29" s="64"/>
-      <c r="AT29" s="64"/>
-      <c r="AU29" s="64"/>
-      <c r="AV29" s="64"/>
-      <c r="AW29" s="61"/>
-      <c r="AX29" s="61"/>
-      <c r="AY29" s="61"/>
-      <c r="AZ29" s="61"/>
-      <c r="BA29" s="61"/>
-      <c r="BB29" s="61"/>
-      <c r="BC29" s="61"/>
-      <c r="BD29" s="61"/>
-      <c r="BE29" s="61"/>
-      <c r="BF29" s="61"/>
-      <c r="BG29" s="65"/>
-      <c r="BH29" s="65"/>
-      <c r="BI29" s="65"/>
-      <c r="BJ29" s="65"/>
-      <c r="BK29" s="65"/>
-      <c r="BL29" s="61"/>
-      <c r="BM29" s="61"/>
-      <c r="BN29" s="61"/>
-      <c r="BO29" s="61"/>
-      <c r="BP29" s="66"/>
-      <c r="BQ29" s="53"/>
+      <c r="C29" s="48"/>
+      <c r="D29" s="48"/>
+      <c r="E29" s="49"/>
+      <c r="F29" s="49"/>
+      <c r="G29" s="82"/>
+      <c r="H29" s="82"/>
+      <c r="I29" s="50"/>
+      <c r="J29" s="51"/>
+      <c r="K29" s="52"/>
+      <c r="L29" s="52"/>
+      <c r="M29" s="50"/>
+      <c r="N29" s="50"/>
+      <c r="O29" s="50"/>
+      <c r="P29" s="50"/>
+      <c r="Q29" s="50"/>
+      <c r="R29" s="50"/>
+      <c r="S29" s="50"/>
+      <c r="T29" s="50"/>
+      <c r="U29" s="50"/>
+      <c r="V29" s="50"/>
+      <c r="W29" s="50"/>
+      <c r="X29" s="50"/>
+      <c r="Y29" s="50"/>
+      <c r="Z29" s="50"/>
+      <c r="AA29" s="50"/>
+      <c r="AB29" s="50"/>
+      <c r="AC29" s="50"/>
+      <c r="AD29" s="50"/>
+      <c r="AE29" s="50"/>
+      <c r="AF29" s="50"/>
+      <c r="AG29" s="50"/>
+      <c r="AH29" s="50"/>
+      <c r="AI29" s="50"/>
+      <c r="AJ29" s="50"/>
+      <c r="AK29" s="50"/>
+      <c r="AL29" s="50"/>
+      <c r="AM29" s="50"/>
+      <c r="AN29" s="50"/>
+      <c r="AO29" s="50"/>
+      <c r="AP29" s="50"/>
+      <c r="AQ29" s="50"/>
+      <c r="AR29" s="50"/>
+      <c r="AS29" s="50"/>
+      <c r="AT29" s="50"/>
+      <c r="AU29" s="50"/>
+      <c r="AV29" s="50"/>
+      <c r="AW29" s="50"/>
+      <c r="AX29" s="50"/>
+      <c r="AY29" s="50"/>
+      <c r="AZ29" s="50"/>
+      <c r="BA29" s="50"/>
+      <c r="BB29" s="50"/>
+      <c r="BC29" s="50"/>
+      <c r="BD29" s="50"/>
+      <c r="BE29" s="50"/>
+      <c r="BF29" s="50"/>
+      <c r="BG29" s="50"/>
+      <c r="BH29" s="50"/>
+      <c r="BI29" s="50"/>
+      <c r="BJ29" s="50"/>
+      <c r="BK29" s="50"/>
+      <c r="BL29" s="50"/>
+      <c r="BM29" s="50"/>
+      <c r="BN29" s="50"/>
+      <c r="BO29" s="50"/>
+      <c r="BP29" s="50"/>
+      <c r="BQ29" s="27"/>
     </row>
     <row r="30" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A30" s="53"/>
       <c r="B30" s="54" t="n">
-        <v>43135</v>
+        <v>43104</v>
       </c>
       <c r="C30" s="55"/>
       <c r="D30" s="55"/>
@@ -3616,72 +3624,72 @@
       <c r="H30" s="58" t="n">
         <v>0</v>
       </c>
-      <c r="I30" s="68"/>
-      <c r="J30" s="69"/>
-      <c r="K30" s="70"/>
-      <c r="L30" s="70"/>
-      <c r="M30" s="70"/>
+      <c r="I30" s="59"/>
+      <c r="J30" s="60"/>
+      <c r="K30" s="61"/>
+      <c r="L30" s="61"/>
+      <c r="M30" s="61"/>
       <c r="N30" s="72"/>
       <c r="O30" s="72"/>
       <c r="P30" s="72"/>
       <c r="Q30" s="72"/>
       <c r="R30" s="72"/>
-      <c r="S30" s="70"/>
-      <c r="T30" s="70"/>
-      <c r="U30" s="70"/>
-      <c r="V30" s="70"/>
-      <c r="W30" s="70"/>
-      <c r="X30" s="70"/>
-      <c r="Y30" s="70"/>
-      <c r="Z30" s="70"/>
-      <c r="AA30" s="70"/>
-      <c r="AB30" s="70"/>
-      <c r="AC30" s="74"/>
-      <c r="AD30" s="74"/>
-      <c r="AE30" s="74"/>
-      <c r="AF30" s="74"/>
-      <c r="AG30" s="74"/>
-      <c r="AH30" s="70"/>
-      <c r="AI30" s="70"/>
-      <c r="AJ30" s="70"/>
-      <c r="AK30" s="70"/>
-      <c r="AL30" s="70"/>
-      <c r="AM30" s="70"/>
-      <c r="AN30" s="70"/>
-      <c r="AO30" s="70"/>
-      <c r="AP30" s="70"/>
-      <c r="AQ30" s="70"/>
-      <c r="AR30" s="75"/>
-      <c r="AS30" s="75"/>
-      <c r="AT30" s="75"/>
-      <c r="AU30" s="75"/>
-      <c r="AV30" s="75"/>
-      <c r="AW30" s="70"/>
-      <c r="AX30" s="70"/>
-      <c r="AY30" s="70"/>
-      <c r="AZ30" s="70"/>
-      <c r="BA30" s="70"/>
-      <c r="BB30" s="70"/>
-      <c r="BC30" s="70"/>
-      <c r="BD30" s="70"/>
-      <c r="BE30" s="70"/>
-      <c r="BF30" s="70"/>
-      <c r="BG30" s="76"/>
-      <c r="BH30" s="76"/>
-      <c r="BI30" s="76"/>
-      <c r="BJ30" s="76"/>
-      <c r="BK30" s="76"/>
-      <c r="BL30" s="70"/>
-      <c r="BM30" s="70"/>
-      <c r="BN30" s="70"/>
-      <c r="BO30" s="70"/>
-      <c r="BP30" s="77"/>
+      <c r="S30" s="61"/>
+      <c r="T30" s="61"/>
+      <c r="U30" s="61"/>
+      <c r="V30" s="61"/>
+      <c r="W30" s="61"/>
+      <c r="X30" s="61"/>
+      <c r="Y30" s="61"/>
+      <c r="Z30" s="61"/>
+      <c r="AA30" s="61"/>
+      <c r="AB30" s="61"/>
+      <c r="AC30" s="63"/>
+      <c r="AD30" s="63"/>
+      <c r="AE30" s="63"/>
+      <c r="AF30" s="63"/>
+      <c r="AG30" s="63"/>
+      <c r="AH30" s="61"/>
+      <c r="AI30" s="61"/>
+      <c r="AJ30" s="61"/>
+      <c r="AK30" s="61"/>
+      <c r="AL30" s="61"/>
+      <c r="AM30" s="61"/>
+      <c r="AN30" s="61"/>
+      <c r="AO30" s="61"/>
+      <c r="AP30" s="61"/>
+      <c r="AQ30" s="61"/>
+      <c r="AR30" s="64"/>
+      <c r="AS30" s="64"/>
+      <c r="AT30" s="64"/>
+      <c r="AU30" s="64"/>
+      <c r="AV30" s="64"/>
+      <c r="AW30" s="61"/>
+      <c r="AX30" s="61"/>
+      <c r="AY30" s="61"/>
+      <c r="AZ30" s="61"/>
+      <c r="BA30" s="61"/>
+      <c r="BB30" s="61"/>
+      <c r="BC30" s="61"/>
+      <c r="BD30" s="61"/>
+      <c r="BE30" s="61"/>
+      <c r="BF30" s="61"/>
+      <c r="BG30" s="65"/>
+      <c r="BH30" s="65"/>
+      <c r="BI30" s="65"/>
+      <c r="BJ30" s="65"/>
+      <c r="BK30" s="65"/>
+      <c r="BL30" s="61"/>
+      <c r="BM30" s="61"/>
+      <c r="BN30" s="61"/>
+      <c r="BO30" s="61"/>
+      <c r="BP30" s="66"/>
       <c r="BQ30" s="53"/>
     </row>
     <row r="31" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A31" s="53"/>
       <c r="B31" s="54" t="n">
-        <v>43163</v>
+        <v>43135</v>
       </c>
       <c r="C31" s="55"/>
       <c r="D31" s="55"/>
@@ -3704,10 +3712,10 @@
       <c r="P31" s="72"/>
       <c r="Q31" s="72"/>
       <c r="R31" s="72"/>
-      <c r="S31" s="61"/>
-      <c r="T31" s="61"/>
-      <c r="U31" s="61"/>
-      <c r="V31" s="61"/>
+      <c r="S31" s="70"/>
+      <c r="T31" s="70"/>
+      <c r="U31" s="70"/>
+      <c r="V31" s="70"/>
       <c r="W31" s="70"/>
       <c r="X31" s="70"/>
       <c r="Y31" s="70"/>
@@ -3759,7 +3767,7 @@
     <row r="32" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A32" s="53"/>
       <c r="B32" s="54" t="n">
-        <v>43194</v>
+        <v>43163</v>
       </c>
       <c r="C32" s="55"/>
       <c r="D32" s="55"/>
@@ -3769,7 +3777,7 @@
         <f aca="false">DAYS360(E32,F32)</f>
         <v>0</v>
       </c>
-      <c r="H32" s="78" t="n">
+      <c r="H32" s="58" t="n">
         <v>0</v>
       </c>
       <c r="I32" s="68"/>
@@ -3834,76 +3842,83 @@
       <c r="BP32" s="77"/>
       <c r="BQ32" s="53"/>
     </row>
-    <row r="33" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="27"/>
-      <c r="B33" s="27"/>
-      <c r="C33" s="27"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="27"/>
-      <c r="F33" s="27"/>
-      <c r="G33" s="83"/>
-      <c r="H33" s="83"/>
-      <c r="I33" s="27"/>
-      <c r="J33" s="27"/>
-      <c r="K33" s="27"/>
-      <c r="L33" s="27"/>
-      <c r="M33" s="27"/>
-      <c r="N33" s="27"/>
-      <c r="O33" s="27"/>
-      <c r="P33" s="27"/>
-      <c r="Q33" s="27"/>
-      <c r="R33" s="27"/>
-      <c r="S33" s="27"/>
-      <c r="T33" s="27"/>
-      <c r="U33" s="27"/>
-      <c r="V33" s="27"/>
-      <c r="W33" s="27"/>
-      <c r="X33" s="27"/>
-      <c r="Y33" s="27"/>
-      <c r="Z33" s="27"/>
-      <c r="AA33" s="27"/>
-      <c r="AB33" s="27"/>
-      <c r="AC33" s="27"/>
-      <c r="AD33" s="27"/>
-      <c r="AE33" s="27"/>
-      <c r="AF33" s="27"/>
-      <c r="AG33" s="27"/>
-      <c r="AH33" s="27"/>
-      <c r="AI33" s="27"/>
-      <c r="AJ33" s="27"/>
-      <c r="AK33" s="27"/>
-      <c r="AL33" s="27"/>
-      <c r="AM33" s="27"/>
-      <c r="AN33" s="27"/>
-      <c r="AO33" s="27"/>
-      <c r="AP33" s="27"/>
-      <c r="AQ33" s="27"/>
-      <c r="AR33" s="27"/>
-      <c r="AS33" s="27"/>
-      <c r="AT33" s="27"/>
-      <c r="AU33" s="27"/>
-      <c r="AV33" s="27"/>
-      <c r="AW33" s="27"/>
-      <c r="AX33" s="27"/>
-      <c r="AY33" s="27"/>
-      <c r="AZ33" s="27"/>
-      <c r="BA33" s="27"/>
-      <c r="BB33" s="27"/>
-      <c r="BC33" s="27"/>
-      <c r="BD33" s="27"/>
-      <c r="BE33" s="27"/>
-      <c r="BF33" s="27"/>
-      <c r="BG33" s="27"/>
-      <c r="BH33" s="27"/>
-      <c r="BI33" s="27"/>
-      <c r="BJ33" s="27"/>
-      <c r="BK33" s="27"/>
-      <c r="BL33" s="27"/>
-      <c r="BM33" s="27"/>
-      <c r="BN33" s="27"/>
-      <c r="BO33" s="27"/>
-      <c r="BP33" s="27"/>
-      <c r="BQ33" s="27"/>
+    <row r="33" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+      <c r="A33" s="53"/>
+      <c r="B33" s="54" t="n">
+        <v>43194</v>
+      </c>
+      <c r="C33" s="55"/>
+      <c r="D33" s="55"/>
+      <c r="E33" s="56"/>
+      <c r="F33" s="56"/>
+      <c r="G33" s="57" t="n">
+        <f aca="false">DAYS360(E33,F33)</f>
+        <v>0</v>
+      </c>
+      <c r="H33" s="80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" s="68"/>
+      <c r="J33" s="69"/>
+      <c r="K33" s="70"/>
+      <c r="L33" s="70"/>
+      <c r="M33" s="70"/>
+      <c r="N33" s="72"/>
+      <c r="O33" s="72"/>
+      <c r="P33" s="72"/>
+      <c r="Q33" s="72"/>
+      <c r="R33" s="72"/>
+      <c r="S33" s="61"/>
+      <c r="T33" s="61"/>
+      <c r="U33" s="61"/>
+      <c r="V33" s="61"/>
+      <c r="W33" s="70"/>
+      <c r="X33" s="70"/>
+      <c r="Y33" s="70"/>
+      <c r="Z33" s="70"/>
+      <c r="AA33" s="70"/>
+      <c r="AB33" s="70"/>
+      <c r="AC33" s="74"/>
+      <c r="AD33" s="74"/>
+      <c r="AE33" s="74"/>
+      <c r="AF33" s="74"/>
+      <c r="AG33" s="74"/>
+      <c r="AH33" s="70"/>
+      <c r="AI33" s="70"/>
+      <c r="AJ33" s="70"/>
+      <c r="AK33" s="70"/>
+      <c r="AL33" s="70"/>
+      <c r="AM33" s="70"/>
+      <c r="AN33" s="70"/>
+      <c r="AO33" s="70"/>
+      <c r="AP33" s="70"/>
+      <c r="AQ33" s="70"/>
+      <c r="AR33" s="75"/>
+      <c r="AS33" s="75"/>
+      <c r="AT33" s="75"/>
+      <c r="AU33" s="75"/>
+      <c r="AV33" s="75"/>
+      <c r="AW33" s="70"/>
+      <c r="AX33" s="70"/>
+      <c r="AY33" s="70"/>
+      <c r="AZ33" s="70"/>
+      <c r="BA33" s="70"/>
+      <c r="BB33" s="70"/>
+      <c r="BC33" s="70"/>
+      <c r="BD33" s="70"/>
+      <c r="BE33" s="70"/>
+      <c r="BF33" s="70"/>
+      <c r="BG33" s="76"/>
+      <c r="BH33" s="76"/>
+      <c r="BI33" s="76"/>
+      <c r="BJ33" s="76"/>
+      <c r="BK33" s="76"/>
+      <c r="BL33" s="70"/>
+      <c r="BM33" s="70"/>
+      <c r="BN33" s="70"/>
+      <c r="BO33" s="70"/>
+      <c r="BP33" s="77"/>
+      <c r="BQ33" s="53"/>
     </row>
     <row r="34" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="27"/>
@@ -3912,8 +3927,8 @@
       <c r="D34" s="27"/>
       <c r="E34" s="27"/>
       <c r="F34" s="27"/>
-      <c r="G34" s="83"/>
-      <c r="H34" s="83"/>
+      <c r="G34" s="85"/>
+      <c r="H34" s="85"/>
       <c r="I34" s="27"/>
       <c r="J34" s="27"/>
       <c r="K34" s="27"/>
@@ -3983,8 +3998,8 @@
       <c r="D35" s="27"/>
       <c r="E35" s="27"/>
       <c r="F35" s="27"/>
-      <c r="G35" s="83"/>
-      <c r="H35" s="83"/>
+      <c r="G35" s="85"/>
+      <c r="H35" s="85"/>
       <c r="I35" s="27"/>
       <c r="J35" s="27"/>
       <c r="K35" s="27"/>
@@ -4047,7 +4062,77 @@
       <c r="BP35" s="27"/>
       <c r="BQ35" s="27"/>
     </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="36" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="27"/>
+      <c r="B36" s="27"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="27"/>
+      <c r="G36" s="85"/>
+      <c r="H36" s="85"/>
+      <c r="I36" s="27"/>
+      <c r="J36" s="27"/>
+      <c r="K36" s="27"/>
+      <c r="L36" s="27"/>
+      <c r="M36" s="27"/>
+      <c r="N36" s="27"/>
+      <c r="O36" s="27"/>
+      <c r="P36" s="27"/>
+      <c r="Q36" s="27"/>
+      <c r="R36" s="27"/>
+      <c r="S36" s="27"/>
+      <c r="T36" s="27"/>
+      <c r="U36" s="27"/>
+      <c r="V36" s="27"/>
+      <c r="W36" s="27"/>
+      <c r="X36" s="27"/>
+      <c r="Y36" s="27"/>
+      <c r="Z36" s="27"/>
+      <c r="AA36" s="27"/>
+      <c r="AB36" s="27"/>
+      <c r="AC36" s="27"/>
+      <c r="AD36" s="27"/>
+      <c r="AE36" s="27"/>
+      <c r="AF36" s="27"/>
+      <c r="AG36" s="27"/>
+      <c r="AH36" s="27"/>
+      <c r="AI36" s="27"/>
+      <c r="AJ36" s="27"/>
+      <c r="AK36" s="27"/>
+      <c r="AL36" s="27"/>
+      <c r="AM36" s="27"/>
+      <c r="AN36" s="27"/>
+      <c r="AO36" s="27"/>
+      <c r="AP36" s="27"/>
+      <c r="AQ36" s="27"/>
+      <c r="AR36" s="27"/>
+      <c r="AS36" s="27"/>
+      <c r="AT36" s="27"/>
+      <c r="AU36" s="27"/>
+      <c r="AV36" s="27"/>
+      <c r="AW36" s="27"/>
+      <c r="AX36" s="27"/>
+      <c r="AY36" s="27"/>
+      <c r="AZ36" s="27"/>
+      <c r="BA36" s="27"/>
+      <c r="BB36" s="27"/>
+      <c r="BC36" s="27"/>
+      <c r="BD36" s="27"/>
+      <c r="BE36" s="27"/>
+      <c r="BF36" s="27"/>
+      <c r="BG36" s="27"/>
+      <c r="BH36" s="27"/>
+      <c r="BI36" s="27"/>
+      <c r="BJ36" s="27"/>
+      <c r="BK36" s="27"/>
+      <c r="BL36" s="27"/>
+      <c r="BM36" s="27"/>
+      <c r="BN36" s="27"/>
+      <c r="BO36" s="27"/>
+      <c r="BP36" s="27"/>
+      <c r="BQ36" s="27"/>
+    </row>
   </sheetData>
   <mergeCells count="34">
     <mergeCell ref="B2:H2"/>
@@ -4085,7 +4170,7 @@
     <mergeCell ref="BG9:BK9"/>
     <mergeCell ref="BL9:BP9"/>
   </mergeCells>
-  <conditionalFormatting sqref="H12:H15 H17:H32">
+  <conditionalFormatting sqref="H12:H16 H18:H33">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -4095,7 +4180,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H12:H15 H17:H32">
+  <conditionalFormatting sqref="H12:H16 H18:H33">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -4105,7 +4190,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G21">
+  <conditionalFormatting sqref="G22">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -4115,7 +4200,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G21">
+  <conditionalFormatting sqref="G22">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -4125,7 +4210,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G16">
+  <conditionalFormatting sqref="G17">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -4135,7 +4220,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G16">
+  <conditionalFormatting sqref="G17">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -4145,7 +4230,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G28">
+  <conditionalFormatting sqref="G29">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -4155,7 +4240,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G28">
+  <conditionalFormatting sqref="G29">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min" val="0"/>

--- a/Diagramme de Gantt.xlsx
+++ b/Diagramme de Gantt.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="61">
   <si>
     <t xml:space="preserve">MODÈLE DE DIAGRAMME DE GANTT</t>
   </si>
@@ -162,34 +162,49 @@
     <t xml:space="preserve">Réalisation du cahier des charges</t>
   </si>
   <si>
+    <t xml:space="preserve">Analyse Algorithmique de la version 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Analyse Algorithmique de la version finale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Codage &amp; Test </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Récupération d’un projet existant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">’3.1.1 ‘</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test du code Existant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soumia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'3.1.2’</t>
+  </si>
+  <si>
     <t xml:space="preserve">Réalisation d’un Makefile générique</t>
   </si>
   <si>
     <t xml:space="preserve">Xavier</t>
   </si>
   <si>
-    <t xml:space="preserve">Codage &amp; Test </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Récupération d’un projet existant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">’3.1.1 ‘</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test du code Existant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Soumia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">'3.1.2’</t>
-  </si>
-  <si>
     <t xml:space="preserve">3.2.2</t>
   </si>
   <si>
     <t xml:space="preserve">3.3.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contrôle du projet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Préparation du rapport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Préparation de la soutenance</t>
   </si>
 </sst>
 </file>
@@ -1169,15 +1184,15 @@
   </sheetPr>
   <dimension ref="A1:BQ36"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AB20" activeCellId="0" sqref="AB20"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C20" activeCellId="0" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.73046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="29.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="34.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="13.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="10.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="8.63"/>
@@ -2347,7 +2362,7 @@
         <v>13</v>
       </c>
       <c r="H14" s="58" t="n">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="I14" s="68"/>
       <c r="J14" s="69"/>
@@ -2432,7 +2447,9 @@
         <f aca="false">DAYS360(E15,F15)</f>
         <v>24</v>
       </c>
-      <c r="H15" s="58"/>
+      <c r="H15" s="58" t="n">
+        <v>0.5</v>
+      </c>
       <c r="I15" s="68"/>
       <c r="J15" s="69"/>
       <c r="K15" s="70"/>
@@ -2517,7 +2534,7 @@
         <v>2</v>
       </c>
       <c r="H16" s="80" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="I16" s="68"/>
       <c r="J16" s="69"/>
@@ -2747,25 +2764,8 @@
       <c r="B19" s="54" t="n">
         <v>43133</v>
       </c>
-      <c r="C19" s="55" t="s">
-        <v>46</v>
-      </c>
-      <c r="D19" s="55" t="s">
-        <v>47</v>
-      </c>
-      <c r="E19" s="56" t="n">
-        <v>44966</v>
-      </c>
-      <c r="F19" s="56" t="n">
-        <v>44966</v>
-      </c>
-      <c r="G19" s="57" t="n">
-        <f aca="false">DAYS360(E19,F19)</f>
-        <v>0</v>
-      </c>
-      <c r="H19" s="58" t="n">
-        <v>1</v>
-      </c>
+      <c r="C19" s="0"/>
+      <c r="D19" s="0"/>
       <c r="I19" s="68"/>
       <c r="J19" s="69"/>
       <c r="K19" s="70"/>
@@ -2833,8 +2833,12 @@
       <c r="B20" s="54" t="n">
         <v>43161</v>
       </c>
-      <c r="C20" s="55"/>
-      <c r="D20" s="55"/>
+      <c r="C20" s="55" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="55" t="s">
+        <v>37</v>
+      </c>
       <c r="E20" s="56"/>
       <c r="F20" s="56"/>
       <c r="G20" s="57" t="n">
@@ -2842,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="H20" s="58" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="I20" s="68"/>
       <c r="J20" s="69"/>
@@ -2911,8 +2915,12 @@
       <c r="B21" s="54" t="n">
         <v>43192</v>
       </c>
-      <c r="C21" s="55"/>
-      <c r="D21" s="55"/>
+      <c r="C21" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" s="55" t="s">
+        <v>37</v>
+      </c>
       <c r="E21" s="56"/>
       <c r="F21" s="56"/>
       <c r="G21" s="57" t="n">
@@ -3159,13 +3167,15 @@
       <c r="E24" s="56" t="n">
         <v>44966</v>
       </c>
-      <c r="F24" s="56"/>
+      <c r="F24" s="56" t="n">
+        <v>44988</v>
+      </c>
       <c r="G24" s="57" t="n">
         <f aca="false">DAYS360(E24,F24)</f>
-        <v>-44319</v>
+        <v>24</v>
       </c>
       <c r="H24" s="58" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I24" s="68"/>
       <c r="J24" s="69"/>
@@ -3234,10 +3244,24 @@
       <c r="B25" s="67" t="s">
         <v>53</v>
       </c>
-      <c r="C25" s="0"/>
-      <c r="D25" s="0"/>
+      <c r="C25" s="55" t="s">
+        <v>54</v>
+      </c>
+      <c r="D25" s="55" t="s">
+        <v>55</v>
+      </c>
+      <c r="E25" s="56" t="n">
+        <v>44966</v>
+      </c>
+      <c r="F25" s="56" t="n">
+        <v>44966</v>
+      </c>
+      <c r="G25" s="57" t="n">
+        <f aca="false">DAYS360(E25,F25)</f>
+        <v>0</v>
+      </c>
       <c r="H25" s="58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" s="68"/>
       <c r="J25" s="69"/>
@@ -3304,7 +3328,7 @@
     <row r="26" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A26" s="53"/>
       <c r="B26" s="67" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C26" s="55"/>
       <c r="D26" s="55"/>
@@ -3460,7 +3484,7 @@
     <row r="28" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A28" s="53"/>
       <c r="B28" s="67" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C28" s="55"/>
       <c r="D28" s="55"/>
@@ -3540,7 +3564,9 @@
       <c r="B29" s="47" t="n">
         <v>4</v>
       </c>
-      <c r="C29" s="48"/>
+      <c r="C29" s="48" t="s">
+        <v>58</v>
+      </c>
       <c r="D29" s="48"/>
       <c r="E29" s="49"/>
       <c r="F29" s="49"/>
@@ -3613,8 +3639,12 @@
       <c r="B30" s="54" t="n">
         <v>43104</v>
       </c>
-      <c r="C30" s="55"/>
-      <c r="D30" s="55"/>
+      <c r="C30" s="55" t="s">
+        <v>59</v>
+      </c>
+      <c r="D30" s="55" t="s">
+        <v>37</v>
+      </c>
       <c r="E30" s="56"/>
       <c r="F30" s="56"/>
       <c r="G30" s="57" t="n">
@@ -3691,8 +3721,12 @@
       <c r="B31" s="54" t="n">
         <v>43135</v>
       </c>
-      <c r="C31" s="55"/>
-      <c r="D31" s="55"/>
+      <c r="C31" s="55" t="s">
+        <v>60</v>
+      </c>
+      <c r="D31" s="55" t="s">
+        <v>37</v>
+      </c>
       <c r="E31" s="56"/>
       <c r="F31" s="56"/>
       <c r="G31" s="57" t="n">
@@ -4170,7 +4204,7 @@
     <mergeCell ref="BG9:BK9"/>
     <mergeCell ref="BL9:BP9"/>
   </mergeCells>
-  <conditionalFormatting sqref="H12:H16 H18:H33">
+  <conditionalFormatting sqref="H12:H16 H26:H33 H18 H20:H24">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -4180,7 +4214,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H12:H16 H18:H33">
+  <conditionalFormatting sqref="H12:H16 H26:H33 H18 H20:H24">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -4250,6 +4284,26 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="H25">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFFFFFF"/>
+        <color rgb="FF57BB8A"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H25">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF57BB8A"/>
+        <color rgb="FFFFFFFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
